--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
@@ -3052,7 +3052,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="G9" s="0" t="n">
         <x:v>6</x:v>
@@ -3100,7 +3100,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="V9" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
@@ -9311,7 +9311,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="G101" s="0" t="n">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="H101" s="0" t="n">
         <x:v>5</x:v>
@@ -9350,13 +9350,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="T101" s="0" t="n">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="U101" s="0" t="n">
         <x:v>94</x:v>
       </x:c>
       <x:c r="V101" s="0" t="n">
-        <x:v>667</x:v>
+        <x:v>669</x:v>
       </x:c>
     </x:row>
     <x:row r="102" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
@@ -17403,7 +17403,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="G220" s="0" t="n">
-        <x:v>205</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="H220" s="0" t="n">
         <x:v>0</x:v>
@@ -17421,16 +17421,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M220" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="N220" s="0" t="n">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="O220" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P220" s="0" t="n">
         <x:v>108</x:v>
-      </x:c>
-      <x:c r="O220" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="P220" s="0" t="n">
-        <x:v>106</x:v>
       </x:c>
       <x:c r="Q220" s="0" t="n">
         <x:v>7</x:v>
@@ -17445,7 +17445,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="U220" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="V220" s="0" t="n">
         <x:v>686</x:v>

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
@@ -13323,7 +13323,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G160" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H160" s="0" t="n">
         <x:v>0</x:v>
@@ -13368,7 +13368,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V160" s="0" t="n">
-        <x:v>54</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="161" spans="1:22">
@@ -17424,7 +17424,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="N220" s="0" t="n">
-        <x:v>107</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="O220" s="0" t="n">
         <x:v>1</x:v>
@@ -17442,13 +17442,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="T220" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="U220" s="0" t="n">
         <x:v>52</x:v>
       </x:c>
       <x:c r="V220" s="0" t="n">
-        <x:v>686</x:v>
+        <x:v>684</x:v>
       </x:c>
     </x:row>
     <x:row r="221" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
@@ -18994,7 +18994,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P243" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="Q243" s="0" t="n">
         <x:v>0</x:v>
@@ -19012,7 +19012,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V243" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="244" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
@@ -2872,7 +2872,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N6" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="O6" s="0" t="n">
         <x:v>0</x:v>
@@ -2896,7 +2896,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V6" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:22">
@@ -4755,7 +4755,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="G34" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H34" s="0" t="n">
         <x:v>0</x:v>
@@ -4776,7 +4776,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N34" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="O34" s="0" t="n">
         <x:v>0</x:v>
@@ -4794,13 +4794,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T34" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="U34" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="V34" s="0" t="n">
-        <x:v>52</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:22">
@@ -8486,7 +8486,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="D89" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E89" s="0" t="n">
         <x:v>0</x:v>
@@ -8495,7 +8495,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G89" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H89" s="0" t="n">
         <x:v>0</x:v>
@@ -8522,7 +8522,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P89" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q89" s="0" t="n">
         <x:v>0</x:v>
@@ -8540,7 +8540,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V89" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
@@ -21415,7 +21415,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G279" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H279" s="0" t="n">
         <x:v>0</x:v>
@@ -21460,7 +21460,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V279" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="280" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
@@ -13344,7 +13344,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N160" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="O160" s="0" t="n">
         <x:v>0</x:v>
@@ -13368,7 +13368,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V160" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="161" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
@@ -5503,7 +5503,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G45" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H45" s="0" t="n">
         <x:v>0</x:v>
@@ -5524,13 +5524,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N45" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="O45" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="P45" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="Q45" s="0" t="n">
         <x:v>0</x:v>
@@ -5548,7 +5548,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V45" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:22">
@@ -5571,7 +5571,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G46" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H46" s="0" t="n">
         <x:v>0</x:v>
@@ -5598,7 +5598,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="P46" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="Q46" s="0" t="n">
         <x:v>2</x:v>
@@ -5616,7 +5616,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="V46" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
@@ -18219,7 +18219,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="G232" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="H232" s="0" t="n">
         <x:v>0</x:v>
@@ -18246,7 +18246,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="P232" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="Q232" s="0" t="n">
         <x:v>3</x:v>
@@ -18264,7 +18264,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V232" s="0" t="n">
-        <x:v>90</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="233" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
@@ -7484,7 +7484,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J74" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K74" s="0" t="n">
         <x:v>0</x:v>
@@ -7520,7 +7520,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V74" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:22">
@@ -17403,7 +17403,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="G220" s="0" t="n">
-        <x:v>204</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="H220" s="0" t="n">
         <x:v>0</x:v>
@@ -17430,7 +17430,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="P220" s="0" t="n">
-        <x:v>108</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="Q220" s="0" t="n">
         <x:v>7</x:v>
@@ -17448,7 +17448,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="V220" s="0" t="n">
-        <x:v>684</x:v>
+        <x:v>682</x:v>
       </x:c>
     </x:row>
     <x:row r="221" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
@@ -13323,7 +13323,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G160" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="H160" s="0" t="n">
         <x:v>0</x:v>
@@ -13332,7 +13332,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J160" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="K160" s="0" t="n">
         <x:v>4</x:v>
@@ -13368,7 +13368,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V160" s="0" t="n">
-        <x:v>52</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="161" spans="1:22">
@@ -15839,7 +15839,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G197" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="H197" s="0" t="n">
         <x:v>0</x:v>
@@ -15884,7 +15884,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="V197" s="0" t="n">
-        <x:v>87</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="198" spans="1:22">
@@ -15895,19 +15895,19 @@
         <x:v>415</x:v>
       </x:c>
       <x:c r="C198" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D198" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E198" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F198" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G198" s="0" t="n">
-        <x:v>106</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="H198" s="0" t="n">
         <x:v>0</x:v>
@@ -15916,7 +15916,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="J198" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="K198" s="0" t="n">
         <x:v>2</x:v>
@@ -15925,34 +15925,34 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="M198" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N198" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="O198" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="P198" s="0" t="n">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="Q198" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="P198" s="0" t="n">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="Q198" s="0" t="n">
-        <x:v>8</x:v>
-      </x:c>
       <x:c r="R198" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="S198" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="T198" s="0" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="U198" s="0" t="n">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="U198" s="0" t="n">
-        <x:v>13</x:v>
-      </x:c>
       <x:c r="V198" s="0" t="n">
-        <x:v>360</x:v>
+        <x:v>235</x:v>
       </x:c>
     </x:row>
     <x:row r="199" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
@@ -3259,7 +3259,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G12" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H12" s="0" t="n">
         <x:v>0</x:v>
@@ -3304,7 +3304,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="V12" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:22">
@@ -21415,7 +21415,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G279" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H279" s="0" t="n">
         <x:v>0</x:v>
@@ -21460,7 +21460,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V279" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="280" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
@@ -8726,7 +8726,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="P92" s="0" t="n">
-        <x:v>243</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="Q92" s="0" t="n">
         <x:v>2</x:v>
@@ -8744,7 +8744,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="V92" s="0" t="n">
-        <x:v>773</x:v>
+        <x:v>772</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
@@ -8699,7 +8699,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="G92" s="0" t="n">
-        <x:v>108</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="H92" s="0" t="n">
         <x:v>0</x:v>
@@ -8744,7 +8744,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="V92" s="0" t="n">
-        <x:v>772</x:v>
+        <x:v>769</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="1:22">
@@ -18219,7 +18219,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="G232" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="H232" s="0" t="n">
         <x:v>0</x:v>
@@ -18264,7 +18264,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V232" s="0" t="n">
-        <x:v>88</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="233" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
@@ -3280,7 +3280,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="N12" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="O12" s="0" t="n">
         <x:v>0</x:v>
@@ -3304,7 +3304,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="V12" s="0" t="n">
-        <x:v>59</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
@@ -15907,7 +15907,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="G198" s="0" t="n">
-        <x:v>75</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="H198" s="0" t="n">
         <x:v>0</x:v>
@@ -15952,7 +15952,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="V198" s="0" t="n">
-        <x:v>235</x:v>
+        <x:v>234</x:v>
       </x:c>
     </x:row>
     <x:row r="199" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
@@ -3256,10 +3256,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G12" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H12" s="0" t="n">
         <x:v>0</x:v>
@@ -3268,7 +3268,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J12" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K12" s="0" t="n">
         <x:v>2</x:v>
@@ -3304,7 +3304,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="V12" s="0" t="n">
-        <x:v>58</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:22">
@@ -10863,7 +10863,7 @@
         <x:v>267</x:v>
       </x:c>
       <x:c r="C124" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D124" s="0" t="n">
         <x:v>1</x:v>
@@ -10872,7 +10872,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F124" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G124" s="0" t="n">
         <x:v>21</x:v>
@@ -10896,13 +10896,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N124" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="O124" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="P124" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="Q124" s="0" t="n">
         <x:v>0</x:v>
@@ -10917,10 +10917,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="U124" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="V124" s="0" t="n">
-        <x:v>211</x:v>
+        <x:v>204</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
@@ -10863,7 +10863,7 @@
         <x:v>267</x:v>
       </x:c>
       <x:c r="C124" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D124" s="0" t="n">
         <x:v>1</x:v>
@@ -10872,10 +10872,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F124" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G124" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H124" s="0" t="n">
         <x:v>0</x:v>
@@ -10896,13 +10896,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N124" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="O124" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="P124" s="0" t="n">
-        <x:v>57</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="Q124" s="0" t="n">
         <x:v>0</x:v>
@@ -10920,7 +10920,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="V124" s="0" t="n">
-        <x:v>204</x:v>
+        <x:v>195</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="1:22">
@@ -22979,7 +22979,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="G302" s="0" t="n">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="H302" s="0" t="n">
         <x:v>0</x:v>
@@ -23000,7 +23000,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="N302" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="O302" s="0" t="n">
         <x:v>11</x:v>
@@ -23024,7 +23024,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="V302" s="0" t="n">
-        <x:v>330</x:v>
+        <x:v>332</x:v>
       </x:c>
     </x:row>
     <x:row r="303" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
@@ -2872,7 +2872,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N6" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="O6" s="0" t="n">
         <x:v>0</x:v>
@@ -2896,7 +2896,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V6" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:22">
@@ -10896,7 +10896,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N124" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="O124" s="0" t="n">
         <x:v>2</x:v>
@@ -10920,7 +10920,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="V124" s="0" t="n">
-        <x:v>195</x:v>
+        <x:v>194</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
@@ -23000,7 +23000,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="N302" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="O302" s="0" t="n">
         <x:v>11</x:v>
@@ -23024,7 +23024,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="V302" s="0" t="n">
-        <x:v>332</x:v>
+        <x:v>331</x:v>
       </x:c>
     </x:row>
     <x:row r="303" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
@@ -10896,13 +10896,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N124" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="O124" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="P124" s="0" t="n">
-        <x:v>54</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="Q124" s="0" t="n">
         <x:v>0</x:v>
@@ -10914,13 +10914,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T124" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="U124" s="0" t="n">
         <x:v>15</x:v>
       </x:c>
       <x:c r="V124" s="0" t="n">
-        <x:v>194</x:v>
+        <x:v>189</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
@@ -10896,7 +10896,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N124" s="0" t="n">
-        <x:v>32</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="O124" s="0" t="n">
         <x:v>2</x:v>
@@ -10917,10 +10917,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="U124" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="V124" s="0" t="n">
-        <x:v>189</x:v>
+        <x:v>186</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
@@ -8844,7 +8844,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="J94" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="K94" s="0" t="n">
         <x:v>0</x:v>
@@ -8862,7 +8862,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P94" s="0" t="n">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="Q94" s="0" t="n">
         <x:v>0</x:v>
@@ -8877,10 +8877,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="U94" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="V94" s="0" t="n">
-        <x:v>126</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="95" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
@@ -2872,7 +2872,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N6" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="O6" s="0" t="n">
         <x:v>0</x:v>
@@ -2896,7 +2896,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V6" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:22">
@@ -4415,7 +4415,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G29" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H29" s="0" t="n">
         <x:v>0</x:v>
@@ -4460,7 +4460,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V29" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:22">
@@ -15830,7 +15830,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D197" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E197" s="0" t="n">
         <x:v>0</x:v>
@@ -15866,7 +15866,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="P197" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="Q197" s="0" t="n">
         <x:v>2</x:v>
@@ -15884,7 +15884,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="V197" s="0" t="n">
-        <x:v>86</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="198" spans="1:22">
@@ -15934,7 +15934,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="P198" s="0" t="n">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="Q198" s="0" t="n">
         <x:v>5</x:v>
@@ -15949,10 +15949,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="U198" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="V198" s="0" t="n">
-        <x:v>234</x:v>
+        <x:v>236</x:v>
       </x:c>
     </x:row>
     <x:row r="199" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
@@ -10863,7 +10863,7 @@
         <x:v>267</x:v>
       </x:c>
       <x:c r="C124" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D124" s="0" t="n">
         <x:v>1</x:v>
@@ -10884,7 +10884,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="J124" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="K124" s="0" t="n">
         <x:v>0</x:v>
@@ -10896,13 +10896,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N124" s="0" t="n">
-        <x:v>30</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="O124" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="P124" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="Q124" s="0" t="n">
         <x:v>0</x:v>
@@ -10920,7 +10920,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="V124" s="0" t="n">
-        <x:v>186</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="1:22">
@@ -15907,7 +15907,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="G198" s="0" t="n">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="H198" s="0" t="n">
         <x:v>0</x:v>
@@ -15952,7 +15952,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="V198" s="0" t="n">
-        <x:v>236</x:v>
+        <x:v>238</x:v>
       </x:c>
     </x:row>
     <x:row r="199" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
@@ -3484,7 +3484,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="N15" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="O15" s="0" t="n">
         <x:v>0</x:v>
@@ -3508,7 +3508,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V15" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:22">
@@ -10902,7 +10902,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="P124" s="0" t="n">
-        <x:v>52</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="Q124" s="0" t="n">
         <x:v>0</x:v>
@@ -10920,7 +10920,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="V124" s="0" t="n">
-        <x:v>182</x:v>
+        <x:v>181</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
@@ -10896,13 +10896,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N124" s="0" t="n">
-        <x:v>29</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="O124" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="P124" s="0" t="n">
-        <x:v>51</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="Q124" s="0" t="n">
         <x:v>0</x:v>
@@ -10920,7 +10920,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="V124" s="0" t="n">
-        <x:v>181</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="1:22">
@@ -19736,7 +19736,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="N254" s="0" t="n">
-        <x:v>82</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="O254" s="0" t="n">
         <x:v>8</x:v>
@@ -19760,7 +19760,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="V254" s="0" t="n">
-        <x:v>342</x:v>
+        <x:v>341</x:v>
       </x:c>
     </x:row>
     <x:row r="255" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
@@ -10875,7 +10875,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="G124" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H124" s="0" t="n">
         <x:v>0</x:v>
@@ -10884,7 +10884,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="J124" s="0" t="n">
-        <x:v>18</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="K124" s="0" t="n">
         <x:v>0</x:v>
@@ -10896,13 +10896,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N124" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="O124" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="P124" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="Q124" s="0" t="n">
         <x:v>0</x:v>
@@ -10920,7 +10920,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="V124" s="0" t="n">
-        <x:v>177</x:v>
+        <x:v>167</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
@@ -8877,10 +8877,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="U94" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="V94" s="0" t="n">
-        <x:v>123</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="95" spans="1:22">
@@ -10884,7 +10884,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="J124" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="K124" s="0" t="n">
         <x:v>0</x:v>
@@ -10896,13 +10896,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N124" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="O124" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="P124" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="Q124" s="0" t="n">
         <x:v>0</x:v>
@@ -10914,13 +10914,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="T124" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="U124" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="V124" s="0" t="n">
-        <x:v>167</x:v>
+        <x:v>160</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="1:22">
@@ -17539,7 +17539,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G222" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H222" s="0" t="n">
         <x:v>0</x:v>
@@ -17560,13 +17560,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N222" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="O222" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="P222" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="Q222" s="0" t="n">
         <x:v>0</x:v>
@@ -17584,7 +17584,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V222" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="223" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
@@ -15830,34 +15830,34 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D197" s="0" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E197" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F197" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G197" s="0" t="n">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="H197" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I197" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J197" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="K197" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L197" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="M197" s="0" t="n">
         <x:v>7</x:v>
-      </x:c>
-      <x:c r="E197" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F197" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="G197" s="0" t="n">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="H197" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I197" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J197" s="0" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="K197" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="L197" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M197" s="0" t="n">
-        <x:v>4</x:v>
       </x:c>
       <x:c r="N197" s="0" t="n">
         <x:v>6</x:v>
@@ -15866,7 +15866,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="P197" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="Q197" s="0" t="n">
         <x:v>2</x:v>
@@ -15881,10 +15881,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="U197" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="V197" s="0" t="n">
-        <x:v>88</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="198" spans="1:22">
@@ -15898,16 +15898,16 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="D198" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E198" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="F198" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G198" s="0" t="n">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H198" s="0" t="n">
         <x:v>0</x:v>
@@ -15928,13 +15928,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="N198" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="O198" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="P198" s="0" t="n">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="Q198" s="0" t="n">
         <x:v>5</x:v>
@@ -15952,7 +15952,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="V198" s="0" t="n">
-        <x:v>238</x:v>
+        <x:v>245</x:v>
       </x:c>
     </x:row>
     <x:row r="199" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
@@ -3182,7 +3182,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D11" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E11" s="0" t="n">
         <x:v>0</x:v>
@@ -3236,7 +3236,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V11" s="0" t="n">
-        <x:v>58</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:22">
@@ -8862,7 +8862,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="P94" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="Q94" s="0" t="n">
         <x:v>0</x:v>
@@ -8880,7 +8880,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="V94" s="0" t="n">
-        <x:v>122</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="95" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
@@ -8738,13 +8738,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="T92" s="0" t="n">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="U92" s="0" t="n">
         <x:v>19</x:v>
       </x:c>
       <x:c r="V92" s="0" t="n">
-        <x:v>769</x:v>
+        <x:v>770</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="1:22">
@@ -23136,7 +23136,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="N304" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="O304" s="0" t="n">
         <x:v>0</x:v>
@@ -23160,7 +23160,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="V304" s="0" t="n">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="305" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
@@ -3212,7 +3212,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="N11" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="O11" s="0" t="n">
         <x:v>0</x:v>
@@ -3236,7 +3236,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V11" s="0" t="n">
-        <x:v>57</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
@@ -3212,7 +3212,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="N11" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="O11" s="0" t="n">
         <x:v>0</x:v>
@@ -3236,7 +3236,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="V11" s="0" t="n">
-        <x:v>56</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
@@ -10875,7 +10875,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="G124" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H124" s="0" t="n">
         <x:v>0</x:v>
@@ -10884,7 +10884,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="J124" s="0" t="n">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="K124" s="0" t="n">
         <x:v>0</x:v>
@@ -10902,7 +10902,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="P124" s="0" t="n">
-        <x:v>43</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="Q124" s="0" t="n">
         <x:v>0</x:v>
@@ -10920,7 +10920,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="V124" s="0" t="n">
-        <x:v>160</x:v>
+        <x:v>156</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
@@ -10902,7 +10902,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="P124" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="Q124" s="0" t="n">
         <x:v>0</x:v>
@@ -10920,7 +10920,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="V124" s="0" t="n">
-        <x:v>156</x:v>
+        <x:v>155</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
@@ -10195,7 +10195,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G114" s="0" t="n">
-        <x:v>85</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="H114" s="0" t="n">
         <x:v>0</x:v>
@@ -10240,7 +10240,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="V114" s="0" t="n">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
@@ -1567,7 +1567,7 @@
     <x:t>MN0694400</x:t>
   </x:si>
   <x:si>
-    <x:t>East Range Police Department</x:t>
+    <x:t>East Range Police Dept</x:t>
   </x:si>
   <x:si>
     <x:t>MN0700000</x:t>
@@ -1675,7 +1675,7 @@
     <x:t>MN0730100</x:t>
   </x:si>
   <x:si>
-    <x:t>Cold Spring/Richmond Police Dept</x:t>
+    <x:t>Cold Spring / Richmond Police Dept</x:t>
   </x:si>
   <x:si>
     <x:t>MN0730200</x:t>
@@ -1711,7 +1711,7 @@
     <x:t>MN0730800</x:t>
   </x:si>
   <x:si>
-    <x:t>Belgrade Police Dept</x:t>
+    <x:t>Belgrade Brooten Police Dept</x:t>
   </x:si>
   <x:si>
     <x:t>MN0731100</x:t>
@@ -1927,7 +1927,7 @@
     <x:t>MN0821100</x:t>
   </x:si>
   <x:si>
-    <x:t>Woodbury Public Safety</x:t>
+    <x:t>Woodbury Dept of Public Safety</x:t>
   </x:si>
   <x:si>
     <x:t>MN0821400</x:t>
@@ -2029,7 +2029,7 @@
     <x:t>MNCON0000</x:t>
   </x:si>
   <x:si>
-    <x:t>MN Dept of Natural Resources - License Bureau</x:t>
+    <x:t>MN Dept of Natural Resources - Enforcement Division</x:t>
   </x:si>
   <x:si>
     <x:t>MNDI01900</x:t>
@@ -2041,7 +2041,7 @@
     <x:t>MNDI02400</x:t>
   </x:si>
   <x:si>
-    <x:t>Mille Lacs Band of Ojibwe Tribal Police Dept</x:t>
+    <x:t>Mille Lacs Tribal Police Dept</x:t>
   </x:si>
   <x:si>
     <x:t>MNDI07000</x:t>

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
@@ -907,403 +907,403 @@
     <x:t>Brooklyn Park Police Dept</x:t>
   </x:si>
   <x:si>
+    <x:t>43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crystal Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Deephaven Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Edina Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>150</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>South Lake Minnetonka Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Golden Valley Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hopkins Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0271100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Minneapolis Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>169</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>102</x:t>
+  </x:si>
+  <x:si>
+    <x:t>94</x:t>
+  </x:si>
+  <x:si>
+    <x:t>669</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0271200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Minnetonka Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0271400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New Hope Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0271500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Orono Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0271600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Osseo Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0271700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Plymouth Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0271800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Richfield Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>186</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0271900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Robbinsdale Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>St Anthony Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>St Louis Park Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wayzata Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>University of MN Police Dept - Minneapolis</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Metropolitan Airport Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>70</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Eden Prairie Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>97</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maple Grove Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>87</x:t>
+  </x:si>
+  <x:si>
+    <x:t>218</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Minnetrista Public Safety Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Champlin Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0273000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Medina Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0273100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Corcoran Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0273200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dayton Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0273400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rogers Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0273700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>West Hennepin Dept of Public Safety</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0274000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Three Rivers Park District Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0274300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Metropolitan Transit Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>154</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0280000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Houston County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0280300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>La Crescent Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0280400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Spring Grove Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0290000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hubbard County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>109</x:t>
+  </x:si>
+  <x:si>
+    <x:t>228</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0290100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Park Rapids Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0290200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Akeley Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0300000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Isanti County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0300100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cambridge Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0300200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Braham Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0300300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Isanti Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0310000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Itasca County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0310100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bovey Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0310200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Coleraine Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0310300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Grand Rapids Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0310400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Keewatin Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0310500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nashwauk Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0310700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Deer River Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0320000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jackson County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0330000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kanabec County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0340000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kandiyohi County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0340100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Willmar Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>117</x:t>
+  </x:si>
+  <x:si>
+    <x:t>253</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0340200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Atwater Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0350000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kittson County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0360000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Koochiching County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0360100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>International Falls Police Dept</x:t>
+  </x:si>
+  <x:si>
     <x:t>47</x:t>
-  </x:si>
-  <x:si>
-    <x:t>120</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crystal Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Deephaven Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Edina Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>150</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>South Lake Minnetonka Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Golden Valley Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hopkins Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0271100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Minneapolis Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>54</x:t>
-  </x:si>
-  <x:si>
-    <x:t>169</x:t>
-  </x:si>
-  <x:si>
-    <x:t>45</x:t>
-  </x:si>
-  <x:si>
-    <x:t>102</x:t>
-  </x:si>
-  <x:si>
-    <x:t>94</x:t>
-  </x:si>
-  <x:si>
-    <x:t>669</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0271200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Minnetonka Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0271400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>New Hope Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0271500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Orono Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0271600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Osseo Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0271700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Plymouth Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0271800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Richfield Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>32</x:t>
-  </x:si>
-  <x:si>
-    <x:t>40</x:t>
-  </x:si>
-  <x:si>
-    <x:t>186</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0271900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Robbinsdale Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>90</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>St Anthony Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>St Louis Park Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wayzata Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>University of MN Police Dept - Minneapolis</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Metropolitan Airport Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>70</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Eden Prairie Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>97</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Maple Grove Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>87</x:t>
-  </x:si>
-  <x:si>
-    <x:t>218</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Minnetrista Public Safety Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Champlin Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0273000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Medina Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0273100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Corcoran Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0273200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dayton Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0273400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rogers Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0273700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>West Hennepin Dept of Public Safety</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0274000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Three Rivers Park District Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0274300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Metropolitan Transit Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>154</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0280000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Houston County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0280300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>La Crescent Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0280400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Spring Grove Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0290000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hubbard County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>109</x:t>
-  </x:si>
-  <x:si>
-    <x:t>228</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0290100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Park Rapids Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0290200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Akeley Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0300000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Isanti County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0300100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cambridge Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0300200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Braham Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0300300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Isanti Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0310000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Itasca County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0310100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bovey Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0310200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Coleraine Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0310300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Grand Rapids Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>43</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0310400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Keewatin Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0310500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nashwauk Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0310700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Deer River Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0320000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jackson County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0330000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kanabec County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0340000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kandiyohi County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0340100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Willmar Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>117</x:t>
-  </x:si>
-  <x:si>
-    <x:t>253</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0340200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Atwater Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0350000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kittson County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0360000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Koochiching County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0360100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>International Falls Police Dept</x:t>
   </x:si>
   <x:si>
     <x:t>MN0370000</x:t>
@@ -9258,10 +9258,10 @@
         <x:v>296</x:v>
       </x:c>
       <x:c r="C94" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="D94" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E94" s="0" t="s">
         <x:v>24</x:v>
@@ -9279,7 +9279,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J94" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K94" s="0" t="s">
         <x:v>24</x:v>
@@ -9306,13 +9306,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="S94" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="T94" s="0" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="U94" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="V94" s="0" t="s">
         <x:v>298</x:v>
@@ -12307,15 +12307,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V138" s="0" t="s">
-        <x:v>405</x:v>
+        <x:v>297</x:v>
       </x:c>
     </x:row>
     <x:row r="139" spans="1:22">
       <x:c r="A139" s="0" t="s">
+        <x:v>405</x:v>
+      </x:c>
+      <x:c r="B139" s="0" t="s">
         <x:v>406</x:v>
-      </x:c>
-      <x:c r="B139" s="0" t="s">
-        <x:v>407</x:v>
       </x:c>
       <x:c r="C139" s="0" t="s">
         <x:v>24</x:v>
@@ -12380,10 +12380,10 @@
     </x:row>
     <x:row r="140" spans="1:22">
       <x:c r="A140" s="0" t="s">
+        <x:v>407</x:v>
+      </x:c>
+      <x:c r="B140" s="0" t="s">
         <x:v>408</x:v>
-      </x:c>
-      <x:c r="B140" s="0" t="s">
-        <x:v>409</x:v>
       </x:c>
       <x:c r="C140" s="0" t="s">
         <x:v>24</x:v>
@@ -12448,10 +12448,10 @@
     </x:row>
     <x:row r="141" spans="1:22">
       <x:c r="A141" s="0" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="B141" s="0" t="s">
         <x:v>410</x:v>
-      </x:c>
-      <x:c r="B141" s="0" t="s">
-        <x:v>411</x:v>
       </x:c>
       <x:c r="C141" s="0" t="s">
         <x:v>24</x:v>
@@ -12516,10 +12516,10 @@
     </x:row>
     <x:row r="142" spans="1:22">
       <x:c r="A142" s="0" t="s">
+        <x:v>411</x:v>
+      </x:c>
+      <x:c r="B142" s="0" t="s">
         <x:v>412</x:v>
-      </x:c>
-      <x:c r="B142" s="0" t="s">
-        <x:v>413</x:v>
       </x:c>
       <x:c r="C142" s="0" t="s">
         <x:v>24</x:v>
@@ -12584,10 +12584,10 @@
     </x:row>
     <x:row r="143" spans="1:22">
       <x:c r="A143" s="0" t="s">
+        <x:v>413</x:v>
+      </x:c>
+      <x:c r="B143" s="0" t="s">
         <x:v>414</x:v>
-      </x:c>
-      <x:c r="B143" s="0" t="s">
-        <x:v>415</x:v>
       </x:c>
       <x:c r="C143" s="0" t="s">
         <x:v>24</x:v>
@@ -12652,10 +12652,10 @@
     </x:row>
     <x:row r="144" spans="1:22">
       <x:c r="A144" s="0" t="s">
+        <x:v>415</x:v>
+      </x:c>
+      <x:c r="B144" s="0" t="s">
         <x:v>416</x:v>
-      </x:c>
-      <x:c r="B144" s="0" t="s">
-        <x:v>417</x:v>
       </x:c>
       <x:c r="C144" s="0" t="s">
         <x:v>24</x:v>
@@ -12720,10 +12720,10 @@
     </x:row>
     <x:row r="145" spans="1:22">
       <x:c r="A145" s="0" t="s">
+        <x:v>417</x:v>
+      </x:c>
+      <x:c r="B145" s="0" t="s">
         <x:v>418</x:v>
-      </x:c>
-      <x:c r="B145" s="0" t="s">
-        <x:v>419</x:v>
       </x:c>
       <x:c r="C145" s="0" t="s">
         <x:v>24</x:v>
@@ -12759,7 +12759,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="N145" s="0" t="s">
-        <x:v>420</x:v>
+        <x:v>419</x:v>
       </x:c>
       <x:c r="O145" s="0" t="s">
         <x:v>49</x:v>
@@ -12783,15 +12783,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V145" s="0" t="s">
-        <x:v>421</x:v>
+        <x:v>420</x:v>
       </x:c>
     </x:row>
     <x:row r="146" spans="1:22">
       <x:c r="A146" s="0" t="s">
+        <x:v>421</x:v>
+      </x:c>
+      <x:c r="B146" s="0" t="s">
         <x:v>422</x:v>
-      </x:c>
-      <x:c r="B146" s="0" t="s">
-        <x:v>423</x:v>
       </x:c>
       <x:c r="C146" s="0" t="s">
         <x:v>24</x:v>
@@ -12856,10 +12856,10 @@
     </x:row>
     <x:row r="147" spans="1:22">
       <x:c r="A147" s="0" t="s">
+        <x:v>423</x:v>
+      </x:c>
+      <x:c r="B147" s="0" t="s">
         <x:v>424</x:v>
-      </x:c>
-      <x:c r="B147" s="0" t="s">
-        <x:v>425</x:v>
       </x:c>
       <x:c r="C147" s="0" t="s">
         <x:v>24</x:v>
@@ -12924,10 +12924,10 @@
     </x:row>
     <x:row r="148" spans="1:22">
       <x:c r="A148" s="0" t="s">
+        <x:v>425</x:v>
+      </x:c>
+      <x:c r="B148" s="0" t="s">
         <x:v>426</x:v>
-      </x:c>
-      <x:c r="B148" s="0" t="s">
-        <x:v>427</x:v>
       </x:c>
       <x:c r="C148" s="0" t="s">
         <x:v>24</x:v>
@@ -12992,10 +12992,10 @@
     </x:row>
     <x:row r="149" spans="1:22">
       <x:c r="A149" s="0" t="s">
+        <x:v>427</x:v>
+      </x:c>
+      <x:c r="B149" s="0" t="s">
         <x:v>428</x:v>
-      </x:c>
-      <x:c r="B149" s="0" t="s">
-        <x:v>429</x:v>
       </x:c>
       <x:c r="C149" s="0" t="s">
         <x:v>24</x:v>
@@ -13055,7 +13055,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="V149" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>429</x:v>
       </x:c>
     </x:row>
     <x:row r="150" spans="1:22">
@@ -16002,7 +16002,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G193" s="0" t="s">
-        <x:v>405</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="H193" s="0" t="s">
         <x:v>25</x:v>
@@ -17158,7 +17158,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="G210" s="0" t="s">
-        <x:v>405</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="H210" s="0" t="s">
         <x:v>24</x:v>
@@ -18586,7 +18586,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G231" s="0" t="s">
-        <x:v>405</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="H231" s="0" t="s">
         <x:v>24</x:v>
@@ -20159,7 +20159,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="J254" s="0" t="s">
-        <x:v>405</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="K254" s="0" t="s">
         <x:v>49</x:v>
@@ -20449,7 +20449,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="P258" s="0" t="s">
-        <x:v>405</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="Q258" s="0" t="s">
         <x:v>24</x:v>
@@ -20490,7 +20490,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="G259" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>429</x:v>
       </x:c>
       <x:c r="H259" s="0" t="s">
         <x:v>24</x:v>
@@ -24955,7 +24955,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V324" s="0" t="s">
-        <x:v>405</x:v>
+        <x:v>297</x:v>
       </x:c>
     </x:row>
     <x:row r="325" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
@@ -553,459 +553,459 @@
     <x:t>Moorhead Police Dept</x:t>
   </x:si>
   <x:si>
+    <x:t>74</x:t>
+  </x:si>
+  <x:si>
+    <x:t>286</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0150000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clearwater County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0160000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cook County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0170000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cottonwood County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0170100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mountain Lake Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0170200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Windom Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0180000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crow Wing County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0180100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brainerd Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>105</x:t>
+  </x:si>
+  <x:si>
+    <x:t>226</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0180200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crosby Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0180300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Breezy Point Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0180400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crosslake Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0180500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baxter Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0181000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nisswa Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0181100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pequot Lakes Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dakota County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Burnsville Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Farmington Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hastings Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>86</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mendota Heights Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rosemount Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>South St Paul Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>62</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>West St Paul Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Eagan Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>121</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Inver Grove Heights Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0191000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Apple Valley Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0191100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lakeville Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0200000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dodge County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0200200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kasson Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0210000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Douglas County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>88</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0210100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Alexandria Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>42</x:t>
+  </x:si>
+  <x:si>
+    <x:t>103</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0210200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Osakis Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0220000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Faribault County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0220100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blue Earth Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0220400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wells Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0220500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Winnebago Public Safety</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0230000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fillmore County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0240000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Freeborn County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0240100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Albert Lea Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>69</x:t>
+  </x:si>
+  <x:si>
+    <x:t>137</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0250000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goodhue County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0250100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cannon Falls Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0250300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Red Wing Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>80</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0250800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zumbrota Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0260000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Grant County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hennepin County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>77</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bloomington Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>93</x:t>
+  </x:si>
+  <x:si>
+    <x:t>242</x:t>
+  </x:si>
+  <x:si>
+    <x:t>79</x:t>
+  </x:si>
+  <x:si>
+    <x:t>770</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brooklyn Center Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brooklyn Park Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crystal Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Deephaven Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Edina Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>150</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>South Lake Minnetonka Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Golden Valley Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hopkins Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0271100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Minneapolis Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>169</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>102</x:t>
+  </x:si>
+  <x:si>
+    <x:t>94</x:t>
+  </x:si>
+  <x:si>
+    <x:t>669</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0271200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Minnetonka Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0271400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New Hope Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0271500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Orono Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0271600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Osseo Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0271700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Plymouth Police Dept</x:t>
+  </x:si>
+  <x:si>
     <x:t>75</x:t>
   </x:si>
   <x:si>
-    <x:t>287</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0150000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Clearwater County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0160000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cook County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0170000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cottonwood County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0170100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mountain Lake Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0170200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Windom Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0180000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crow Wing County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0180100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Brainerd Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>105</x:t>
-  </x:si>
-  <x:si>
-    <x:t>226</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0180200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crosby Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0180300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Breezy Point Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0180400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crosslake Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0180500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baxter Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0181000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nisswa Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0181100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pequot Lakes Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dakota County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Burnsville Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Farmington Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hastings Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>86</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mendota Heights Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rosemount Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>74</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>South St Paul Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>62</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>West St Paul Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Eagan Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>121</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Inver Grove Heights Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0191000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Apple Valley Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0191100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lakeville Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0200000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dodge County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0200200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kasson Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0210000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Douglas County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>37</x:t>
-  </x:si>
-  <x:si>
-    <x:t>88</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0210100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Alexandria Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>42</x:t>
-  </x:si>
-  <x:si>
-    <x:t>103</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0210200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Osakis Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0220000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Faribault County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0220100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blue Earth Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0220400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wells Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0220500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Winnebago Public Safety</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0230000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fillmore County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0240000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Freeborn County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0240100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Albert Lea Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>38</x:t>
-  </x:si>
-  <x:si>
-    <x:t>69</x:t>
-  </x:si>
-  <x:si>
-    <x:t>137</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0250000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Goodhue County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>41</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0250100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cannon Falls Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0250300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Red Wing Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>80</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0250800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Zumbrota Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0260000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Grant County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hennepin County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>77</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bloomington Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>49</x:t>
-  </x:si>
-  <x:si>
-    <x:t>93</x:t>
-  </x:si>
-  <x:si>
-    <x:t>242</x:t>
-  </x:si>
-  <x:si>
-    <x:t>79</x:t>
-  </x:si>
-  <x:si>
-    <x:t>770</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Brooklyn Center Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Brooklyn Park Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>43</x:t>
-  </x:si>
-  <x:si>
-    <x:t>111</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crystal Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Deephaven Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Edina Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>150</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>South Lake Minnetonka Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Golden Valley Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hopkins Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0271100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Minneapolis Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>54</x:t>
-  </x:si>
-  <x:si>
-    <x:t>169</x:t>
-  </x:si>
-  <x:si>
-    <x:t>45</x:t>
-  </x:si>
-  <x:si>
-    <x:t>102</x:t>
-  </x:si>
-  <x:si>
-    <x:t>94</x:t>
-  </x:si>
-  <x:si>
-    <x:t>669</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0271200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Minnetonka Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0271400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>New Hope Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0271500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Orono Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0271600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Osseo Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0271700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Plymouth Police Dept</x:t>
-  </x:si>
-  <x:si>
     <x:t>MN0271800</x:t>
   </x:si>
   <x:si>
@@ -1900,6 +1900,9 @@
     <x:t>Duluth Police Dept</x:t>
   </x:si>
   <x:si>
+    <x:t>61</x:t>
+  </x:si>
+  <x:si>
     <x:t>MN0690700</x:t>
   </x:si>
   <x:si>
@@ -2297,9 +2300,6 @@
   </x:si>
   <x:si>
     <x:t>126</x:t>
-  </x:si>
-  <x:si>
-    <x:t>61</x:t>
   </x:si>
   <x:si>
     <x:t>331</x:t>
@@ -7479,15 +7479,15 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="V67" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>179</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:22">
       <x:c r="A68" s="0" t="s">
+        <x:v>223</x:v>
+      </x:c>
+      <x:c r="B68" s="0" t="s">
         <x:v>224</x:v>
-      </x:c>
-      <x:c r="B68" s="0" t="s">
-        <x:v>225</x:v>
       </x:c>
       <x:c r="C68" s="0" t="s">
         <x:v>24</x:v>
@@ -7547,15 +7547,15 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="V68" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>225</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:22">
       <x:c r="A69" s="0" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="B69" s="0" t="s">
         <x:v>227</x:v>
-      </x:c>
-      <x:c r="B69" s="0" t="s">
-        <x:v>228</x:v>
       </x:c>
       <x:c r="C69" s="0" t="s">
         <x:v>24</x:v>
@@ -7620,10 +7620,10 @@
     </x:row>
     <x:row r="70" spans="1:22">
       <x:c r="A70" s="0" t="s">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="B70" s="0" t="s">
         <x:v>229</x:v>
-      </x:c>
-      <x:c r="B70" s="0" t="s">
-        <x:v>230</x:v>
       </x:c>
       <x:c r="C70" s="0" t="s">
         <x:v>24</x:v>
@@ -7683,15 +7683,15 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="V70" s="0" t="s">
-        <x:v>231</x:v>
+        <x:v>230</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:22">
       <x:c r="A71" s="0" t="s">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="B71" s="0" t="s">
         <x:v>232</x:v>
-      </x:c>
-      <x:c r="B71" s="0" t="s">
-        <x:v>233</x:v>
       </x:c>
       <x:c r="C71" s="0" t="s">
         <x:v>25</x:v>
@@ -7756,10 +7756,10 @@
     </x:row>
     <x:row r="72" spans="1:22">
       <x:c r="A72" s="0" t="s">
+        <x:v>233</x:v>
+      </x:c>
+      <x:c r="B72" s="0" t="s">
         <x:v>234</x:v>
-      </x:c>
-      <x:c r="B72" s="0" t="s">
-        <x:v>235</x:v>
       </x:c>
       <x:c r="C72" s="0" t="s">
         <x:v>49</x:v>
@@ -7824,10 +7824,10 @@
     </x:row>
     <x:row r="73" spans="1:22">
       <x:c r="A73" s="0" t="s">
+        <x:v>235</x:v>
+      </x:c>
+      <x:c r="B73" s="0" t="s">
         <x:v>236</x:v>
-      </x:c>
-      <x:c r="B73" s="0" t="s">
-        <x:v>237</x:v>
       </x:c>
       <x:c r="C73" s="0" t="s">
         <x:v>24</x:v>
@@ -7887,15 +7887,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V73" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>237</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:22">
       <x:c r="A74" s="0" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="B74" s="0" t="s">
         <x:v>239</x:v>
-      </x:c>
-      <x:c r="B74" s="0" t="s">
-        <x:v>240</x:v>
       </x:c>
       <x:c r="C74" s="0" t="s">
         <x:v>24</x:v>
@@ -7960,10 +7960,10 @@
     </x:row>
     <x:row r="75" spans="1:22">
       <x:c r="A75" s="0" t="s">
+        <x:v>240</x:v>
+      </x:c>
+      <x:c r="B75" s="0" t="s">
         <x:v>241</x:v>
-      </x:c>
-      <x:c r="B75" s="0" t="s">
-        <x:v>242</x:v>
       </x:c>
       <x:c r="C75" s="0" t="s">
         <x:v>24</x:v>
@@ -8028,10 +8028,10 @@
     </x:row>
     <x:row r="76" spans="1:22">
       <x:c r="A76" s="0" t="s">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="B76" s="0" t="s">
         <x:v>243</x:v>
-      </x:c>
-      <x:c r="B76" s="0" t="s">
-        <x:v>244</x:v>
       </x:c>
       <x:c r="C76" s="0" t="s">
         <x:v>33</x:v>
@@ -8067,7 +8067,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="N76" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="O76" s="0" t="s">
         <x:v>25</x:v>
@@ -8091,15 +8091,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V76" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>245</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:22">
       <x:c r="A77" s="0" t="s">
+        <x:v>246</x:v>
+      </x:c>
+      <x:c r="B77" s="0" t="s">
         <x:v>247</x:v>
-      </x:c>
-      <x:c r="B77" s="0" t="s">
-        <x:v>248</x:v>
       </x:c>
       <x:c r="C77" s="0" t="s">
         <x:v>24</x:v>
@@ -8114,7 +8114,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="G77" s="0" t="s">
-        <x:v>249</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="H77" s="0" t="s">
         <x:v>24</x:v>
@@ -8159,15 +8159,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V77" s="0" t="s">
-        <x:v>250</x:v>
+        <x:v>249</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:22">
       <x:c r="A78" s="0" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="B78" s="0" t="s">
         <x:v>251</x:v>
-      </x:c>
-      <x:c r="B78" s="0" t="s">
-        <x:v>252</x:v>
       </x:c>
       <x:c r="C78" s="0" t="s">
         <x:v>24</x:v>
@@ -8232,10 +8232,10 @@
     </x:row>
     <x:row r="79" spans="1:22">
       <x:c r="A79" s="0" t="s">
+        <x:v>252</x:v>
+      </x:c>
+      <x:c r="B79" s="0" t="s">
         <x:v>253</x:v>
-      </x:c>
-      <x:c r="B79" s="0" t="s">
-        <x:v>254</x:v>
       </x:c>
       <x:c r="C79" s="0" t="s">
         <x:v>24</x:v>
@@ -8300,10 +8300,10 @@
     </x:row>
     <x:row r="80" spans="1:22">
       <x:c r="A80" s="0" t="s">
+        <x:v>254</x:v>
+      </x:c>
+      <x:c r="B80" s="0" t="s">
         <x:v>255</x:v>
-      </x:c>
-      <x:c r="B80" s="0" t="s">
-        <x:v>256</x:v>
       </x:c>
       <x:c r="C80" s="0" t="s">
         <x:v>24</x:v>
@@ -8368,10 +8368,10 @@
     </x:row>
     <x:row r="81" spans="1:22">
       <x:c r="A81" s="0" t="s">
+        <x:v>256</x:v>
+      </x:c>
+      <x:c r="B81" s="0" t="s">
         <x:v>257</x:v>
-      </x:c>
-      <x:c r="B81" s="0" t="s">
-        <x:v>258</x:v>
       </x:c>
       <x:c r="C81" s="0" t="s">
         <x:v>24</x:v>
@@ -8436,10 +8436,10 @@
     </x:row>
     <x:row r="82" spans="1:22">
       <x:c r="A82" s="0" t="s">
+        <x:v>258</x:v>
+      </x:c>
+      <x:c r="B82" s="0" t="s">
         <x:v>259</x:v>
-      </x:c>
-      <x:c r="B82" s="0" t="s">
-        <x:v>260</x:v>
       </x:c>
       <x:c r="C82" s="0" t="s">
         <x:v>24</x:v>
@@ -8504,10 +8504,10 @@
     </x:row>
     <x:row r="83" spans="1:22">
       <x:c r="A83" s="0" t="s">
+        <x:v>260</x:v>
+      </x:c>
+      <x:c r="B83" s="0" t="s">
         <x:v>261</x:v>
-      </x:c>
-      <x:c r="B83" s="0" t="s">
-        <x:v>262</x:v>
       </x:c>
       <x:c r="C83" s="0" t="s">
         <x:v>24</x:v>
@@ -8572,10 +8572,10 @@
     </x:row>
     <x:row r="84" spans="1:22">
       <x:c r="A84" s="0" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="B84" s="0" t="s">
         <x:v>263</x:v>
-      </x:c>
-      <x:c r="B84" s="0" t="s">
-        <x:v>264</x:v>
       </x:c>
       <x:c r="C84" s="0" t="s">
         <x:v>25</x:v>
@@ -8640,10 +8640,10 @@
     </x:row>
     <x:row r="85" spans="1:22">
       <x:c r="A85" s="0" t="s">
+        <x:v>264</x:v>
+      </x:c>
+      <x:c r="B85" s="0" t="s">
         <x:v>265</x:v>
-      </x:c>
-      <x:c r="B85" s="0" t="s">
-        <x:v>266</x:v>
       </x:c>
       <x:c r="C85" s="0" t="s">
         <x:v>25</x:v>
@@ -8658,7 +8658,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="G85" s="0" t="s">
-        <x:v>267</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="H85" s="0" t="s">
         <x:v>25</x:v>
@@ -8679,7 +8679,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N85" s="0" t="s">
-        <x:v>268</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="O85" s="0" t="s">
         <x:v>24</x:v>
@@ -8703,15 +8703,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V85" s="0" t="s">
-        <x:v>269</x:v>
+        <x:v>268</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:22">
       <x:c r="A86" s="0" t="s">
+        <x:v>269</x:v>
+      </x:c>
+      <x:c r="B86" s="0" t="s">
         <x:v>270</x:v>
-      </x:c>
-      <x:c r="B86" s="0" t="s">
-        <x:v>271</x:v>
       </x:c>
       <x:c r="C86" s="0" t="s">
         <x:v>24</x:v>
@@ -8771,15 +8771,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V86" s="0" t="s">
-        <x:v>272</x:v>
+        <x:v>271</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:22">
       <x:c r="A87" s="0" t="s">
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="B87" s="0" t="s">
         <x:v>273</x:v>
-      </x:c>
-      <x:c r="B87" s="0" t="s">
-        <x:v>274</x:v>
       </x:c>
       <x:c r="C87" s="0" t="s">
         <x:v>24</x:v>
@@ -8844,10 +8844,10 @@
     </x:row>
     <x:row r="88" spans="1:22">
       <x:c r="A88" s="0" t="s">
+        <x:v>274</x:v>
+      </x:c>
+      <x:c r="B88" s="0" t="s">
         <x:v>275</x:v>
-      </x:c>
-      <x:c r="B88" s="0" t="s">
-        <x:v>276</x:v>
       </x:c>
       <x:c r="C88" s="0" t="s">
         <x:v>25</x:v>
@@ -8862,7 +8862,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G88" s="0" t="s">
-        <x:v>272</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="H88" s="0" t="s">
         <x:v>24</x:v>
@@ -8907,15 +8907,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V88" s="0" t="s">
-        <x:v>277</x:v>
+        <x:v>276</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:22">
       <x:c r="A89" s="0" t="s">
+        <x:v>277</x:v>
+      </x:c>
+      <x:c r="B89" s="0" t="s">
         <x:v>278</x:v>
-      </x:c>
-      <x:c r="B89" s="0" t="s">
-        <x:v>279</x:v>
       </x:c>
       <x:c r="C89" s="0" t="s">
         <x:v>24</x:v>
@@ -8980,10 +8980,10 @@
     </x:row>
     <x:row r="90" spans="1:22">
       <x:c r="A90" s="0" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="B90" s="0" t="s">
         <x:v>280</x:v>
-      </x:c>
-      <x:c r="B90" s="0" t="s">
-        <x:v>281</x:v>
       </x:c>
       <x:c r="C90" s="0" t="s">
         <x:v>24</x:v>
@@ -9048,10 +9048,10 @@
     </x:row>
     <x:row r="91" spans="1:22">
       <x:c r="A91" s="0" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="B91" s="0" t="s">
         <x:v>282</x:v>
-      </x:c>
-      <x:c r="B91" s="0" t="s">
-        <x:v>283</x:v>
       </x:c>
       <x:c r="C91" s="0" t="s">
         <x:v>49</x:v>
@@ -9093,7 +9093,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P91" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="Q91" s="0" t="s">
         <x:v>24</x:v>
@@ -9111,27 +9111,27 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V91" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>284</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="1:22">
       <x:c r="A92" s="0" t="s">
+        <x:v>285</x:v>
+      </x:c>
+      <x:c r="B92" s="0" t="s">
         <x:v>286</x:v>
-      </x:c>
-      <x:c r="B92" s="0" t="s">
-        <x:v>287</x:v>
       </x:c>
       <x:c r="C92" s="0" t="s">
         <x:v>98</x:v>
       </x:c>
       <x:c r="D92" s="0" t="s">
+        <x:v>287</x:v>
+      </x:c>
+      <x:c r="E92" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F92" s="0" t="s">
         <x:v>288</x:v>
-      </x:c>
-      <x:c r="E92" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="F92" s="0" t="s">
-        <x:v>289</x:v>
       </x:c>
       <x:c r="G92" s="0" t="s">
         <x:v>195</x:v>
@@ -9161,7 +9161,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="P92" s="0" t="s">
-        <x:v>290</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="Q92" s="0" t="s">
         <x:v>49</x:v>
@@ -9173,21 +9173,21 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="T92" s="0" t="s">
-        <x:v>291</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="U92" s="0" t="s">
         <x:v>98</x:v>
       </x:c>
       <x:c r="V92" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>291</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="1:22">
       <x:c r="A93" s="0" t="s">
+        <x:v>292</x:v>
+      </x:c>
+      <x:c r="B93" s="0" t="s">
         <x:v>293</x:v>
-      </x:c>
-      <x:c r="B93" s="0" t="s">
-        <x:v>294</x:v>
       </x:c>
       <x:c r="C93" s="0" t="s">
         <x:v>25</x:v>
@@ -9252,10 +9252,10 @@
     </x:row>
     <x:row r="94" spans="1:22">
       <x:c r="A94" s="0" t="s">
+        <x:v>294</x:v>
+      </x:c>
+      <x:c r="B94" s="0" t="s">
         <x:v>295</x:v>
-      </x:c>
-      <x:c r="B94" s="0" t="s">
-        <x:v>296</x:v>
       </x:c>
       <x:c r="C94" s="0" t="s">
         <x:v>43</x:v>
@@ -9270,7 +9270,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="G94" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="H94" s="0" t="s">
         <x:v>24</x:v>
@@ -9315,15 +9315,15 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="V94" s="0" t="s">
-        <x:v>298</x:v>
+        <x:v>297</x:v>
       </x:c>
     </x:row>
     <x:row r="95" spans="1:22">
       <x:c r="A95" s="0" t="s">
+        <x:v>298</x:v>
+      </x:c>
+      <x:c r="B95" s="0" t="s">
         <x:v>299</x:v>
-      </x:c>
-      <x:c r="B95" s="0" t="s">
-        <x:v>300</x:v>
       </x:c>
       <x:c r="C95" s="0" t="s">
         <x:v>25</x:v>
@@ -9383,15 +9383,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V95" s="0" t="s">
-        <x:v>267</x:v>
+        <x:v>266</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="1:22">
       <x:c r="A96" s="0" t="s">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="B96" s="0" t="s">
         <x:v>301</x:v>
-      </x:c>
-      <x:c r="B96" s="0" t="s">
-        <x:v>302</x:v>
       </x:c>
       <x:c r="C96" s="0" t="s">
         <x:v>24</x:v>
@@ -9456,10 +9456,10 @@
     </x:row>
     <x:row r="97" spans="1:22">
       <x:c r="A97" s="0" t="s">
+        <x:v>302</x:v>
+      </x:c>
+      <x:c r="B97" s="0" t="s">
         <x:v>303</x:v>
-      </x:c>
-      <x:c r="B97" s="0" t="s">
-        <x:v>304</x:v>
       </x:c>
       <x:c r="C97" s="0" t="s">
         <x:v>33</x:v>
@@ -9519,15 +9519,15 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="V97" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>304</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="1:22">
       <x:c r="A98" s="0" t="s">
+        <x:v>305</x:v>
+      </x:c>
+      <x:c r="B98" s="0" t="s">
         <x:v>306</x:v>
-      </x:c>
-      <x:c r="B98" s="0" t="s">
-        <x:v>307</x:v>
       </x:c>
       <x:c r="C98" s="0" t="s">
         <x:v>24</x:v>
@@ -9592,10 +9592,10 @@
     </x:row>
     <x:row r="99" spans="1:22">
       <x:c r="A99" s="0" t="s">
+        <x:v>307</x:v>
+      </x:c>
+      <x:c r="B99" s="0" t="s">
         <x:v>308</x:v>
-      </x:c>
-      <x:c r="B99" s="0" t="s">
-        <x:v>309</x:v>
       </x:c>
       <x:c r="C99" s="0" t="s">
         <x:v>40</x:v>
@@ -9660,10 +9660,10 @@
     </x:row>
     <x:row r="100" spans="1:22">
       <x:c r="A100" s="0" t="s">
+        <x:v>309</x:v>
+      </x:c>
+      <x:c r="B100" s="0" t="s">
         <x:v>310</x:v>
-      </x:c>
-      <x:c r="B100" s="0" t="s">
-        <x:v>311</x:v>
       </x:c>
       <x:c r="C100" s="0" t="s">
         <x:v>24</x:v>
@@ -9728,10 +9728,10 @@
     </x:row>
     <x:row r="101" spans="1:22">
       <x:c r="A101" s="0" t="s">
+        <x:v>311</x:v>
+      </x:c>
+      <x:c r="B101" s="0" t="s">
         <x:v>312</x:v>
-      </x:c>
-      <x:c r="B101" s="0" t="s">
-        <x:v>313</x:v>
       </x:c>
       <x:c r="C101" s="0" t="s">
         <x:v>115</x:v>
@@ -9743,10 +9743,10 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="F101" s="0" t="s">
+        <x:v>313</x:v>
+      </x:c>
+      <x:c r="G101" s="0" t="s">
         <x:v>314</x:v>
-      </x:c>
-      <x:c r="G101" s="0" t="s">
-        <x:v>315</x:v>
       </x:c>
       <x:c r="H101" s="0" t="s">
         <x:v>33</x:v>
@@ -9755,7 +9755,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J101" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="K101" s="0" t="s">
         <x:v>24</x:v>
@@ -9767,7 +9767,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="N101" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="O101" s="0" t="s">
         <x:v>24</x:v>
@@ -9788,18 +9788,18 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="U101" s="0" t="s">
+        <x:v>317</x:v>
+      </x:c>
+      <x:c r="V101" s="0" t="s">
         <x:v>318</x:v>
-      </x:c>
-      <x:c r="V101" s="0" t="s">
-        <x:v>319</x:v>
       </x:c>
     </x:row>
     <x:row r="102" spans="1:22">
       <x:c r="A102" s="0" t="s">
+        <x:v>319</x:v>
+      </x:c>
+      <x:c r="B102" s="0" t="s">
         <x:v>320</x:v>
-      </x:c>
-      <x:c r="B102" s="0" t="s">
-        <x:v>321</x:v>
       </x:c>
       <x:c r="C102" s="0" t="s">
         <x:v>25</x:v>
@@ -9864,10 +9864,10 @@
     </x:row>
     <x:row r="103" spans="1:22">
       <x:c r="A103" s="0" t="s">
+        <x:v>321</x:v>
+      </x:c>
+      <x:c r="B103" s="0" t="s">
         <x:v>322</x:v>
-      </x:c>
-      <x:c r="B103" s="0" t="s">
-        <x:v>323</x:v>
       </x:c>
       <x:c r="C103" s="0" t="s">
         <x:v>24</x:v>
@@ -9927,15 +9927,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V103" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>284</x:v>
       </x:c>
     </x:row>
     <x:row r="104" spans="1:22">
       <x:c r="A104" s="0" t="s">
+        <x:v>323</x:v>
+      </x:c>
+      <x:c r="B104" s="0" t="s">
         <x:v>324</x:v>
-      </x:c>
-      <x:c r="B104" s="0" t="s">
-        <x:v>325</x:v>
       </x:c>
       <x:c r="C104" s="0" t="s">
         <x:v>24</x:v>
@@ -10000,10 +10000,10 @@
     </x:row>
     <x:row r="105" spans="1:22">
       <x:c r="A105" s="0" t="s">
+        <x:v>325</x:v>
+      </x:c>
+      <x:c r="B105" s="0" t="s">
         <x:v>326</x:v>
-      </x:c>
-      <x:c r="B105" s="0" t="s">
-        <x:v>327</x:v>
       </x:c>
       <x:c r="C105" s="0" t="s">
         <x:v>25</x:v>
@@ -10068,10 +10068,10 @@
     </x:row>
     <x:row r="106" spans="1:22">
       <x:c r="A106" s="0" t="s">
+        <x:v>327</x:v>
+      </x:c>
+      <x:c r="B106" s="0" t="s">
         <x:v>328</x:v>
-      </x:c>
-      <x:c r="B106" s="0" t="s">
-        <x:v>329</x:v>
       </x:c>
       <x:c r="C106" s="0" t="s">
         <x:v>27</x:v>
@@ -10086,7 +10086,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="G106" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="H106" s="0" t="s">
         <x:v>24</x:v>
@@ -10583,7 +10583,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N113" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="O113" s="0" t="s">
         <x:v>25</x:v>
@@ -10725,7 +10725,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="P115" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="Q115" s="0" t="s">
         <x:v>49</x:v>
@@ -10879,7 +10879,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V117" s="0" t="s">
-        <x:v>318</x:v>
+        <x:v>317</x:v>
       </x:c>
     </x:row>
     <x:row r="118" spans="1:22">
@@ -11337,7 +11337,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="P124" s="0" t="s">
-        <x:v>272</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="Q124" s="0" t="s">
         <x:v>24</x:v>
@@ -11831,7 +11831,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V131" s="0" t="s">
-        <x:v>288</x:v>
+        <x:v>287</x:v>
       </x:c>
     </x:row>
     <x:row r="132" spans="1:22">
@@ -12103,7 +12103,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V135" s="0" t="s">
-        <x:v>268</x:v>
+        <x:v>267</x:v>
       </x:c>
     </x:row>
     <x:row r="136" spans="1:22">
@@ -12307,7 +12307,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V138" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>296</x:v>
       </x:c>
     </x:row>
     <x:row r="139" spans="1:22">
@@ -12511,7 +12511,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="V141" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>237</x:v>
       </x:c>
     </x:row>
     <x:row r="142" spans="1:22">
@@ -12715,7 +12715,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V144" s="0" t="s">
-        <x:v>277</x:v>
+        <x:v>276</x:v>
       </x:c>
     </x:row>
     <x:row r="145" spans="1:22">
@@ -13031,7 +13031,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N149" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="O149" s="0" t="s">
         <x:v>49</x:v>
@@ -13735,7 +13735,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V159" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>313</x:v>
       </x:c>
     </x:row>
     <x:row r="160" spans="1:22">
@@ -13803,7 +13803,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V160" s="0" t="s">
-        <x:v>288</x:v>
+        <x:v>287</x:v>
       </x:c>
     </x:row>
     <x:row r="161" spans="1:22">
@@ -14098,7 +14098,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G165" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="H165" s="0" t="s">
         <x:v>24</x:v>
@@ -14687,7 +14687,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V173" s="0" t="s">
-        <x:v>272</x:v>
+        <x:v>271</x:v>
       </x:c>
     </x:row>
     <x:row r="174" spans="1:22">
@@ -14823,7 +14823,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V175" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>313</x:v>
       </x:c>
     </x:row>
     <x:row r="176" spans="1:22">
@@ -15163,7 +15163,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V180" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>315</x:v>
       </x:c>
     </x:row>
     <x:row r="181" spans="1:22">
@@ -15231,7 +15231,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V181" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>237</x:v>
       </x:c>
     </x:row>
     <x:row r="182" spans="1:22">
@@ -15843,7 +15843,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="V190" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>283</x:v>
       </x:c>
     </x:row>
     <x:row r="191" spans="1:22">
@@ -16002,7 +16002,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G193" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="H193" s="0" t="s">
         <x:v>25</x:v>
@@ -16023,7 +16023,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="N193" s="0" t="s">
-        <x:v>268</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="O193" s="0" t="s">
         <x:v>49</x:v>
@@ -16274,7 +16274,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="G197" s="0" t="s">
-        <x:v>272</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="H197" s="0" t="s">
         <x:v>24</x:v>
@@ -16907,7 +16907,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N206" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="O206" s="0" t="s">
         <x:v>25</x:v>
@@ -17067,7 +17067,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V208" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>315</x:v>
       </x:c>
     </x:row>
     <x:row r="209" spans="1:22">
@@ -17158,7 +17158,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="G210" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="H210" s="0" t="s">
         <x:v>24</x:v>
@@ -17179,7 +17179,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N210" s="0" t="s">
-        <x:v>272</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="O210" s="0" t="s">
         <x:v>25</x:v>
@@ -17611,7 +17611,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V216" s="0" t="s">
-        <x:v>249</x:v>
+        <x:v>248</x:v>
       </x:c>
     </x:row>
     <x:row r="217" spans="1:22">
@@ -17747,7 +17747,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V218" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>283</x:v>
       </x:c>
     </x:row>
     <x:row r="219" spans="1:22">
@@ -17815,7 +17815,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V219" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>237</x:v>
       </x:c>
     </x:row>
     <x:row r="220" spans="1:22">
@@ -18087,7 +18087,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V223" s="0" t="s">
-        <x:v>267</x:v>
+        <x:v>266</x:v>
       </x:c>
     </x:row>
     <x:row r="224" spans="1:22">
@@ -18586,7 +18586,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G231" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="H231" s="0" t="s">
         <x:v>24</x:v>
@@ -18607,7 +18607,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="N231" s="0" t="s">
-        <x:v>267</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="O231" s="0" t="s">
         <x:v>27</x:v>
@@ -18631,7 +18631,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="V231" s="0" t="s">
-        <x:v>231</x:v>
+        <x:v>230</x:v>
       </x:c>
     </x:row>
     <x:row r="232" spans="1:22">
@@ -18654,7 +18654,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="G232" s="0" t="s">
-        <x:v>272</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="H232" s="0" t="s">
         <x:v>24</x:v>
@@ -18903,7 +18903,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V235" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>237</x:v>
       </x:c>
     </x:row>
     <x:row r="236" spans="1:22">
@@ -19089,7 +19089,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="P238" s="0" t="s">
-        <x:v>272</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="Q238" s="0" t="s">
         <x:v>24</x:v>
@@ -19287,7 +19287,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N241" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="O241" s="0" t="s">
         <x:v>24</x:v>
@@ -19311,15 +19311,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V241" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>628</x:v>
       </x:c>
     </x:row>
     <x:row r="242" spans="1:22">
       <x:c r="A242" s="0" t="s">
-        <x:v>628</x:v>
+        <x:v>629</x:v>
       </x:c>
       <x:c r="B242" s="0" t="s">
-        <x:v>629</x:v>
+        <x:v>630</x:v>
       </x:c>
       <x:c r="C242" s="0" t="s">
         <x:v>24</x:v>
@@ -19384,10 +19384,10 @@
     </x:row>
     <x:row r="243" spans="1:22">
       <x:c r="A243" s="0" t="s">
-        <x:v>630</x:v>
+        <x:v>631</x:v>
       </x:c>
       <x:c r="B243" s="0" t="s">
-        <x:v>631</x:v>
+        <x:v>632</x:v>
       </x:c>
       <x:c r="C243" s="0" t="s">
         <x:v>24</x:v>
@@ -19452,10 +19452,10 @@
     </x:row>
     <x:row r="244" spans="1:22">
       <x:c r="A244" s="0" t="s">
-        <x:v>632</x:v>
+        <x:v>633</x:v>
       </x:c>
       <x:c r="B244" s="0" t="s">
-        <x:v>633</x:v>
+        <x:v>634</x:v>
       </x:c>
       <x:c r="C244" s="0" t="s">
         <x:v>24</x:v>
@@ -19515,15 +19515,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V244" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>237</x:v>
       </x:c>
     </x:row>
     <x:row r="245" spans="1:22">
       <x:c r="A245" s="0" t="s">
-        <x:v>634</x:v>
+        <x:v>635</x:v>
       </x:c>
       <x:c r="B245" s="0" t="s">
-        <x:v>635</x:v>
+        <x:v>636</x:v>
       </x:c>
       <x:c r="C245" s="0" t="s">
         <x:v>24</x:v>
@@ -19565,7 +19565,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="P245" s="0" t="s">
-        <x:v>249</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="Q245" s="0" t="s">
         <x:v>24</x:v>
@@ -19583,15 +19583,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V245" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>313</x:v>
       </x:c>
     </x:row>
     <x:row r="246" spans="1:22">
       <x:c r="A246" s="0" t="s">
-        <x:v>636</x:v>
+        <x:v>637</x:v>
       </x:c>
       <x:c r="B246" s="0" t="s">
-        <x:v>637</x:v>
+        <x:v>638</x:v>
       </x:c>
       <x:c r="C246" s="0" t="s">
         <x:v>24</x:v>
@@ -19656,10 +19656,10 @@
     </x:row>
     <x:row r="247" spans="1:22">
       <x:c r="A247" s="0" t="s">
-        <x:v>638</x:v>
+        <x:v>639</x:v>
       </x:c>
       <x:c r="B247" s="0" t="s">
-        <x:v>639</x:v>
+        <x:v>640</x:v>
       </x:c>
       <x:c r="C247" s="0" t="s">
         <x:v>24</x:v>
@@ -19724,10 +19724,10 @@
     </x:row>
     <x:row r="248" spans="1:22">
       <x:c r="A248" s="0" t="s">
-        <x:v>640</x:v>
+        <x:v>641</x:v>
       </x:c>
       <x:c r="B248" s="0" t="s">
-        <x:v>641</x:v>
+        <x:v>642</x:v>
       </x:c>
       <x:c r="C248" s="0" t="s">
         <x:v>24</x:v>
@@ -19792,10 +19792,10 @@
     </x:row>
     <x:row r="249" spans="1:22">
       <x:c r="A249" s="0" t="s">
-        <x:v>642</x:v>
+        <x:v>643</x:v>
       </x:c>
       <x:c r="B249" s="0" t="s">
-        <x:v>643</x:v>
+        <x:v>644</x:v>
       </x:c>
       <x:c r="C249" s="0" t="s">
         <x:v>24</x:v>
@@ -19860,10 +19860,10 @@
     </x:row>
     <x:row r="250" spans="1:22">
       <x:c r="A250" s="0" t="s">
-        <x:v>644</x:v>
+        <x:v>645</x:v>
       </x:c>
       <x:c r="B250" s="0" t="s">
-        <x:v>645</x:v>
+        <x:v>646</x:v>
       </x:c>
       <x:c r="C250" s="0" t="s">
         <x:v>25</x:v>
@@ -19923,15 +19923,15 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="V250" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>244</x:v>
       </x:c>
     </x:row>
     <x:row r="251" spans="1:22">
       <x:c r="A251" s="0" t="s">
-        <x:v>646</x:v>
+        <x:v>647</x:v>
       </x:c>
       <x:c r="B251" s="0" t="s">
-        <x:v>647</x:v>
+        <x:v>648</x:v>
       </x:c>
       <x:c r="C251" s="0" t="s">
         <x:v>24</x:v>
@@ -19991,15 +19991,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V251" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>244</x:v>
       </x:c>
     </x:row>
     <x:row r="252" spans="1:22">
       <x:c r="A252" s="0" t="s">
-        <x:v>648</x:v>
+        <x:v>649</x:v>
       </x:c>
       <x:c r="B252" s="0" t="s">
-        <x:v>649</x:v>
+        <x:v>650</x:v>
       </x:c>
       <x:c r="C252" s="0" t="s">
         <x:v>24</x:v>
@@ -20059,15 +20059,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V252" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>244</x:v>
       </x:c>
     </x:row>
     <x:row r="253" spans="1:22">
       <x:c r="A253" s="0" t="s">
-        <x:v>650</x:v>
+        <x:v>651</x:v>
       </x:c>
       <x:c r="B253" s="0" t="s">
-        <x:v>651</x:v>
+        <x:v>652</x:v>
       </x:c>
       <x:c r="C253" s="0" t="s">
         <x:v>24</x:v>
@@ -20132,16 +20132,16 @@
     </x:row>
     <x:row r="254" spans="1:22">
       <x:c r="A254" s="0" t="s">
-        <x:v>652</x:v>
+        <x:v>653</x:v>
       </x:c>
       <x:c r="B254" s="0" t="s">
-        <x:v>653</x:v>
+        <x:v>654</x:v>
       </x:c>
       <x:c r="C254" s="0" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="D254" s="0" t="s">
-        <x:v>267</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="E254" s="0" t="s">
         <x:v>33</x:v>
@@ -20159,7 +20159,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="J254" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="K254" s="0" t="s">
         <x:v>49</x:v>
@@ -20171,7 +20171,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N254" s="0" t="s">
-        <x:v>654</x:v>
+        <x:v>655</x:v>
       </x:c>
       <x:c r="O254" s="0" t="s">
         <x:v>55</x:v>
@@ -20195,15 +20195,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V254" s="0" t="s">
-        <x:v>655</x:v>
+        <x:v>656</x:v>
       </x:c>
     </x:row>
     <x:row r="255" spans="1:22">
       <x:c r="A255" s="0" t="s">
-        <x:v>656</x:v>
+        <x:v>657</x:v>
       </x:c>
       <x:c r="B255" s="0" t="s">
-        <x:v>657</x:v>
+        <x:v>658</x:v>
       </x:c>
       <x:c r="C255" s="0" t="s">
         <x:v>24</x:v>
@@ -20268,10 +20268,10 @@
     </x:row>
     <x:row r="256" spans="1:22">
       <x:c r="A256" s="0" t="s">
-        <x:v>658</x:v>
+        <x:v>659</x:v>
       </x:c>
       <x:c r="B256" s="0" t="s">
-        <x:v>659</x:v>
+        <x:v>660</x:v>
       </x:c>
       <x:c r="C256" s="0" t="s">
         <x:v>25</x:v>
@@ -20295,7 +20295,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="J256" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="K256" s="0" t="s">
         <x:v>24</x:v>
@@ -20331,15 +20331,15 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="V256" s="0" t="s">
-        <x:v>660</x:v>
+        <x:v>661</x:v>
       </x:c>
     </x:row>
     <x:row r="257" spans="1:22">
       <x:c r="A257" s="0" t="s">
-        <x:v>661</x:v>
+        <x:v>662</x:v>
       </x:c>
       <x:c r="B257" s="0" t="s">
-        <x:v>662</x:v>
+        <x:v>663</x:v>
       </x:c>
       <x:c r="C257" s="0" t="s">
         <x:v>24</x:v>
@@ -20404,10 +20404,10 @@
     </x:row>
     <x:row r="258" spans="1:22">
       <x:c r="A258" s="0" t="s">
-        <x:v>663</x:v>
+        <x:v>664</x:v>
       </x:c>
       <x:c r="B258" s="0" t="s">
-        <x:v>664</x:v>
+        <x:v>665</x:v>
       </x:c>
       <x:c r="C258" s="0" t="s">
         <x:v>24</x:v>
@@ -20422,7 +20422,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="G258" s="0" t="s">
-        <x:v>665</x:v>
+        <x:v>666</x:v>
       </x:c>
       <x:c r="H258" s="0" t="s">
         <x:v>24</x:v>
@@ -20449,7 +20449,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="P258" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="Q258" s="0" t="s">
         <x:v>24</x:v>
@@ -20467,15 +20467,15 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="V258" s="0" t="s">
-        <x:v>666</x:v>
+        <x:v>667</x:v>
       </x:c>
     </x:row>
     <x:row r="259" spans="1:22">
       <x:c r="A259" s="0" t="s">
-        <x:v>667</x:v>
+        <x:v>668</x:v>
       </x:c>
       <x:c r="B259" s="0" t="s">
-        <x:v>668</x:v>
+        <x:v>669</x:v>
       </x:c>
       <x:c r="C259" s="0" t="s">
         <x:v>24</x:v>
@@ -20535,15 +20535,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V259" s="0" t="s">
-        <x:v>665</x:v>
+        <x:v>666</x:v>
       </x:c>
     </x:row>
     <x:row r="260" spans="1:22">
       <x:c r="A260" s="0" t="s">
-        <x:v>669</x:v>
+        <x:v>670</x:v>
       </x:c>
       <x:c r="B260" s="0" t="s">
-        <x:v>670</x:v>
+        <x:v>671</x:v>
       </x:c>
       <x:c r="C260" s="0" t="s">
         <x:v>24</x:v>
@@ -20558,7 +20558,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="G260" s="0" t="s">
-        <x:v>671</x:v>
+        <x:v>672</x:v>
       </x:c>
       <x:c r="H260" s="0" t="s">
         <x:v>25</x:v>
@@ -20608,10 +20608,10 @@
     </x:row>
     <x:row r="261" spans="1:22">
       <x:c r="A261" s="0" t="s">
-        <x:v>672</x:v>
+        <x:v>673</x:v>
       </x:c>
       <x:c r="B261" s="0" t="s">
-        <x:v>673</x:v>
+        <x:v>674</x:v>
       </x:c>
       <x:c r="C261" s="0" t="s">
         <x:v>24</x:v>
@@ -20676,10 +20676,10 @@
     </x:row>
     <x:row r="262" spans="1:22">
       <x:c r="A262" s="0" t="s">
-        <x:v>674</x:v>
+        <x:v>675</x:v>
       </x:c>
       <x:c r="B262" s="0" t="s">
-        <x:v>675</x:v>
+        <x:v>676</x:v>
       </x:c>
       <x:c r="C262" s="0" t="s">
         <x:v>24</x:v>
@@ -20739,15 +20739,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V262" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>283</x:v>
       </x:c>
     </x:row>
     <x:row r="263" spans="1:22">
       <x:c r="A263" s="0" t="s">
-        <x:v>676</x:v>
+        <x:v>677</x:v>
       </x:c>
       <x:c r="B263" s="0" t="s">
-        <x:v>677</x:v>
+        <x:v>678</x:v>
       </x:c>
       <x:c r="C263" s="0" t="s">
         <x:v>24</x:v>
@@ -20812,10 +20812,10 @@
     </x:row>
     <x:row r="264" spans="1:22">
       <x:c r="A264" s="0" t="s">
-        <x:v>678</x:v>
+        <x:v>679</x:v>
       </x:c>
       <x:c r="B264" s="0" t="s">
-        <x:v>679</x:v>
+        <x:v>680</x:v>
       </x:c>
       <x:c r="C264" s="0" t="s">
         <x:v>24</x:v>
@@ -20880,10 +20880,10 @@
     </x:row>
     <x:row r="265" spans="1:22">
       <x:c r="A265" s="0" t="s">
-        <x:v>680</x:v>
+        <x:v>681</x:v>
       </x:c>
       <x:c r="B265" s="0" t="s">
-        <x:v>681</x:v>
+        <x:v>682</x:v>
       </x:c>
       <x:c r="C265" s="0" t="s">
         <x:v>24</x:v>
@@ -20948,10 +20948,10 @@
     </x:row>
     <x:row r="266" spans="1:22">
       <x:c r="A266" s="0" t="s">
-        <x:v>682</x:v>
+        <x:v>683</x:v>
       </x:c>
       <x:c r="B266" s="0" t="s">
-        <x:v>683</x:v>
+        <x:v>684</x:v>
       </x:c>
       <x:c r="C266" s="0" t="s">
         <x:v>24</x:v>
@@ -21011,15 +21011,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V266" s="0" t="s">
-        <x:v>684</x:v>
+        <x:v>685</x:v>
       </x:c>
     </x:row>
     <x:row r="267" spans="1:22">
       <x:c r="A267" s="0" t="s">
-        <x:v>685</x:v>
+        <x:v>686</x:v>
       </x:c>
       <x:c r="B267" s="0" t="s">
-        <x:v>686</x:v>
+        <x:v>687</x:v>
       </x:c>
       <x:c r="C267" s="0" t="s">
         <x:v>24</x:v>
@@ -21084,10 +21084,10 @@
     </x:row>
     <x:row r="268" spans="1:22">
       <x:c r="A268" s="0" t="s">
-        <x:v>687</x:v>
+        <x:v>688</x:v>
       </x:c>
       <x:c r="B268" s="0" t="s">
-        <x:v>688</x:v>
+        <x:v>689</x:v>
       </x:c>
       <x:c r="C268" s="0" t="s">
         <x:v>24</x:v>
@@ -21152,10 +21152,10 @@
     </x:row>
     <x:row r="269" spans="1:22">
       <x:c r="A269" s="0" t="s">
-        <x:v>689</x:v>
+        <x:v>690</x:v>
       </x:c>
       <x:c r="B269" s="0" t="s">
-        <x:v>690</x:v>
+        <x:v>691</x:v>
       </x:c>
       <x:c r="C269" s="0" t="s">
         <x:v>24</x:v>
@@ -21220,10 +21220,10 @@
     </x:row>
     <x:row r="270" spans="1:22">
       <x:c r="A270" s="0" t="s">
-        <x:v>691</x:v>
+        <x:v>692</x:v>
       </x:c>
       <x:c r="B270" s="0" t="s">
-        <x:v>692</x:v>
+        <x:v>693</x:v>
       </x:c>
       <x:c r="C270" s="0" t="s">
         <x:v>49</x:v>
@@ -21238,7 +21238,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="G270" s="0" t="s">
-        <x:v>693</x:v>
+        <x:v>694</x:v>
       </x:c>
       <x:c r="H270" s="0" t="s">
         <x:v>24</x:v>
@@ -21283,15 +21283,15 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="V270" s="0" t="s">
-        <x:v>694</x:v>
+        <x:v>695</x:v>
       </x:c>
     </x:row>
     <x:row r="271" spans="1:22">
       <x:c r="A271" s="0" t="s">
-        <x:v>695</x:v>
+        <x:v>696</x:v>
       </x:c>
       <x:c r="B271" s="0" t="s">
-        <x:v>696</x:v>
+        <x:v>697</x:v>
       </x:c>
       <x:c r="C271" s="0" t="s">
         <x:v>24</x:v>
@@ -21356,10 +21356,10 @@
     </x:row>
     <x:row r="272" spans="1:22">
       <x:c r="A272" s="0" t="s">
-        <x:v>697</x:v>
+        <x:v>698</x:v>
       </x:c>
       <x:c r="B272" s="0" t="s">
-        <x:v>698</x:v>
+        <x:v>699</x:v>
       </x:c>
       <x:c r="C272" s="0" t="s">
         <x:v>24</x:v>
@@ -21419,15 +21419,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V272" s="0" t="s">
-        <x:v>267</x:v>
+        <x:v>266</x:v>
       </x:c>
     </x:row>
     <x:row r="273" spans="1:22">
       <x:c r="A273" s="0" t="s">
-        <x:v>699</x:v>
+        <x:v>700</x:v>
       </x:c>
       <x:c r="B273" s="0" t="s">
-        <x:v>700</x:v>
+        <x:v>701</x:v>
       </x:c>
       <x:c r="C273" s="0" t="s">
         <x:v>24</x:v>
@@ -21492,10 +21492,10 @@
     </x:row>
     <x:row r="274" spans="1:22">
       <x:c r="A274" s="0" t="s">
-        <x:v>701</x:v>
+        <x:v>702</x:v>
       </x:c>
       <x:c r="B274" s="0" t="s">
-        <x:v>702</x:v>
+        <x:v>703</x:v>
       </x:c>
       <x:c r="C274" s="0" t="s">
         <x:v>24</x:v>
@@ -21560,10 +21560,10 @@
     </x:row>
     <x:row r="275" spans="1:22">
       <x:c r="A275" s="0" t="s">
-        <x:v>703</x:v>
+        <x:v>704</x:v>
       </x:c>
       <x:c r="B275" s="0" t="s">
-        <x:v>704</x:v>
+        <x:v>705</x:v>
       </x:c>
       <x:c r="C275" s="0" t="s">
         <x:v>24</x:v>
@@ -21628,10 +21628,10 @@
     </x:row>
     <x:row r="276" spans="1:22">
       <x:c r="A276" s="0" t="s">
-        <x:v>705</x:v>
+        <x:v>706</x:v>
       </x:c>
       <x:c r="B276" s="0" t="s">
-        <x:v>706</x:v>
+        <x:v>707</x:v>
       </x:c>
       <x:c r="C276" s="0" t="s">
         <x:v>24</x:v>
@@ -21696,10 +21696,10 @@
     </x:row>
     <x:row r="277" spans="1:22">
       <x:c r="A277" s="0" t="s">
-        <x:v>707</x:v>
+        <x:v>708</x:v>
       </x:c>
       <x:c r="B277" s="0" t="s">
-        <x:v>708</x:v>
+        <x:v>709</x:v>
       </x:c>
       <x:c r="C277" s="0" t="s">
         <x:v>25</x:v>
@@ -21764,10 +21764,10 @@
     </x:row>
     <x:row r="278" spans="1:22">
       <x:c r="A278" s="0" t="s">
-        <x:v>709</x:v>
+        <x:v>710</x:v>
       </x:c>
       <x:c r="B278" s="0" t="s">
-        <x:v>710</x:v>
+        <x:v>711</x:v>
       </x:c>
       <x:c r="C278" s="0" t="s">
         <x:v>24</x:v>
@@ -21782,7 +21782,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G278" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="H278" s="0" t="s">
         <x:v>24</x:v>
@@ -21832,10 +21832,10 @@
     </x:row>
     <x:row r="279" spans="1:22">
       <x:c r="A279" s="0" t="s">
-        <x:v>711</x:v>
+        <x:v>712</x:v>
       </x:c>
       <x:c r="B279" s="0" t="s">
-        <x:v>712</x:v>
+        <x:v>713</x:v>
       </x:c>
       <x:c r="C279" s="0" t="s">
         <x:v>24</x:v>
@@ -21900,10 +21900,10 @@
     </x:row>
     <x:row r="280" spans="1:22">
       <x:c r="A280" s="0" t="s">
-        <x:v>713</x:v>
+        <x:v>714</x:v>
       </x:c>
       <x:c r="B280" s="0" t="s">
-        <x:v>714</x:v>
+        <x:v>715</x:v>
       </x:c>
       <x:c r="C280" s="0" t="s">
         <x:v>24</x:v>
@@ -21968,10 +21968,10 @@
     </x:row>
     <x:row r="281" spans="1:22">
       <x:c r="A281" s="0" t="s">
-        <x:v>715</x:v>
+        <x:v>716</x:v>
       </x:c>
       <x:c r="B281" s="0" t="s">
-        <x:v>716</x:v>
+        <x:v>717</x:v>
       </x:c>
       <x:c r="C281" s="0" t="s">
         <x:v>24</x:v>
@@ -22036,10 +22036,10 @@
     </x:row>
     <x:row r="282" spans="1:22">
       <x:c r="A282" s="0" t="s">
-        <x:v>717</x:v>
+        <x:v>718</x:v>
       </x:c>
       <x:c r="B282" s="0" t="s">
-        <x:v>718</x:v>
+        <x:v>719</x:v>
       </x:c>
       <x:c r="C282" s="0" t="s">
         <x:v>24</x:v>
@@ -22104,10 +22104,10 @@
     </x:row>
     <x:row r="283" spans="1:22">
       <x:c r="A283" s="0" t="s">
-        <x:v>719</x:v>
+        <x:v>720</x:v>
       </x:c>
       <x:c r="B283" s="0" t="s">
-        <x:v>720</x:v>
+        <x:v>721</x:v>
       </x:c>
       <x:c r="C283" s="0" t="s">
         <x:v>24</x:v>
@@ -22172,10 +22172,10 @@
     </x:row>
     <x:row r="284" spans="1:22">
       <x:c r="A284" s="0" t="s">
-        <x:v>721</x:v>
+        <x:v>722</x:v>
       </x:c>
       <x:c r="B284" s="0" t="s">
-        <x:v>722</x:v>
+        <x:v>723</x:v>
       </x:c>
       <x:c r="C284" s="0" t="s">
         <x:v>24</x:v>
@@ -22240,10 +22240,10 @@
     </x:row>
     <x:row r="285" spans="1:22">
       <x:c r="A285" s="0" t="s">
-        <x:v>723</x:v>
+        <x:v>724</x:v>
       </x:c>
       <x:c r="B285" s="0" t="s">
-        <x:v>724</x:v>
+        <x:v>725</x:v>
       </x:c>
       <x:c r="C285" s="0" t="s">
         <x:v>33</x:v>
@@ -22258,7 +22258,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="G285" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="H285" s="0" t="s">
         <x:v>24</x:v>
@@ -22303,15 +22303,15 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="V285" s="0" t="s">
-        <x:v>725</x:v>
+        <x:v>726</x:v>
       </x:c>
     </x:row>
     <x:row r="286" spans="1:22">
       <x:c r="A286" s="0" t="s">
-        <x:v>726</x:v>
+        <x:v>727</x:v>
       </x:c>
       <x:c r="B286" s="0" t="s">
-        <x:v>727</x:v>
+        <x:v>728</x:v>
       </x:c>
       <x:c r="C286" s="0" t="s">
         <x:v>24</x:v>
@@ -22376,10 +22376,10 @@
     </x:row>
     <x:row r="287" spans="1:22">
       <x:c r="A287" s="0" t="s">
-        <x:v>728</x:v>
+        <x:v>729</x:v>
       </x:c>
       <x:c r="B287" s="0" t="s">
-        <x:v>729</x:v>
+        <x:v>730</x:v>
       </x:c>
       <x:c r="C287" s="0" t="s">
         <x:v>24</x:v>
@@ -22444,10 +22444,10 @@
     </x:row>
     <x:row r="288" spans="1:22">
       <x:c r="A288" s="0" t="s">
-        <x:v>730</x:v>
+        <x:v>731</x:v>
       </x:c>
       <x:c r="B288" s="0" t="s">
-        <x:v>731</x:v>
+        <x:v>732</x:v>
       </x:c>
       <x:c r="C288" s="0" t="s">
         <x:v>24</x:v>
@@ -22512,10 +22512,10 @@
     </x:row>
     <x:row r="289" spans="1:22">
       <x:c r="A289" s="0" t="s">
-        <x:v>732</x:v>
+        <x:v>733</x:v>
       </x:c>
       <x:c r="B289" s="0" t="s">
-        <x:v>733</x:v>
+        <x:v>734</x:v>
       </x:c>
       <x:c r="C289" s="0" t="s">
         <x:v>24</x:v>
@@ -22580,10 +22580,10 @@
     </x:row>
     <x:row r="290" spans="1:22">
       <x:c r="A290" s="0" t="s">
-        <x:v>734</x:v>
+        <x:v>735</x:v>
       </x:c>
       <x:c r="B290" s="0" t="s">
-        <x:v>735</x:v>
+        <x:v>736</x:v>
       </x:c>
       <x:c r="C290" s="0" t="s">
         <x:v>24</x:v>
@@ -22648,10 +22648,10 @@
     </x:row>
     <x:row r="291" spans="1:22">
       <x:c r="A291" s="0" t="s">
-        <x:v>736</x:v>
+        <x:v>737</x:v>
       </x:c>
       <x:c r="B291" s="0" t="s">
-        <x:v>737</x:v>
+        <x:v>738</x:v>
       </x:c>
       <x:c r="C291" s="0" t="s">
         <x:v>24</x:v>
@@ -22716,10 +22716,10 @@
     </x:row>
     <x:row r="292" spans="1:22">
       <x:c r="A292" s="0" t="s">
-        <x:v>738</x:v>
+        <x:v>739</x:v>
       </x:c>
       <x:c r="B292" s="0" t="s">
-        <x:v>739</x:v>
+        <x:v>740</x:v>
       </x:c>
       <x:c r="C292" s="0" t="s">
         <x:v>24</x:v>
@@ -22784,10 +22784,10 @@
     </x:row>
     <x:row r="293" spans="1:22">
       <x:c r="A293" s="0" t="s">
-        <x:v>740</x:v>
+        <x:v>741</x:v>
       </x:c>
       <x:c r="B293" s="0" t="s">
-        <x:v>741</x:v>
+        <x:v>742</x:v>
       </x:c>
       <x:c r="C293" s="0" t="s">
         <x:v>24</x:v>
@@ -22852,10 +22852,10 @@
     </x:row>
     <x:row r="294" spans="1:22">
       <x:c r="A294" s="0" t="s">
-        <x:v>742</x:v>
+        <x:v>743</x:v>
       </x:c>
       <x:c r="B294" s="0" t="s">
-        <x:v>743</x:v>
+        <x:v>744</x:v>
       </x:c>
       <x:c r="C294" s="0" t="s">
         <x:v>24</x:v>
@@ -22920,10 +22920,10 @@
     </x:row>
     <x:row r="295" spans="1:22">
       <x:c r="A295" s="0" t="s">
-        <x:v>744</x:v>
+        <x:v>745</x:v>
       </x:c>
       <x:c r="B295" s="0" t="s">
-        <x:v>745</x:v>
+        <x:v>746</x:v>
       </x:c>
       <x:c r="C295" s="0" t="s">
         <x:v>24</x:v>
@@ -22988,10 +22988,10 @@
     </x:row>
     <x:row r="296" spans="1:22">
       <x:c r="A296" s="0" t="s">
-        <x:v>746</x:v>
+        <x:v>747</x:v>
       </x:c>
       <x:c r="B296" s="0" t="s">
-        <x:v>747</x:v>
+        <x:v>748</x:v>
       </x:c>
       <x:c r="C296" s="0" t="s">
         <x:v>24</x:v>
@@ -23056,10 +23056,10 @@
     </x:row>
     <x:row r="297" spans="1:22">
       <x:c r="A297" s="0" t="s">
-        <x:v>748</x:v>
+        <x:v>749</x:v>
       </x:c>
       <x:c r="B297" s="0" t="s">
-        <x:v>749</x:v>
+        <x:v>750</x:v>
       </x:c>
       <x:c r="C297" s="0" t="s">
         <x:v>25</x:v>
@@ -23124,10 +23124,10 @@
     </x:row>
     <x:row r="298" spans="1:22">
       <x:c r="A298" s="0" t="s">
-        <x:v>750</x:v>
+        <x:v>751</x:v>
       </x:c>
       <x:c r="B298" s="0" t="s">
-        <x:v>751</x:v>
+        <x:v>752</x:v>
       </x:c>
       <x:c r="C298" s="0" t="s">
         <x:v>24</x:v>
@@ -23192,10 +23192,10 @@
     </x:row>
     <x:row r="299" spans="1:22">
       <x:c r="A299" s="0" t="s">
-        <x:v>752</x:v>
+        <x:v>753</x:v>
       </x:c>
       <x:c r="B299" s="0" t="s">
-        <x:v>753</x:v>
+        <x:v>754</x:v>
       </x:c>
       <x:c r="C299" s="0" t="s">
         <x:v>24</x:v>
@@ -23260,10 +23260,10 @@
     </x:row>
     <x:row r="300" spans="1:22">
       <x:c r="A300" s="0" t="s">
-        <x:v>754</x:v>
+        <x:v>755</x:v>
       </x:c>
       <x:c r="B300" s="0" t="s">
-        <x:v>755</x:v>
+        <x:v>756</x:v>
       </x:c>
       <x:c r="C300" s="0" t="s">
         <x:v>24</x:v>
@@ -23328,10 +23328,10 @@
     </x:row>
     <x:row r="301" spans="1:22">
       <x:c r="A301" s="0" t="s">
-        <x:v>756</x:v>
+        <x:v>757</x:v>
       </x:c>
       <x:c r="B301" s="0" t="s">
-        <x:v>757</x:v>
+        <x:v>758</x:v>
       </x:c>
       <x:c r="C301" s="0" t="s">
         <x:v>24</x:v>
@@ -23396,10 +23396,10 @@
     </x:row>
     <x:row r="302" spans="1:22">
       <x:c r="A302" s="0" t="s">
-        <x:v>758</x:v>
+        <x:v>759</x:v>
       </x:c>
       <x:c r="B302" s="0" t="s">
-        <x:v>759</x:v>
+        <x:v>760</x:v>
       </x:c>
       <x:c r="C302" s="0" t="s">
         <x:v>33</x:v>
@@ -23414,7 +23414,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="G302" s="0" t="s">
-        <x:v>760</x:v>
+        <x:v>761</x:v>
       </x:c>
       <x:c r="H302" s="0" t="s">
         <x:v>24</x:v>
@@ -23435,13 +23435,13 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="N302" s="0" t="s">
-        <x:v>249</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="O302" s="0" t="s">
         <x:v>89</x:v>
       </x:c>
       <x:c r="P302" s="0" t="s">
-        <x:v>761</x:v>
+        <x:v>628</x:v>
       </x:c>
       <x:c r="Q302" s="0" t="s">
         <x:v>24</x:v>
@@ -23663,7 +23663,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V305" s="0" t="s">
-        <x:v>249</x:v>
+        <x:v>248</x:v>
       </x:c>
     </x:row>
     <x:row r="306" spans="1:22">
@@ -23822,7 +23822,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="G308" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="H308" s="0" t="s">
         <x:v>24</x:v>
@@ -23917,7 +23917,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="P309" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="Q309" s="0" t="s">
         <x:v>24</x:v>
@@ -23935,7 +23935,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V309" s="0" t="s">
-        <x:v>318</x:v>
+        <x:v>317</x:v>
       </x:c>
     </x:row>
     <x:row r="310" spans="1:22">
@@ -24003,7 +24003,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V310" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>237</x:v>
       </x:c>
     </x:row>
     <x:row r="311" spans="1:22">
@@ -24298,7 +24298,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G315" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="H315" s="0" t="s">
         <x:v>24</x:v>
@@ -24411,7 +24411,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V316" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>315</x:v>
       </x:c>
     </x:row>
     <x:row r="317" spans="1:22">
@@ -24706,7 +24706,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="G321" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="H321" s="0" t="s">
         <x:v>25</x:v>
@@ -24955,7 +24955,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V324" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>296</x:v>
       </x:c>
     </x:row>
     <x:row r="325" spans="1:22">
@@ -25046,7 +25046,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G326" s="0" t="s">
-        <x:v>693</x:v>
+        <x:v>694</x:v>
       </x:c>
       <x:c r="H326" s="0" t="s">
         <x:v>24</x:v>
@@ -25135,7 +25135,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="N327" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="O327" s="0" t="s">
         <x:v>49</x:v>
@@ -25203,7 +25203,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N328" s="0" t="s">
-        <x:v>288</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="O328" s="0" t="s">
         <x:v>24</x:v>
@@ -25227,7 +25227,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="V328" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>316</x:v>
       </x:c>
     </x:row>
     <x:row r="329" spans="1:22">
@@ -25567,7 +25567,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V333" s="0" t="s">
-        <x:v>288</x:v>
+        <x:v>287</x:v>
       </x:c>
     </x:row>
     <x:row r="334" spans="1:22">
@@ -25635,7 +25635,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V334" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>225</x:v>
       </x:c>
     </x:row>
     <x:row r="335" spans="1:22">
@@ -25815,7 +25815,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N337" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="O337" s="0" t="s">
         <x:v>24</x:v>

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
@@ -1762,313 +1762,313 @@
     <x:t>203</x:t>
   </x:si>
   <x:si>
+    <x:t>107</x:t>
+  </x:si>
+  <x:si>
+    <x:t>681</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0621000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>White Bear Lake Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0630000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Red Lake County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0640000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Redwood County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0640200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Redwood Falls Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0640400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Morgan Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0650000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Renville County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>65</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0650200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hector Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0650300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Olivia Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0650600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Buffalo Lake Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0660000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rice County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0660100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Faribault Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0660200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Northfield Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0660400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lonsdale Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0670000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rock County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0680000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Roseau County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0680100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Roseau Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0680200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Warroad Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0690000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>St Louis County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0690200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Babbitt Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0690500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chisholm Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0690600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Duluth Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0690700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ely Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0690800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Eveleth Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0690900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gilbert Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0691000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hibbing Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0691300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Proctor Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0691700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hermantown Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0691800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>University of MN Police Dept - Duluth</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0694400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>East Range Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0700000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Scott County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0700100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Belle Plaine Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0700200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jordan Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0700300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New Prague Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0700400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shakopee Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>81</x:t>
+  </x:si>
+  <x:si>
+    <x:t>341</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0700600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Savage Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0700900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Prior Lake Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>268</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0701000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Elko New Market Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0710000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sherburne County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>91</x:t>
+  </x:si>
+  <x:si>
+    <x:t>208</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0710100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Big Lake Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0710200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Elk River Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>101</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0710400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Becker Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0720000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sibley County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0720100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Arlington Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0720200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gaylord Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0720600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Winthrop Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0730000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stearns County Sheriff</x:t>
+  </x:si>
+  <x:si>
     <x:t>106</x:t>
-  </x:si>
-  <x:si>
-    <x:t>107</x:t>
-  </x:si>
-  <x:si>
-    <x:t>682</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0621000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>White Bear Lake Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0630000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Red Lake County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0640000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Redwood County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0640200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Redwood Falls Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0640400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Morgan Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0650000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Renville County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>65</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0650200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hector Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0650300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Olivia Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0650600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Buffalo Lake Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0660000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rice County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0660100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Faribault Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0660200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Northfield Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0660400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lonsdale Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0670000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rock County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0680000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Roseau County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0680100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Roseau Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0680200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Warroad Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0690000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>St Louis County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0690200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Babbitt Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0690500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Chisholm Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0690600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Duluth Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>61</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0690700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ely Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0690800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Eveleth Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0690900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gilbert Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0691000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hibbing Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0691300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Proctor Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0691700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hermantown Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0691800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>University of MN Police Dept - Duluth</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0694400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>East Range Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0700000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Scott County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0700100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Belle Plaine Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0700200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jordan Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0700300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>New Prague Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0700400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Shakopee Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>81</x:t>
-  </x:si>
-  <x:si>
-    <x:t>341</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0700600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Savage Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0700900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Prior Lake Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>268</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0701000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Elko New Market Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0710000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sherburne County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>91</x:t>
-  </x:si>
-  <x:si>
-    <x:t>208</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0710100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Big Lake Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0710200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Elk River Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>101</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0710400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Becker Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0720000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sibley County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0720100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Arlington Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0720200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gaylord Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0720600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Winthrop Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0730000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stearns County Sheriff</x:t>
   </x:si>
   <x:si>
     <x:t>167</x:t>
@@ -17859,13 +17859,13 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="N220" s="0" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="O220" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="P220" s="0" t="s">
         <x:v>582</x:v>
-      </x:c>
-      <x:c r="O220" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="P220" s="0" t="s">
-        <x:v>583</x:v>
       </x:c>
       <x:c r="Q220" s="0" t="s">
         <x:v>32</x:v>
@@ -17883,15 +17883,15 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="V220" s="0" t="s">
-        <x:v>584</x:v>
+        <x:v>583</x:v>
       </x:c>
     </x:row>
     <x:row r="221" spans="1:22">
       <x:c r="A221" s="0" t="s">
+        <x:v>584</x:v>
+      </x:c>
+      <x:c r="B221" s="0" t="s">
         <x:v>585</x:v>
-      </x:c>
-      <x:c r="B221" s="0" t="s">
-        <x:v>586</x:v>
       </x:c>
       <x:c r="C221" s="0" t="s">
         <x:v>24</x:v>
@@ -17956,10 +17956,10 @@
     </x:row>
     <x:row r="222" spans="1:22">
       <x:c r="A222" s="0" t="s">
+        <x:v>586</x:v>
+      </x:c>
+      <x:c r="B222" s="0" t="s">
         <x:v>587</x:v>
-      </x:c>
-      <x:c r="B222" s="0" t="s">
-        <x:v>588</x:v>
       </x:c>
       <x:c r="C222" s="0" t="s">
         <x:v>24</x:v>
@@ -18024,10 +18024,10 @@
     </x:row>
     <x:row r="223" spans="1:22">
       <x:c r="A223" s="0" t="s">
+        <x:v>588</x:v>
+      </x:c>
+      <x:c r="B223" s="0" t="s">
         <x:v>589</x:v>
-      </x:c>
-      <x:c r="B223" s="0" t="s">
-        <x:v>590</x:v>
       </x:c>
       <x:c r="C223" s="0" t="s">
         <x:v>24</x:v>
@@ -18092,10 +18092,10 @@
     </x:row>
     <x:row r="224" spans="1:22">
       <x:c r="A224" s="0" t="s">
+        <x:v>590</x:v>
+      </x:c>
+      <x:c r="B224" s="0" t="s">
         <x:v>591</x:v>
-      </x:c>
-      <x:c r="B224" s="0" t="s">
-        <x:v>592</x:v>
       </x:c>
       <x:c r="C224" s="0" t="s">
         <x:v>24</x:v>
@@ -18160,10 +18160,10 @@
     </x:row>
     <x:row r="225" spans="1:22">
       <x:c r="A225" s="0" t="s">
+        <x:v>592</x:v>
+      </x:c>
+      <x:c r="B225" s="0" t="s">
         <x:v>593</x:v>
-      </x:c>
-      <x:c r="B225" s="0" t="s">
-        <x:v>594</x:v>
       </x:c>
       <x:c r="C225" s="0" t="s">
         <x:v>24</x:v>
@@ -18228,10 +18228,10 @@
     </x:row>
     <x:row r="226" spans="1:22">
       <x:c r="A226" s="0" t="s">
+        <x:v>594</x:v>
+      </x:c>
+      <x:c r="B226" s="0" t="s">
         <x:v>595</x:v>
-      </x:c>
-      <x:c r="B226" s="0" t="s">
-        <x:v>596</x:v>
       </x:c>
       <x:c r="C226" s="0" t="s">
         <x:v>24</x:v>
@@ -18291,15 +18291,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V226" s="0" t="s">
-        <x:v>597</x:v>
+        <x:v>596</x:v>
       </x:c>
     </x:row>
     <x:row r="227" spans="1:22">
       <x:c r="A227" s="0" t="s">
+        <x:v>597</x:v>
+      </x:c>
+      <x:c r="B227" s="0" t="s">
         <x:v>598</x:v>
-      </x:c>
-      <x:c r="B227" s="0" t="s">
-        <x:v>599</x:v>
       </x:c>
       <x:c r="C227" s="0" t="s">
         <x:v>24</x:v>
@@ -18364,10 +18364,10 @@
     </x:row>
     <x:row r="228" spans="1:22">
       <x:c r="A228" s="0" t="s">
+        <x:v>599</x:v>
+      </x:c>
+      <x:c r="B228" s="0" t="s">
         <x:v>600</x:v>
-      </x:c>
-      <x:c r="B228" s="0" t="s">
-        <x:v>601</x:v>
       </x:c>
       <x:c r="C228" s="0" t="s">
         <x:v>24</x:v>
@@ -18432,10 +18432,10 @@
     </x:row>
     <x:row r="229" spans="1:22">
       <x:c r="A229" s="0" t="s">
+        <x:v>601</x:v>
+      </x:c>
+      <x:c r="B229" s="0" t="s">
         <x:v>602</x:v>
-      </x:c>
-      <x:c r="B229" s="0" t="s">
-        <x:v>603</x:v>
       </x:c>
       <x:c r="C229" s="0" t="s">
         <x:v>24</x:v>
@@ -18500,10 +18500,10 @@
     </x:row>
     <x:row r="230" spans="1:22">
       <x:c r="A230" s="0" t="s">
+        <x:v>603</x:v>
+      </x:c>
+      <x:c r="B230" s="0" t="s">
         <x:v>604</x:v>
-      </x:c>
-      <x:c r="B230" s="0" t="s">
-        <x:v>605</x:v>
       </x:c>
       <x:c r="C230" s="0" t="s">
         <x:v>24</x:v>
@@ -18568,10 +18568,10 @@
     </x:row>
     <x:row r="231" spans="1:22">
       <x:c r="A231" s="0" t="s">
+        <x:v>605</x:v>
+      </x:c>
+      <x:c r="B231" s="0" t="s">
         <x:v>606</x:v>
-      </x:c>
-      <x:c r="B231" s="0" t="s">
-        <x:v>607</x:v>
       </x:c>
       <x:c r="C231" s="0" t="s">
         <x:v>24</x:v>
@@ -18636,10 +18636,10 @@
     </x:row>
     <x:row r="232" spans="1:22">
       <x:c r="A232" s="0" t="s">
+        <x:v>607</x:v>
+      </x:c>
+      <x:c r="B232" s="0" t="s">
         <x:v>608</x:v>
-      </x:c>
-      <x:c r="B232" s="0" t="s">
-        <x:v>609</x:v>
       </x:c>
       <x:c r="C232" s="0" t="s">
         <x:v>40</x:v>
@@ -18704,10 +18704,10 @@
     </x:row>
     <x:row r="233" spans="1:22">
       <x:c r="A233" s="0" t="s">
+        <x:v>609</x:v>
+      </x:c>
+      <x:c r="B233" s="0" t="s">
         <x:v>610</x:v>
-      </x:c>
-      <x:c r="B233" s="0" t="s">
-        <x:v>611</x:v>
       </x:c>
       <x:c r="C233" s="0" t="s">
         <x:v>24</x:v>
@@ -18772,10 +18772,10 @@
     </x:row>
     <x:row r="234" spans="1:22">
       <x:c r="A234" s="0" t="s">
+        <x:v>611</x:v>
+      </x:c>
+      <x:c r="B234" s="0" t="s">
         <x:v>612</x:v>
-      </x:c>
-      <x:c r="B234" s="0" t="s">
-        <x:v>613</x:v>
       </x:c>
       <x:c r="C234" s="0" t="s">
         <x:v>24</x:v>
@@ -18840,10 +18840,10 @@
     </x:row>
     <x:row r="235" spans="1:22">
       <x:c r="A235" s="0" t="s">
+        <x:v>613</x:v>
+      </x:c>
+      <x:c r="B235" s="0" t="s">
         <x:v>614</x:v>
-      </x:c>
-      <x:c r="B235" s="0" t="s">
-        <x:v>615</x:v>
       </x:c>
       <x:c r="C235" s="0" t="s">
         <x:v>24</x:v>
@@ -18908,10 +18908,10 @@
     </x:row>
     <x:row r="236" spans="1:22">
       <x:c r="A236" s="0" t="s">
+        <x:v>615</x:v>
+      </x:c>
+      <x:c r="B236" s="0" t="s">
         <x:v>616</x:v>
-      </x:c>
-      <x:c r="B236" s="0" t="s">
-        <x:v>617</x:v>
       </x:c>
       <x:c r="C236" s="0" t="s">
         <x:v>24</x:v>
@@ -18976,10 +18976,10 @@
     </x:row>
     <x:row r="237" spans="1:22">
       <x:c r="A237" s="0" t="s">
+        <x:v>617</x:v>
+      </x:c>
+      <x:c r="B237" s="0" t="s">
         <x:v>618</x:v>
-      </x:c>
-      <x:c r="B237" s="0" t="s">
-        <x:v>619</x:v>
       </x:c>
       <x:c r="C237" s="0" t="s">
         <x:v>24</x:v>
@@ -19044,10 +19044,10 @@
     </x:row>
     <x:row r="238" spans="1:22">
       <x:c r="A238" s="0" t="s">
+        <x:v>619</x:v>
+      </x:c>
+      <x:c r="B238" s="0" t="s">
         <x:v>620</x:v>
-      </x:c>
-      <x:c r="B238" s="0" t="s">
-        <x:v>621</x:v>
       </x:c>
       <x:c r="C238" s="0" t="s">
         <x:v>24</x:v>
@@ -19112,10 +19112,10 @@
     </x:row>
     <x:row r="239" spans="1:22">
       <x:c r="A239" s="0" t="s">
+        <x:v>621</x:v>
+      </x:c>
+      <x:c r="B239" s="0" t="s">
         <x:v>622</x:v>
-      </x:c>
-      <x:c r="B239" s="0" t="s">
-        <x:v>623</x:v>
       </x:c>
       <x:c r="C239" s="0" t="s">
         <x:v>24</x:v>
@@ -19180,10 +19180,10 @@
     </x:row>
     <x:row r="240" spans="1:22">
       <x:c r="A240" s="0" t="s">
+        <x:v>623</x:v>
+      </x:c>
+      <x:c r="B240" s="0" t="s">
         <x:v>624</x:v>
-      </x:c>
-      <x:c r="B240" s="0" t="s">
-        <x:v>625</x:v>
       </x:c>
       <x:c r="C240" s="0" t="s">
         <x:v>24</x:v>
@@ -19248,10 +19248,10 @@
     </x:row>
     <x:row r="241" spans="1:22">
       <x:c r="A241" s="0" t="s">
+        <x:v>625</x:v>
+      </x:c>
+      <x:c r="B241" s="0" t="s">
         <x:v>626</x:v>
-      </x:c>
-      <x:c r="B241" s="0" t="s">
-        <x:v>627</x:v>
       </x:c>
       <x:c r="C241" s="0" t="s">
         <x:v>24</x:v>
@@ -19311,15 +19311,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V241" s="0" t="s">
-        <x:v>628</x:v>
+        <x:v>627</x:v>
       </x:c>
     </x:row>
     <x:row r="242" spans="1:22">
       <x:c r="A242" s="0" t="s">
+        <x:v>628</x:v>
+      </x:c>
+      <x:c r="B242" s="0" t="s">
         <x:v>629</x:v>
-      </x:c>
-      <x:c r="B242" s="0" t="s">
-        <x:v>630</x:v>
       </x:c>
       <x:c r="C242" s="0" t="s">
         <x:v>24</x:v>
@@ -19384,10 +19384,10 @@
     </x:row>
     <x:row r="243" spans="1:22">
       <x:c r="A243" s="0" t="s">
+        <x:v>630</x:v>
+      </x:c>
+      <x:c r="B243" s="0" t="s">
         <x:v>631</x:v>
-      </x:c>
-      <x:c r="B243" s="0" t="s">
-        <x:v>632</x:v>
       </x:c>
       <x:c r="C243" s="0" t="s">
         <x:v>24</x:v>
@@ -19452,10 +19452,10 @@
     </x:row>
     <x:row r="244" spans="1:22">
       <x:c r="A244" s="0" t="s">
+        <x:v>632</x:v>
+      </x:c>
+      <x:c r="B244" s="0" t="s">
         <x:v>633</x:v>
-      </x:c>
-      <x:c r="B244" s="0" t="s">
-        <x:v>634</x:v>
       </x:c>
       <x:c r="C244" s="0" t="s">
         <x:v>24</x:v>
@@ -19520,10 +19520,10 @@
     </x:row>
     <x:row r="245" spans="1:22">
       <x:c r="A245" s="0" t="s">
+        <x:v>634</x:v>
+      </x:c>
+      <x:c r="B245" s="0" t="s">
         <x:v>635</x:v>
-      </x:c>
-      <x:c r="B245" s="0" t="s">
-        <x:v>636</x:v>
       </x:c>
       <x:c r="C245" s="0" t="s">
         <x:v>24</x:v>
@@ -19588,10 +19588,10 @@
     </x:row>
     <x:row r="246" spans="1:22">
       <x:c r="A246" s="0" t="s">
+        <x:v>636</x:v>
+      </x:c>
+      <x:c r="B246" s="0" t="s">
         <x:v>637</x:v>
-      </x:c>
-      <x:c r="B246" s="0" t="s">
-        <x:v>638</x:v>
       </x:c>
       <x:c r="C246" s="0" t="s">
         <x:v>24</x:v>
@@ -19656,10 +19656,10 @@
     </x:row>
     <x:row r="247" spans="1:22">
       <x:c r="A247" s="0" t="s">
+        <x:v>638</x:v>
+      </x:c>
+      <x:c r="B247" s="0" t="s">
         <x:v>639</x:v>
-      </x:c>
-      <x:c r="B247" s="0" t="s">
-        <x:v>640</x:v>
       </x:c>
       <x:c r="C247" s="0" t="s">
         <x:v>24</x:v>
@@ -19724,10 +19724,10 @@
     </x:row>
     <x:row r="248" spans="1:22">
       <x:c r="A248" s="0" t="s">
+        <x:v>640</x:v>
+      </x:c>
+      <x:c r="B248" s="0" t="s">
         <x:v>641</x:v>
-      </x:c>
-      <x:c r="B248" s="0" t="s">
-        <x:v>642</x:v>
       </x:c>
       <x:c r="C248" s="0" t="s">
         <x:v>24</x:v>
@@ -19792,10 +19792,10 @@
     </x:row>
     <x:row r="249" spans="1:22">
       <x:c r="A249" s="0" t="s">
+        <x:v>642</x:v>
+      </x:c>
+      <x:c r="B249" s="0" t="s">
         <x:v>643</x:v>
-      </x:c>
-      <x:c r="B249" s="0" t="s">
-        <x:v>644</x:v>
       </x:c>
       <x:c r="C249" s="0" t="s">
         <x:v>24</x:v>
@@ -19860,10 +19860,10 @@
     </x:row>
     <x:row r="250" spans="1:22">
       <x:c r="A250" s="0" t="s">
+        <x:v>644</x:v>
+      </x:c>
+      <x:c r="B250" s="0" t="s">
         <x:v>645</x:v>
-      </x:c>
-      <x:c r="B250" s="0" t="s">
-        <x:v>646</x:v>
       </x:c>
       <x:c r="C250" s="0" t="s">
         <x:v>25</x:v>
@@ -19928,10 +19928,10 @@
     </x:row>
     <x:row r="251" spans="1:22">
       <x:c r="A251" s="0" t="s">
+        <x:v>646</x:v>
+      </x:c>
+      <x:c r="B251" s="0" t="s">
         <x:v>647</x:v>
-      </x:c>
-      <x:c r="B251" s="0" t="s">
-        <x:v>648</x:v>
       </x:c>
       <x:c r="C251" s="0" t="s">
         <x:v>24</x:v>
@@ -19996,10 +19996,10 @@
     </x:row>
     <x:row r="252" spans="1:22">
       <x:c r="A252" s="0" t="s">
+        <x:v>648</x:v>
+      </x:c>
+      <x:c r="B252" s="0" t="s">
         <x:v>649</x:v>
-      </x:c>
-      <x:c r="B252" s="0" t="s">
-        <x:v>650</x:v>
       </x:c>
       <x:c r="C252" s="0" t="s">
         <x:v>24</x:v>
@@ -20064,10 +20064,10 @@
     </x:row>
     <x:row r="253" spans="1:22">
       <x:c r="A253" s="0" t="s">
+        <x:v>650</x:v>
+      </x:c>
+      <x:c r="B253" s="0" t="s">
         <x:v>651</x:v>
-      </x:c>
-      <x:c r="B253" s="0" t="s">
-        <x:v>652</x:v>
       </x:c>
       <x:c r="C253" s="0" t="s">
         <x:v>24</x:v>
@@ -20132,10 +20132,10 @@
     </x:row>
     <x:row r="254" spans="1:22">
       <x:c r="A254" s="0" t="s">
+        <x:v>652</x:v>
+      </x:c>
+      <x:c r="B254" s="0" t="s">
         <x:v>653</x:v>
-      </x:c>
-      <x:c r="B254" s="0" t="s">
-        <x:v>654</x:v>
       </x:c>
       <x:c r="C254" s="0" t="s">
         <x:v>49</x:v>
@@ -20171,7 +20171,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N254" s="0" t="s">
-        <x:v>655</x:v>
+        <x:v>654</x:v>
       </x:c>
       <x:c r="O254" s="0" t="s">
         <x:v>55</x:v>
@@ -20195,15 +20195,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V254" s="0" t="s">
-        <x:v>656</x:v>
+        <x:v>655</x:v>
       </x:c>
     </x:row>
     <x:row r="255" spans="1:22">
       <x:c r="A255" s="0" t="s">
+        <x:v>656</x:v>
+      </x:c>
+      <x:c r="B255" s="0" t="s">
         <x:v>657</x:v>
-      </x:c>
-      <x:c r="B255" s="0" t="s">
-        <x:v>658</x:v>
       </x:c>
       <x:c r="C255" s="0" t="s">
         <x:v>24</x:v>
@@ -20268,10 +20268,10 @@
     </x:row>
     <x:row r="256" spans="1:22">
       <x:c r="A256" s="0" t="s">
+        <x:v>658</x:v>
+      </x:c>
+      <x:c r="B256" s="0" t="s">
         <x:v>659</x:v>
-      </x:c>
-      <x:c r="B256" s="0" t="s">
-        <x:v>660</x:v>
       </x:c>
       <x:c r="C256" s="0" t="s">
         <x:v>25</x:v>
@@ -20331,15 +20331,15 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="V256" s="0" t="s">
-        <x:v>661</x:v>
+        <x:v>660</x:v>
       </x:c>
     </x:row>
     <x:row r="257" spans="1:22">
       <x:c r="A257" s="0" t="s">
+        <x:v>661</x:v>
+      </x:c>
+      <x:c r="B257" s="0" t="s">
         <x:v>662</x:v>
-      </x:c>
-      <x:c r="B257" s="0" t="s">
-        <x:v>663</x:v>
       </x:c>
       <x:c r="C257" s="0" t="s">
         <x:v>24</x:v>
@@ -20404,10 +20404,10 @@
     </x:row>
     <x:row r="258" spans="1:22">
       <x:c r="A258" s="0" t="s">
+        <x:v>663</x:v>
+      </x:c>
+      <x:c r="B258" s="0" t="s">
         <x:v>664</x:v>
-      </x:c>
-      <x:c r="B258" s="0" t="s">
-        <x:v>665</x:v>
       </x:c>
       <x:c r="C258" s="0" t="s">
         <x:v>24</x:v>
@@ -20422,7 +20422,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="G258" s="0" t="s">
-        <x:v>666</x:v>
+        <x:v>665</x:v>
       </x:c>
       <x:c r="H258" s="0" t="s">
         <x:v>24</x:v>
@@ -20467,15 +20467,15 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="V258" s="0" t="s">
-        <x:v>667</x:v>
+        <x:v>666</x:v>
       </x:c>
     </x:row>
     <x:row r="259" spans="1:22">
       <x:c r="A259" s="0" t="s">
+        <x:v>667</x:v>
+      </x:c>
+      <x:c r="B259" s="0" t="s">
         <x:v>668</x:v>
-      </x:c>
-      <x:c r="B259" s="0" t="s">
-        <x:v>669</x:v>
       </x:c>
       <x:c r="C259" s="0" t="s">
         <x:v>24</x:v>
@@ -20535,15 +20535,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V259" s="0" t="s">
-        <x:v>666</x:v>
+        <x:v>665</x:v>
       </x:c>
     </x:row>
     <x:row r="260" spans="1:22">
       <x:c r="A260" s="0" t="s">
+        <x:v>669</x:v>
+      </x:c>
+      <x:c r="B260" s="0" t="s">
         <x:v>670</x:v>
-      </x:c>
-      <x:c r="B260" s="0" t="s">
-        <x:v>671</x:v>
       </x:c>
       <x:c r="C260" s="0" t="s">
         <x:v>24</x:v>
@@ -20558,7 +20558,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="G260" s="0" t="s">
-        <x:v>672</x:v>
+        <x:v>671</x:v>
       </x:c>
       <x:c r="H260" s="0" t="s">
         <x:v>25</x:v>
@@ -20608,10 +20608,10 @@
     </x:row>
     <x:row r="261" spans="1:22">
       <x:c r="A261" s="0" t="s">
+        <x:v>672</x:v>
+      </x:c>
+      <x:c r="B261" s="0" t="s">
         <x:v>673</x:v>
-      </x:c>
-      <x:c r="B261" s="0" t="s">
-        <x:v>674</x:v>
       </x:c>
       <x:c r="C261" s="0" t="s">
         <x:v>24</x:v>
@@ -20676,10 +20676,10 @@
     </x:row>
     <x:row r="262" spans="1:22">
       <x:c r="A262" s="0" t="s">
+        <x:v>674</x:v>
+      </x:c>
+      <x:c r="B262" s="0" t="s">
         <x:v>675</x:v>
-      </x:c>
-      <x:c r="B262" s="0" t="s">
-        <x:v>676</x:v>
       </x:c>
       <x:c r="C262" s="0" t="s">
         <x:v>24</x:v>
@@ -20744,10 +20744,10 @@
     </x:row>
     <x:row r="263" spans="1:22">
       <x:c r="A263" s="0" t="s">
+        <x:v>676</x:v>
+      </x:c>
+      <x:c r="B263" s="0" t="s">
         <x:v>677</x:v>
-      </x:c>
-      <x:c r="B263" s="0" t="s">
-        <x:v>678</x:v>
       </x:c>
       <x:c r="C263" s="0" t="s">
         <x:v>24</x:v>
@@ -20812,10 +20812,10 @@
     </x:row>
     <x:row r="264" spans="1:22">
       <x:c r="A264" s="0" t="s">
+        <x:v>678</x:v>
+      </x:c>
+      <x:c r="B264" s="0" t="s">
         <x:v>679</x:v>
-      </x:c>
-      <x:c r="B264" s="0" t="s">
-        <x:v>680</x:v>
       </x:c>
       <x:c r="C264" s="0" t="s">
         <x:v>24</x:v>
@@ -20880,10 +20880,10 @@
     </x:row>
     <x:row r="265" spans="1:22">
       <x:c r="A265" s="0" t="s">
+        <x:v>680</x:v>
+      </x:c>
+      <x:c r="B265" s="0" t="s">
         <x:v>681</x:v>
-      </x:c>
-      <x:c r="B265" s="0" t="s">
-        <x:v>682</x:v>
       </x:c>
       <x:c r="C265" s="0" t="s">
         <x:v>24</x:v>
@@ -20948,10 +20948,10 @@
     </x:row>
     <x:row r="266" spans="1:22">
       <x:c r="A266" s="0" t="s">
+        <x:v>682</x:v>
+      </x:c>
+      <x:c r="B266" s="0" t="s">
         <x:v>683</x:v>
-      </x:c>
-      <x:c r="B266" s="0" t="s">
-        <x:v>684</x:v>
       </x:c>
       <x:c r="C266" s="0" t="s">
         <x:v>24</x:v>
@@ -20966,7 +20966,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="G266" s="0" t="s">
-        <x:v>582</x:v>
+        <x:v>684</x:v>
       </x:c>
       <x:c r="H266" s="0" t="s">
         <x:v>24</x:v>
@@ -23441,7 +23441,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="P302" s="0" t="s">
-        <x:v>628</x:v>
+        <x:v>627</x:v>
       </x:c>
       <x:c r="Q302" s="0" t="s">
         <x:v>24</x:v>

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
@@ -1069,100 +1069,100 @@
     <x:t>Eden Prairie Police Dept</x:t>
   </x:si>
   <x:si>
+    <x:t>MN0272700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maple Grove Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>87</x:t>
+  </x:si>
+  <x:si>
+    <x:t>218</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Minnetrista Public Safety Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Champlin Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0273000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Medina Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0273100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Corcoran Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0273200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dayton Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0273400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rogers Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0273700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>West Hennepin Dept of Public Safety</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0274000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Three Rivers Park District Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0274300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Metropolitan Transit Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>154</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0280000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Houston County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0280300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>La Crescent Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0280400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Spring Grove Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0290000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hubbard County Sheriff</x:t>
+  </x:si>
+  <x:si>
     <x:t>97</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Maple Grove Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>87</x:t>
-  </x:si>
-  <x:si>
-    <x:t>218</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Minnetrista Public Safety Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Champlin Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0273000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Medina Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0273100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Corcoran Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0273200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dayton Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0273400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rogers Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0273700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>West Hennepin Dept of Public Safety</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0274000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Three Rivers Park District Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0274300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Metropolitan Transit Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>154</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0280000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Houston County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0280300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>La Crescent Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0280400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Spring Grove Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0290000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hubbard County Sheriff</x:t>
   </x:si>
   <x:si>
     <x:t>109</x:t>
@@ -10630,7 +10630,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G114" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="H114" s="0" t="s">
         <x:v>24</x:v>
@@ -10675,15 +10675,15 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="V114" s="0" t="s">
-        <x:v>351</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:22">
       <x:c r="A115" s="0" t="s">
+        <x:v>351</x:v>
+      </x:c>
+      <x:c r="B115" s="0" t="s">
         <x:v>352</x:v>
-      </x:c>
-      <x:c r="B115" s="0" t="s">
-        <x:v>353</x:v>
       </x:c>
       <x:c r="C115" s="0" t="s">
         <x:v>25</x:v>
@@ -10698,7 +10698,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="G115" s="0" t="s">
-        <x:v>354</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="H115" s="0" t="s">
         <x:v>24</x:v>
@@ -10743,15 +10743,15 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="V115" s="0" t="s">
-        <x:v>355</x:v>
+        <x:v>354</x:v>
       </x:c>
     </x:row>
     <x:row r="116" spans="1:22">
       <x:c r="A116" s="0" t="s">
+        <x:v>355</x:v>
+      </x:c>
+      <x:c r="B116" s="0" t="s">
         <x:v>356</x:v>
-      </x:c>
-      <x:c r="B116" s="0" t="s">
-        <x:v>357</x:v>
       </x:c>
       <x:c r="C116" s="0" t="s">
         <x:v>24</x:v>
@@ -10816,10 +10816,10 @@
     </x:row>
     <x:row r="117" spans="1:22">
       <x:c r="A117" s="0" t="s">
+        <x:v>357</x:v>
+      </x:c>
+      <x:c r="B117" s="0" t="s">
         <x:v>358</x:v>
-      </x:c>
-      <x:c r="B117" s="0" t="s">
-        <x:v>359</x:v>
       </x:c>
       <x:c r="C117" s="0" t="s">
         <x:v>24</x:v>
@@ -10884,10 +10884,10 @@
     </x:row>
     <x:row r="118" spans="1:22">
       <x:c r="A118" s="0" t="s">
+        <x:v>359</x:v>
+      </x:c>
+      <x:c r="B118" s="0" t="s">
         <x:v>360</x:v>
-      </x:c>
-      <x:c r="B118" s="0" t="s">
-        <x:v>361</x:v>
       </x:c>
       <x:c r="C118" s="0" t="s">
         <x:v>24</x:v>
@@ -10952,10 +10952,10 @@
     </x:row>
     <x:row r="119" spans="1:22">
       <x:c r="A119" s="0" t="s">
+        <x:v>361</x:v>
+      </x:c>
+      <x:c r="B119" s="0" t="s">
         <x:v>362</x:v>
-      </x:c>
-      <x:c r="B119" s="0" t="s">
-        <x:v>363</x:v>
       </x:c>
       <x:c r="C119" s="0" t="s">
         <x:v>24</x:v>
@@ -11020,10 +11020,10 @@
     </x:row>
     <x:row r="120" spans="1:22">
       <x:c r="A120" s="0" t="s">
+        <x:v>363</x:v>
+      </x:c>
+      <x:c r="B120" s="0" t="s">
         <x:v>364</x:v>
-      </x:c>
-      <x:c r="B120" s="0" t="s">
-        <x:v>365</x:v>
       </x:c>
       <x:c r="C120" s="0" t="s">
         <x:v>24</x:v>
@@ -11088,10 +11088,10 @@
     </x:row>
     <x:row r="121" spans="1:22">
       <x:c r="A121" s="0" t="s">
+        <x:v>365</x:v>
+      </x:c>
+      <x:c r="B121" s="0" t="s">
         <x:v>366</x:v>
-      </x:c>
-      <x:c r="B121" s="0" t="s">
-        <x:v>367</x:v>
       </x:c>
       <x:c r="C121" s="0" t="s">
         <x:v>25</x:v>
@@ -11156,10 +11156,10 @@
     </x:row>
     <x:row r="122" spans="1:22">
       <x:c r="A122" s="0" t="s">
+        <x:v>367</x:v>
+      </x:c>
+      <x:c r="B122" s="0" t="s">
         <x:v>368</x:v>
-      </x:c>
-      <x:c r="B122" s="0" t="s">
-        <x:v>369</x:v>
       </x:c>
       <x:c r="C122" s="0" t="s">
         <x:v>24</x:v>
@@ -11224,10 +11224,10 @@
     </x:row>
     <x:row r="123" spans="1:22">
       <x:c r="A123" s="0" t="s">
+        <x:v>369</x:v>
+      </x:c>
+      <x:c r="B123" s="0" t="s">
         <x:v>370</x:v>
-      </x:c>
-      <x:c r="B123" s="0" t="s">
-        <x:v>371</x:v>
       </x:c>
       <x:c r="C123" s="0" t="s">
         <x:v>24</x:v>
@@ -11292,10 +11292,10 @@
     </x:row>
     <x:row r="124" spans="1:22">
       <x:c r="A124" s="0" t="s">
+        <x:v>371</x:v>
+      </x:c>
+      <x:c r="B124" s="0" t="s">
         <x:v>372</x:v>
-      </x:c>
-      <x:c r="B124" s="0" t="s">
-        <x:v>373</x:v>
       </x:c>
       <x:c r="C124" s="0" t="s">
         <x:v>27</x:v>
@@ -11355,15 +11355,15 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="V124" s="0" t="s">
-        <x:v>374</x:v>
+        <x:v>373</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="1:22">
       <x:c r="A125" s="0" t="s">
+        <x:v>374</x:v>
+      </x:c>
+      <x:c r="B125" s="0" t="s">
         <x:v>375</x:v>
-      </x:c>
-      <x:c r="B125" s="0" t="s">
-        <x:v>376</x:v>
       </x:c>
       <x:c r="C125" s="0" t="s">
         <x:v>24</x:v>
@@ -11428,10 +11428,10 @@
     </x:row>
     <x:row r="126" spans="1:22">
       <x:c r="A126" s="0" t="s">
+        <x:v>376</x:v>
+      </x:c>
+      <x:c r="B126" s="0" t="s">
         <x:v>377</x:v>
-      </x:c>
-      <x:c r="B126" s="0" t="s">
-        <x:v>378</x:v>
       </x:c>
       <x:c r="C126" s="0" t="s">
         <x:v>24</x:v>
@@ -11496,10 +11496,10 @@
     </x:row>
     <x:row r="127" spans="1:22">
       <x:c r="A127" s="0" t="s">
+        <x:v>378</x:v>
+      </x:c>
+      <x:c r="B127" s="0" t="s">
         <x:v>379</x:v>
-      </x:c>
-      <x:c r="B127" s="0" t="s">
-        <x:v>380</x:v>
       </x:c>
       <x:c r="C127" s="0" t="s">
         <x:v>24</x:v>
@@ -11564,10 +11564,10 @@
     </x:row>
     <x:row r="128" spans="1:22">
       <x:c r="A128" s="0" t="s">
+        <x:v>380</x:v>
+      </x:c>
+      <x:c r="B128" s="0" t="s">
         <x:v>381</x:v>
-      </x:c>
-      <x:c r="B128" s="0" t="s">
-        <x:v>382</x:v>
       </x:c>
       <x:c r="C128" s="0" t="s">
         <x:v>24</x:v>
@@ -11582,7 +11582,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G128" s="0" t="s">
-        <x:v>351</x:v>
+        <x:v>382</x:v>
       </x:c>
       <x:c r="H128" s="0" t="s">
         <x:v>24</x:v>
@@ -18699,7 +18699,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V232" s="0" t="s">
-        <x:v>354</x:v>
+        <x:v>353</x:v>
       </x:c>
     </x:row>
     <x:row r="233" spans="1:22">
@@ -19107,7 +19107,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="V238" s="0" t="s">
-        <x:v>351</x:v>
+        <x:v>382</x:v>
       </x:c>
     </x:row>
     <x:row r="239" spans="1:22">
@@ -20603,7 +20603,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V260" s="0" t="s">
-        <x:v>374</x:v>
+        <x:v>373</x:v>
       </x:c>
     </x:row>
     <x:row r="261" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
@@ -883,13 +883,13 @@
     <x:t>93</x:t>
   </x:si>
   <x:si>
-    <x:t>242</x:t>
+    <x:t>240</x:t>
   </x:si>
   <x:si>
     <x:t>79</x:t>
   </x:si>
   <x:si>
-    <x:t>770</x:t>
+    <x:t>768</x:t>
   </x:si>
   <x:si>
     <x:t>MN0270200</x:t>

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
@@ -1835,6 +1835,9 @@
   </x:si>
   <x:si>
     <x:t>Faribault Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>120</x:t>
   </x:si>
   <x:si>
     <x:t>MN0660200</x:t>
@@ -18586,7 +18589,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G231" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="H231" s="0" t="s">
         <x:v>24</x:v>
@@ -18631,15 +18634,15 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="V231" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>607</x:v>
       </x:c>
     </x:row>
     <x:row r="232" spans="1:22">
       <x:c r="A232" s="0" t="s">
-        <x:v>607</x:v>
+        <x:v>608</x:v>
       </x:c>
       <x:c r="B232" s="0" t="s">
-        <x:v>608</x:v>
+        <x:v>609</x:v>
       </x:c>
       <x:c r="C232" s="0" t="s">
         <x:v>40</x:v>
@@ -18704,10 +18707,10 @@
     </x:row>
     <x:row r="233" spans="1:22">
       <x:c r="A233" s="0" t="s">
-        <x:v>609</x:v>
+        <x:v>610</x:v>
       </x:c>
       <x:c r="B233" s="0" t="s">
-        <x:v>610</x:v>
+        <x:v>611</x:v>
       </x:c>
       <x:c r="C233" s="0" t="s">
         <x:v>24</x:v>
@@ -18772,10 +18775,10 @@
     </x:row>
     <x:row r="234" spans="1:22">
       <x:c r="A234" s="0" t="s">
-        <x:v>611</x:v>
+        <x:v>612</x:v>
       </x:c>
       <x:c r="B234" s="0" t="s">
-        <x:v>612</x:v>
+        <x:v>613</x:v>
       </x:c>
       <x:c r="C234" s="0" t="s">
         <x:v>24</x:v>
@@ -18840,10 +18843,10 @@
     </x:row>
     <x:row r="235" spans="1:22">
       <x:c r="A235" s="0" t="s">
-        <x:v>613</x:v>
+        <x:v>614</x:v>
       </x:c>
       <x:c r="B235" s="0" t="s">
-        <x:v>614</x:v>
+        <x:v>615</x:v>
       </x:c>
       <x:c r="C235" s="0" t="s">
         <x:v>24</x:v>
@@ -18908,10 +18911,10 @@
     </x:row>
     <x:row r="236" spans="1:22">
       <x:c r="A236" s="0" t="s">
-        <x:v>615</x:v>
+        <x:v>616</x:v>
       </x:c>
       <x:c r="B236" s="0" t="s">
-        <x:v>616</x:v>
+        <x:v>617</x:v>
       </x:c>
       <x:c r="C236" s="0" t="s">
         <x:v>24</x:v>
@@ -18976,10 +18979,10 @@
     </x:row>
     <x:row r="237" spans="1:22">
       <x:c r="A237" s="0" t="s">
-        <x:v>617</x:v>
+        <x:v>618</x:v>
       </x:c>
       <x:c r="B237" s="0" t="s">
-        <x:v>618</x:v>
+        <x:v>619</x:v>
       </x:c>
       <x:c r="C237" s="0" t="s">
         <x:v>24</x:v>
@@ -19044,10 +19047,10 @@
     </x:row>
     <x:row r="238" spans="1:22">
       <x:c r="A238" s="0" t="s">
-        <x:v>619</x:v>
+        <x:v>620</x:v>
       </x:c>
       <x:c r="B238" s="0" t="s">
-        <x:v>620</x:v>
+        <x:v>621</x:v>
       </x:c>
       <x:c r="C238" s="0" t="s">
         <x:v>24</x:v>
@@ -19112,10 +19115,10 @@
     </x:row>
     <x:row r="239" spans="1:22">
       <x:c r="A239" s="0" t="s">
-        <x:v>621</x:v>
+        <x:v>622</x:v>
       </x:c>
       <x:c r="B239" s="0" t="s">
-        <x:v>622</x:v>
+        <x:v>623</x:v>
       </x:c>
       <x:c r="C239" s="0" t="s">
         <x:v>24</x:v>
@@ -19180,10 +19183,10 @@
     </x:row>
     <x:row r="240" spans="1:22">
       <x:c r="A240" s="0" t="s">
-        <x:v>623</x:v>
+        <x:v>624</x:v>
       </x:c>
       <x:c r="B240" s="0" t="s">
-        <x:v>624</x:v>
+        <x:v>625</x:v>
       </x:c>
       <x:c r="C240" s="0" t="s">
         <x:v>24</x:v>
@@ -19248,10 +19251,10 @@
     </x:row>
     <x:row r="241" spans="1:22">
       <x:c r="A241" s="0" t="s">
-        <x:v>625</x:v>
+        <x:v>626</x:v>
       </x:c>
       <x:c r="B241" s="0" t="s">
-        <x:v>626</x:v>
+        <x:v>627</x:v>
       </x:c>
       <x:c r="C241" s="0" t="s">
         <x:v>24</x:v>
@@ -19311,15 +19314,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V241" s="0" t="s">
-        <x:v>627</x:v>
+        <x:v>628</x:v>
       </x:c>
     </x:row>
     <x:row r="242" spans="1:22">
       <x:c r="A242" s="0" t="s">
-        <x:v>628</x:v>
+        <x:v>629</x:v>
       </x:c>
       <x:c r="B242" s="0" t="s">
-        <x:v>629</x:v>
+        <x:v>630</x:v>
       </x:c>
       <x:c r="C242" s="0" t="s">
         <x:v>24</x:v>
@@ -19384,10 +19387,10 @@
     </x:row>
     <x:row r="243" spans="1:22">
       <x:c r="A243" s="0" t="s">
-        <x:v>630</x:v>
+        <x:v>631</x:v>
       </x:c>
       <x:c r="B243" s="0" t="s">
-        <x:v>631</x:v>
+        <x:v>632</x:v>
       </x:c>
       <x:c r="C243" s="0" t="s">
         <x:v>24</x:v>
@@ -19452,10 +19455,10 @@
     </x:row>
     <x:row r="244" spans="1:22">
       <x:c r="A244" s="0" t="s">
-        <x:v>632</x:v>
+        <x:v>633</x:v>
       </x:c>
       <x:c r="B244" s="0" t="s">
-        <x:v>633</x:v>
+        <x:v>634</x:v>
       </x:c>
       <x:c r="C244" s="0" t="s">
         <x:v>24</x:v>
@@ -19520,10 +19523,10 @@
     </x:row>
     <x:row r="245" spans="1:22">
       <x:c r="A245" s="0" t="s">
-        <x:v>634</x:v>
+        <x:v>635</x:v>
       </x:c>
       <x:c r="B245" s="0" t="s">
-        <x:v>635</x:v>
+        <x:v>636</x:v>
       </x:c>
       <x:c r="C245" s="0" t="s">
         <x:v>24</x:v>
@@ -19588,10 +19591,10 @@
     </x:row>
     <x:row r="246" spans="1:22">
       <x:c r="A246" s="0" t="s">
-        <x:v>636</x:v>
+        <x:v>637</x:v>
       </x:c>
       <x:c r="B246" s="0" t="s">
-        <x:v>637</x:v>
+        <x:v>638</x:v>
       </x:c>
       <x:c r="C246" s="0" t="s">
         <x:v>24</x:v>
@@ -19656,10 +19659,10 @@
     </x:row>
     <x:row r="247" spans="1:22">
       <x:c r="A247" s="0" t="s">
-        <x:v>638</x:v>
+        <x:v>639</x:v>
       </x:c>
       <x:c r="B247" s="0" t="s">
-        <x:v>639</x:v>
+        <x:v>640</x:v>
       </x:c>
       <x:c r="C247" s="0" t="s">
         <x:v>24</x:v>
@@ -19724,10 +19727,10 @@
     </x:row>
     <x:row r="248" spans="1:22">
       <x:c r="A248" s="0" t="s">
-        <x:v>640</x:v>
+        <x:v>641</x:v>
       </x:c>
       <x:c r="B248" s="0" t="s">
-        <x:v>641</x:v>
+        <x:v>642</x:v>
       </x:c>
       <x:c r="C248" s="0" t="s">
         <x:v>24</x:v>
@@ -19792,10 +19795,10 @@
     </x:row>
     <x:row r="249" spans="1:22">
       <x:c r="A249" s="0" t="s">
-        <x:v>642</x:v>
+        <x:v>643</x:v>
       </x:c>
       <x:c r="B249" s="0" t="s">
-        <x:v>643</x:v>
+        <x:v>644</x:v>
       </x:c>
       <x:c r="C249" s="0" t="s">
         <x:v>24</x:v>
@@ -19860,10 +19863,10 @@
     </x:row>
     <x:row r="250" spans="1:22">
       <x:c r="A250" s="0" t="s">
-        <x:v>644</x:v>
+        <x:v>645</x:v>
       </x:c>
       <x:c r="B250" s="0" t="s">
-        <x:v>645</x:v>
+        <x:v>646</x:v>
       </x:c>
       <x:c r="C250" s="0" t="s">
         <x:v>25</x:v>
@@ -19928,10 +19931,10 @@
     </x:row>
     <x:row r="251" spans="1:22">
       <x:c r="A251" s="0" t="s">
-        <x:v>646</x:v>
+        <x:v>647</x:v>
       </x:c>
       <x:c r="B251" s="0" t="s">
-        <x:v>647</x:v>
+        <x:v>648</x:v>
       </x:c>
       <x:c r="C251" s="0" t="s">
         <x:v>24</x:v>
@@ -19996,10 +19999,10 @@
     </x:row>
     <x:row r="252" spans="1:22">
       <x:c r="A252" s="0" t="s">
-        <x:v>648</x:v>
+        <x:v>649</x:v>
       </x:c>
       <x:c r="B252" s="0" t="s">
-        <x:v>649</x:v>
+        <x:v>650</x:v>
       </x:c>
       <x:c r="C252" s="0" t="s">
         <x:v>24</x:v>
@@ -20064,10 +20067,10 @@
     </x:row>
     <x:row r="253" spans="1:22">
       <x:c r="A253" s="0" t="s">
-        <x:v>650</x:v>
+        <x:v>651</x:v>
       </x:c>
       <x:c r="B253" s="0" t="s">
-        <x:v>651</x:v>
+        <x:v>652</x:v>
       </x:c>
       <x:c r="C253" s="0" t="s">
         <x:v>24</x:v>
@@ -20132,10 +20135,10 @@
     </x:row>
     <x:row r="254" spans="1:22">
       <x:c r="A254" s="0" t="s">
-        <x:v>652</x:v>
+        <x:v>653</x:v>
       </x:c>
       <x:c r="B254" s="0" t="s">
-        <x:v>653</x:v>
+        <x:v>654</x:v>
       </x:c>
       <x:c r="C254" s="0" t="s">
         <x:v>49</x:v>
@@ -20171,7 +20174,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N254" s="0" t="s">
-        <x:v>654</x:v>
+        <x:v>655</x:v>
       </x:c>
       <x:c r="O254" s="0" t="s">
         <x:v>55</x:v>
@@ -20195,15 +20198,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V254" s="0" t="s">
-        <x:v>655</x:v>
+        <x:v>656</x:v>
       </x:c>
     </x:row>
     <x:row r="255" spans="1:22">
       <x:c r="A255" s="0" t="s">
-        <x:v>656</x:v>
+        <x:v>657</x:v>
       </x:c>
       <x:c r="B255" s="0" t="s">
-        <x:v>657</x:v>
+        <x:v>658</x:v>
       </x:c>
       <x:c r="C255" s="0" t="s">
         <x:v>24</x:v>
@@ -20268,10 +20271,10 @@
     </x:row>
     <x:row r="256" spans="1:22">
       <x:c r="A256" s="0" t="s">
-        <x:v>658</x:v>
+        <x:v>659</x:v>
       </x:c>
       <x:c r="B256" s="0" t="s">
-        <x:v>659</x:v>
+        <x:v>660</x:v>
       </x:c>
       <x:c r="C256" s="0" t="s">
         <x:v>25</x:v>
@@ -20331,15 +20334,15 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="V256" s="0" t="s">
-        <x:v>660</x:v>
+        <x:v>661</x:v>
       </x:c>
     </x:row>
     <x:row r="257" spans="1:22">
       <x:c r="A257" s="0" t="s">
-        <x:v>661</x:v>
+        <x:v>662</x:v>
       </x:c>
       <x:c r="B257" s="0" t="s">
-        <x:v>662</x:v>
+        <x:v>663</x:v>
       </x:c>
       <x:c r="C257" s="0" t="s">
         <x:v>24</x:v>
@@ -20404,10 +20407,10 @@
     </x:row>
     <x:row r="258" spans="1:22">
       <x:c r="A258" s="0" t="s">
-        <x:v>663</x:v>
+        <x:v>664</x:v>
       </x:c>
       <x:c r="B258" s="0" t="s">
-        <x:v>664</x:v>
+        <x:v>665</x:v>
       </x:c>
       <x:c r="C258" s="0" t="s">
         <x:v>24</x:v>
@@ -20422,7 +20425,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="G258" s="0" t="s">
-        <x:v>665</x:v>
+        <x:v>666</x:v>
       </x:c>
       <x:c r="H258" s="0" t="s">
         <x:v>24</x:v>
@@ -20467,15 +20470,15 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="V258" s="0" t="s">
-        <x:v>666</x:v>
+        <x:v>667</x:v>
       </x:c>
     </x:row>
     <x:row r="259" spans="1:22">
       <x:c r="A259" s="0" t="s">
-        <x:v>667</x:v>
+        <x:v>668</x:v>
       </x:c>
       <x:c r="B259" s="0" t="s">
-        <x:v>668</x:v>
+        <x:v>669</x:v>
       </x:c>
       <x:c r="C259" s="0" t="s">
         <x:v>24</x:v>
@@ -20535,15 +20538,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V259" s="0" t="s">
-        <x:v>665</x:v>
+        <x:v>666</x:v>
       </x:c>
     </x:row>
     <x:row r="260" spans="1:22">
       <x:c r="A260" s="0" t="s">
-        <x:v>669</x:v>
+        <x:v>670</x:v>
       </x:c>
       <x:c r="B260" s="0" t="s">
-        <x:v>670</x:v>
+        <x:v>671</x:v>
       </x:c>
       <x:c r="C260" s="0" t="s">
         <x:v>24</x:v>
@@ -20558,7 +20561,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="G260" s="0" t="s">
-        <x:v>671</x:v>
+        <x:v>672</x:v>
       </x:c>
       <x:c r="H260" s="0" t="s">
         <x:v>25</x:v>
@@ -20608,10 +20611,10 @@
     </x:row>
     <x:row r="261" spans="1:22">
       <x:c r="A261" s="0" t="s">
-        <x:v>672</x:v>
+        <x:v>673</x:v>
       </x:c>
       <x:c r="B261" s="0" t="s">
-        <x:v>673</x:v>
+        <x:v>674</x:v>
       </x:c>
       <x:c r="C261" s="0" t="s">
         <x:v>24</x:v>
@@ -20676,10 +20679,10 @@
     </x:row>
     <x:row r="262" spans="1:22">
       <x:c r="A262" s="0" t="s">
-        <x:v>674</x:v>
+        <x:v>675</x:v>
       </x:c>
       <x:c r="B262" s="0" t="s">
-        <x:v>675</x:v>
+        <x:v>676</x:v>
       </x:c>
       <x:c r="C262" s="0" t="s">
         <x:v>24</x:v>
@@ -20744,10 +20747,10 @@
     </x:row>
     <x:row r="263" spans="1:22">
       <x:c r="A263" s="0" t="s">
-        <x:v>676</x:v>
+        <x:v>677</x:v>
       </x:c>
       <x:c r="B263" s="0" t="s">
-        <x:v>677</x:v>
+        <x:v>678</x:v>
       </x:c>
       <x:c r="C263" s="0" t="s">
         <x:v>24</x:v>
@@ -20812,10 +20815,10 @@
     </x:row>
     <x:row r="264" spans="1:22">
       <x:c r="A264" s="0" t="s">
-        <x:v>678</x:v>
+        <x:v>679</x:v>
       </x:c>
       <x:c r="B264" s="0" t="s">
-        <x:v>679</x:v>
+        <x:v>680</x:v>
       </x:c>
       <x:c r="C264" s="0" t="s">
         <x:v>24</x:v>
@@ -20880,10 +20883,10 @@
     </x:row>
     <x:row r="265" spans="1:22">
       <x:c r="A265" s="0" t="s">
-        <x:v>680</x:v>
+        <x:v>681</x:v>
       </x:c>
       <x:c r="B265" s="0" t="s">
-        <x:v>681</x:v>
+        <x:v>682</x:v>
       </x:c>
       <x:c r="C265" s="0" t="s">
         <x:v>24</x:v>
@@ -20948,10 +20951,10 @@
     </x:row>
     <x:row r="266" spans="1:22">
       <x:c r="A266" s="0" t="s">
-        <x:v>682</x:v>
+        <x:v>683</x:v>
       </x:c>
       <x:c r="B266" s="0" t="s">
-        <x:v>683</x:v>
+        <x:v>684</x:v>
       </x:c>
       <x:c r="C266" s="0" t="s">
         <x:v>24</x:v>
@@ -20966,7 +20969,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="G266" s="0" t="s">
-        <x:v>684</x:v>
+        <x:v>685</x:v>
       </x:c>
       <x:c r="H266" s="0" t="s">
         <x:v>24</x:v>
@@ -21011,15 +21014,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V266" s="0" t="s">
-        <x:v>685</x:v>
+        <x:v>686</x:v>
       </x:c>
     </x:row>
     <x:row r="267" spans="1:22">
       <x:c r="A267" s="0" t="s">
-        <x:v>686</x:v>
+        <x:v>687</x:v>
       </x:c>
       <x:c r="B267" s="0" t="s">
-        <x:v>687</x:v>
+        <x:v>688</x:v>
       </x:c>
       <x:c r="C267" s="0" t="s">
         <x:v>24</x:v>
@@ -21084,10 +21087,10 @@
     </x:row>
     <x:row r="268" spans="1:22">
       <x:c r="A268" s="0" t="s">
-        <x:v>688</x:v>
+        <x:v>689</x:v>
       </x:c>
       <x:c r="B268" s="0" t="s">
-        <x:v>689</x:v>
+        <x:v>690</x:v>
       </x:c>
       <x:c r="C268" s="0" t="s">
         <x:v>24</x:v>
@@ -21152,10 +21155,10 @@
     </x:row>
     <x:row r="269" spans="1:22">
       <x:c r="A269" s="0" t="s">
-        <x:v>690</x:v>
+        <x:v>691</x:v>
       </x:c>
       <x:c r="B269" s="0" t="s">
-        <x:v>691</x:v>
+        <x:v>692</x:v>
       </x:c>
       <x:c r="C269" s="0" t="s">
         <x:v>24</x:v>
@@ -21220,10 +21223,10 @@
     </x:row>
     <x:row r="270" spans="1:22">
       <x:c r="A270" s="0" t="s">
-        <x:v>692</x:v>
+        <x:v>693</x:v>
       </x:c>
       <x:c r="B270" s="0" t="s">
-        <x:v>693</x:v>
+        <x:v>694</x:v>
       </x:c>
       <x:c r="C270" s="0" t="s">
         <x:v>49</x:v>
@@ -21238,7 +21241,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="G270" s="0" t="s">
-        <x:v>694</x:v>
+        <x:v>695</x:v>
       </x:c>
       <x:c r="H270" s="0" t="s">
         <x:v>24</x:v>
@@ -21283,15 +21286,15 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="V270" s="0" t="s">
-        <x:v>695</x:v>
+        <x:v>696</x:v>
       </x:c>
     </x:row>
     <x:row r="271" spans="1:22">
       <x:c r="A271" s="0" t="s">
-        <x:v>696</x:v>
+        <x:v>697</x:v>
       </x:c>
       <x:c r="B271" s="0" t="s">
-        <x:v>697</x:v>
+        <x:v>698</x:v>
       </x:c>
       <x:c r="C271" s="0" t="s">
         <x:v>24</x:v>
@@ -21356,10 +21359,10 @@
     </x:row>
     <x:row r="272" spans="1:22">
       <x:c r="A272" s="0" t="s">
-        <x:v>698</x:v>
+        <x:v>699</x:v>
       </x:c>
       <x:c r="B272" s="0" t="s">
-        <x:v>699</x:v>
+        <x:v>700</x:v>
       </x:c>
       <x:c r="C272" s="0" t="s">
         <x:v>24</x:v>
@@ -21424,10 +21427,10 @@
     </x:row>
     <x:row r="273" spans="1:22">
       <x:c r="A273" s="0" t="s">
-        <x:v>700</x:v>
+        <x:v>701</x:v>
       </x:c>
       <x:c r="B273" s="0" t="s">
-        <x:v>701</x:v>
+        <x:v>702</x:v>
       </x:c>
       <x:c r="C273" s="0" t="s">
         <x:v>24</x:v>
@@ -21492,10 +21495,10 @@
     </x:row>
     <x:row r="274" spans="1:22">
       <x:c r="A274" s="0" t="s">
-        <x:v>702</x:v>
+        <x:v>703</x:v>
       </x:c>
       <x:c r="B274" s="0" t="s">
-        <x:v>703</x:v>
+        <x:v>704</x:v>
       </x:c>
       <x:c r="C274" s="0" t="s">
         <x:v>24</x:v>
@@ -21560,10 +21563,10 @@
     </x:row>
     <x:row r="275" spans="1:22">
       <x:c r="A275" s="0" t="s">
-        <x:v>704</x:v>
+        <x:v>705</x:v>
       </x:c>
       <x:c r="B275" s="0" t="s">
-        <x:v>705</x:v>
+        <x:v>706</x:v>
       </x:c>
       <x:c r="C275" s="0" t="s">
         <x:v>24</x:v>
@@ -21628,10 +21631,10 @@
     </x:row>
     <x:row r="276" spans="1:22">
       <x:c r="A276" s="0" t="s">
-        <x:v>706</x:v>
+        <x:v>707</x:v>
       </x:c>
       <x:c r="B276" s="0" t="s">
-        <x:v>707</x:v>
+        <x:v>708</x:v>
       </x:c>
       <x:c r="C276" s="0" t="s">
         <x:v>24</x:v>
@@ -21696,10 +21699,10 @@
     </x:row>
     <x:row r="277" spans="1:22">
       <x:c r="A277" s="0" t="s">
-        <x:v>708</x:v>
+        <x:v>709</x:v>
       </x:c>
       <x:c r="B277" s="0" t="s">
-        <x:v>709</x:v>
+        <x:v>710</x:v>
       </x:c>
       <x:c r="C277" s="0" t="s">
         <x:v>25</x:v>
@@ -21764,10 +21767,10 @@
     </x:row>
     <x:row r="278" spans="1:22">
       <x:c r="A278" s="0" t="s">
-        <x:v>710</x:v>
+        <x:v>711</x:v>
       </x:c>
       <x:c r="B278" s="0" t="s">
-        <x:v>711</x:v>
+        <x:v>712</x:v>
       </x:c>
       <x:c r="C278" s="0" t="s">
         <x:v>24</x:v>
@@ -21832,10 +21835,10 @@
     </x:row>
     <x:row r="279" spans="1:22">
       <x:c r="A279" s="0" t="s">
-        <x:v>712</x:v>
+        <x:v>713</x:v>
       </x:c>
       <x:c r="B279" s="0" t="s">
-        <x:v>713</x:v>
+        <x:v>714</x:v>
       </x:c>
       <x:c r="C279" s="0" t="s">
         <x:v>24</x:v>
@@ -21900,10 +21903,10 @@
     </x:row>
     <x:row r="280" spans="1:22">
       <x:c r="A280" s="0" t="s">
-        <x:v>714</x:v>
+        <x:v>715</x:v>
       </x:c>
       <x:c r="B280" s="0" t="s">
-        <x:v>715</x:v>
+        <x:v>716</x:v>
       </x:c>
       <x:c r="C280" s="0" t="s">
         <x:v>24</x:v>
@@ -21968,10 +21971,10 @@
     </x:row>
     <x:row r="281" spans="1:22">
       <x:c r="A281" s="0" t="s">
-        <x:v>716</x:v>
+        <x:v>717</x:v>
       </x:c>
       <x:c r="B281" s="0" t="s">
-        <x:v>717</x:v>
+        <x:v>718</x:v>
       </x:c>
       <x:c r="C281" s="0" t="s">
         <x:v>24</x:v>
@@ -22036,10 +22039,10 @@
     </x:row>
     <x:row r="282" spans="1:22">
       <x:c r="A282" s="0" t="s">
-        <x:v>718</x:v>
+        <x:v>719</x:v>
       </x:c>
       <x:c r="B282" s="0" t="s">
-        <x:v>719</x:v>
+        <x:v>720</x:v>
       </x:c>
       <x:c r="C282" s="0" t="s">
         <x:v>24</x:v>
@@ -22104,10 +22107,10 @@
     </x:row>
     <x:row r="283" spans="1:22">
       <x:c r="A283" s="0" t="s">
-        <x:v>720</x:v>
+        <x:v>721</x:v>
       </x:c>
       <x:c r="B283" s="0" t="s">
-        <x:v>721</x:v>
+        <x:v>722</x:v>
       </x:c>
       <x:c r="C283" s="0" t="s">
         <x:v>24</x:v>
@@ -22172,10 +22175,10 @@
     </x:row>
     <x:row r="284" spans="1:22">
       <x:c r="A284" s="0" t="s">
-        <x:v>722</x:v>
+        <x:v>723</x:v>
       </x:c>
       <x:c r="B284" s="0" t="s">
-        <x:v>723</x:v>
+        <x:v>724</x:v>
       </x:c>
       <x:c r="C284" s="0" t="s">
         <x:v>24</x:v>
@@ -22240,10 +22243,10 @@
     </x:row>
     <x:row r="285" spans="1:22">
       <x:c r="A285" s="0" t="s">
-        <x:v>724</x:v>
+        <x:v>725</x:v>
       </x:c>
       <x:c r="B285" s="0" t="s">
-        <x:v>725</x:v>
+        <x:v>726</x:v>
       </x:c>
       <x:c r="C285" s="0" t="s">
         <x:v>33</x:v>
@@ -22303,15 +22306,15 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="V285" s="0" t="s">
-        <x:v>726</x:v>
+        <x:v>727</x:v>
       </x:c>
     </x:row>
     <x:row r="286" spans="1:22">
       <x:c r="A286" s="0" t="s">
-        <x:v>727</x:v>
+        <x:v>728</x:v>
       </x:c>
       <x:c r="B286" s="0" t="s">
-        <x:v>728</x:v>
+        <x:v>729</x:v>
       </x:c>
       <x:c r="C286" s="0" t="s">
         <x:v>24</x:v>
@@ -22376,10 +22379,10 @@
     </x:row>
     <x:row r="287" spans="1:22">
       <x:c r="A287" s="0" t="s">
-        <x:v>729</x:v>
+        <x:v>730</x:v>
       </x:c>
       <x:c r="B287" s="0" t="s">
-        <x:v>730</x:v>
+        <x:v>731</x:v>
       </x:c>
       <x:c r="C287" s="0" t="s">
         <x:v>24</x:v>
@@ -22444,10 +22447,10 @@
     </x:row>
     <x:row r="288" spans="1:22">
       <x:c r="A288" s="0" t="s">
-        <x:v>731</x:v>
+        <x:v>732</x:v>
       </x:c>
       <x:c r="B288" s="0" t="s">
-        <x:v>732</x:v>
+        <x:v>733</x:v>
       </x:c>
       <x:c r="C288" s="0" t="s">
         <x:v>24</x:v>
@@ -22512,10 +22515,10 @@
     </x:row>
     <x:row r="289" spans="1:22">
       <x:c r="A289" s="0" t="s">
-        <x:v>733</x:v>
+        <x:v>734</x:v>
       </x:c>
       <x:c r="B289" s="0" t="s">
-        <x:v>734</x:v>
+        <x:v>735</x:v>
       </x:c>
       <x:c r="C289" s="0" t="s">
         <x:v>24</x:v>
@@ -22580,10 +22583,10 @@
     </x:row>
     <x:row r="290" spans="1:22">
       <x:c r="A290" s="0" t="s">
-        <x:v>735</x:v>
+        <x:v>736</x:v>
       </x:c>
       <x:c r="B290" s="0" t="s">
-        <x:v>736</x:v>
+        <x:v>737</x:v>
       </x:c>
       <x:c r="C290" s="0" t="s">
         <x:v>24</x:v>
@@ -22648,10 +22651,10 @@
     </x:row>
     <x:row r="291" spans="1:22">
       <x:c r="A291" s="0" t="s">
-        <x:v>737</x:v>
+        <x:v>738</x:v>
       </x:c>
       <x:c r="B291" s="0" t="s">
-        <x:v>738</x:v>
+        <x:v>739</x:v>
       </x:c>
       <x:c r="C291" s="0" t="s">
         <x:v>24</x:v>
@@ -22716,10 +22719,10 @@
     </x:row>
     <x:row r="292" spans="1:22">
       <x:c r="A292" s="0" t="s">
-        <x:v>739</x:v>
+        <x:v>740</x:v>
       </x:c>
       <x:c r="B292" s="0" t="s">
-        <x:v>740</x:v>
+        <x:v>741</x:v>
       </x:c>
       <x:c r="C292" s="0" t="s">
         <x:v>24</x:v>
@@ -22784,10 +22787,10 @@
     </x:row>
     <x:row r="293" spans="1:22">
       <x:c r="A293" s="0" t="s">
-        <x:v>741</x:v>
+        <x:v>742</x:v>
       </x:c>
       <x:c r="B293" s="0" t="s">
-        <x:v>742</x:v>
+        <x:v>743</x:v>
       </x:c>
       <x:c r="C293" s="0" t="s">
         <x:v>24</x:v>
@@ -22852,10 +22855,10 @@
     </x:row>
     <x:row r="294" spans="1:22">
       <x:c r="A294" s="0" t="s">
-        <x:v>743</x:v>
+        <x:v>744</x:v>
       </x:c>
       <x:c r="B294" s="0" t="s">
-        <x:v>744</x:v>
+        <x:v>745</x:v>
       </x:c>
       <x:c r="C294" s="0" t="s">
         <x:v>24</x:v>
@@ -22920,10 +22923,10 @@
     </x:row>
     <x:row r="295" spans="1:22">
       <x:c r="A295" s="0" t="s">
-        <x:v>745</x:v>
+        <x:v>746</x:v>
       </x:c>
       <x:c r="B295" s="0" t="s">
-        <x:v>746</x:v>
+        <x:v>747</x:v>
       </x:c>
       <x:c r="C295" s="0" t="s">
         <x:v>24</x:v>
@@ -22988,10 +22991,10 @@
     </x:row>
     <x:row r="296" spans="1:22">
       <x:c r="A296" s="0" t="s">
-        <x:v>747</x:v>
+        <x:v>748</x:v>
       </x:c>
       <x:c r="B296" s="0" t="s">
-        <x:v>748</x:v>
+        <x:v>749</x:v>
       </x:c>
       <x:c r="C296" s="0" t="s">
         <x:v>24</x:v>
@@ -23056,10 +23059,10 @@
     </x:row>
     <x:row r="297" spans="1:22">
       <x:c r="A297" s="0" t="s">
-        <x:v>749</x:v>
+        <x:v>750</x:v>
       </x:c>
       <x:c r="B297" s="0" t="s">
-        <x:v>750</x:v>
+        <x:v>751</x:v>
       </x:c>
       <x:c r="C297" s="0" t="s">
         <x:v>25</x:v>
@@ -23124,10 +23127,10 @@
     </x:row>
     <x:row r="298" spans="1:22">
       <x:c r="A298" s="0" t="s">
-        <x:v>751</x:v>
+        <x:v>752</x:v>
       </x:c>
       <x:c r="B298" s="0" t="s">
-        <x:v>752</x:v>
+        <x:v>753</x:v>
       </x:c>
       <x:c r="C298" s="0" t="s">
         <x:v>24</x:v>
@@ -23192,10 +23195,10 @@
     </x:row>
     <x:row r="299" spans="1:22">
       <x:c r="A299" s="0" t="s">
-        <x:v>753</x:v>
+        <x:v>754</x:v>
       </x:c>
       <x:c r="B299" s="0" t="s">
-        <x:v>754</x:v>
+        <x:v>755</x:v>
       </x:c>
       <x:c r="C299" s="0" t="s">
         <x:v>24</x:v>
@@ -23260,10 +23263,10 @@
     </x:row>
     <x:row r="300" spans="1:22">
       <x:c r="A300" s="0" t="s">
-        <x:v>755</x:v>
+        <x:v>756</x:v>
       </x:c>
       <x:c r="B300" s="0" t="s">
-        <x:v>756</x:v>
+        <x:v>757</x:v>
       </x:c>
       <x:c r="C300" s="0" t="s">
         <x:v>24</x:v>
@@ -23328,10 +23331,10 @@
     </x:row>
     <x:row r="301" spans="1:22">
       <x:c r="A301" s="0" t="s">
-        <x:v>757</x:v>
+        <x:v>758</x:v>
       </x:c>
       <x:c r="B301" s="0" t="s">
-        <x:v>758</x:v>
+        <x:v>759</x:v>
       </x:c>
       <x:c r="C301" s="0" t="s">
         <x:v>24</x:v>
@@ -23396,10 +23399,10 @@
     </x:row>
     <x:row r="302" spans="1:22">
       <x:c r="A302" s="0" t="s">
-        <x:v>759</x:v>
+        <x:v>760</x:v>
       </x:c>
       <x:c r="B302" s="0" t="s">
-        <x:v>760</x:v>
+        <x:v>761</x:v>
       </x:c>
       <x:c r="C302" s="0" t="s">
         <x:v>33</x:v>
@@ -23414,7 +23417,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="G302" s="0" t="s">
-        <x:v>761</x:v>
+        <x:v>762</x:v>
       </x:c>
       <x:c r="H302" s="0" t="s">
         <x:v>24</x:v>
@@ -23441,7 +23444,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="P302" s="0" t="s">
-        <x:v>627</x:v>
+        <x:v>628</x:v>
       </x:c>
       <x:c r="Q302" s="0" t="s">
         <x:v>24</x:v>
@@ -23459,15 +23462,15 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="V302" s="0" t="s">
-        <x:v>762</x:v>
+        <x:v>763</x:v>
       </x:c>
     </x:row>
     <x:row r="303" spans="1:22">
       <x:c r="A303" s="0" t="s">
-        <x:v>763</x:v>
+        <x:v>764</x:v>
       </x:c>
       <x:c r="B303" s="0" t="s">
-        <x:v>764</x:v>
+        <x:v>765</x:v>
       </x:c>
       <x:c r="C303" s="0" t="s">
         <x:v>24</x:v>
@@ -23532,10 +23535,10 @@
     </x:row>
     <x:row r="304" spans="1:22">
       <x:c r="A304" s="0" t="s">
-        <x:v>765</x:v>
+        <x:v>766</x:v>
       </x:c>
       <x:c r="B304" s="0" t="s">
-        <x:v>766</x:v>
+        <x:v>767</x:v>
       </x:c>
       <x:c r="C304" s="0" t="s">
         <x:v>24</x:v>
@@ -23600,10 +23603,10 @@
     </x:row>
     <x:row r="305" spans="1:22">
       <x:c r="A305" s="0" t="s">
-        <x:v>767</x:v>
+        <x:v>768</x:v>
       </x:c>
       <x:c r="B305" s="0" t="s">
-        <x:v>768</x:v>
+        <x:v>769</x:v>
       </x:c>
       <x:c r="C305" s="0" t="s">
         <x:v>24</x:v>
@@ -23668,10 +23671,10 @@
     </x:row>
     <x:row r="306" spans="1:22">
       <x:c r="A306" s="0" t="s">
-        <x:v>769</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="B306" s="0" t="s">
-        <x:v>770</x:v>
+        <x:v>771</x:v>
       </x:c>
       <x:c r="C306" s="0" t="s">
         <x:v>24</x:v>
@@ -23736,10 +23739,10 @@
     </x:row>
     <x:row r="307" spans="1:22">
       <x:c r="A307" s="0" t="s">
-        <x:v>771</x:v>
+        <x:v>772</x:v>
       </x:c>
       <x:c r="B307" s="0" t="s">
-        <x:v>772</x:v>
+        <x:v>773</x:v>
       </x:c>
       <x:c r="C307" s="0" t="s">
         <x:v>25</x:v>
@@ -23799,15 +23802,15 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="V307" s="0" t="s">
-        <x:v>773</x:v>
+        <x:v>774</x:v>
       </x:c>
     </x:row>
     <x:row r="308" spans="1:22">
       <x:c r="A308" s="0" t="s">
-        <x:v>774</x:v>
+        <x:v>775</x:v>
       </x:c>
       <x:c r="B308" s="0" t="s">
-        <x:v>775</x:v>
+        <x:v>776</x:v>
       </x:c>
       <x:c r="C308" s="0" t="s">
         <x:v>24</x:v>
@@ -23872,10 +23875,10 @@
     </x:row>
     <x:row r="309" spans="1:22">
       <x:c r="A309" s="0" t="s">
-        <x:v>776</x:v>
+        <x:v>777</x:v>
       </x:c>
       <x:c r="B309" s="0" t="s">
-        <x:v>777</x:v>
+        <x:v>778</x:v>
       </x:c>
       <x:c r="C309" s="0" t="s">
         <x:v>25</x:v>
@@ -23940,10 +23943,10 @@
     </x:row>
     <x:row r="310" spans="1:22">
       <x:c r="A310" s="0" t="s">
-        <x:v>778</x:v>
+        <x:v>779</x:v>
       </x:c>
       <x:c r="B310" s="0" t="s">
-        <x:v>779</x:v>
+        <x:v>780</x:v>
       </x:c>
       <x:c r="C310" s="0" t="s">
         <x:v>24</x:v>
@@ -24008,10 +24011,10 @@
     </x:row>
     <x:row r="311" spans="1:22">
       <x:c r="A311" s="0" t="s">
-        <x:v>780</x:v>
+        <x:v>781</x:v>
       </x:c>
       <x:c r="B311" s="0" t="s">
-        <x:v>781</x:v>
+        <x:v>782</x:v>
       </x:c>
       <x:c r="C311" s="0" t="s">
         <x:v>24</x:v>
@@ -24076,10 +24079,10 @@
     </x:row>
     <x:row r="312" spans="1:22">
       <x:c r="A312" s="0" t="s">
-        <x:v>782</x:v>
+        <x:v>783</x:v>
       </x:c>
       <x:c r="B312" s="0" t="s">
-        <x:v>783</x:v>
+        <x:v>784</x:v>
       </x:c>
       <x:c r="C312" s="0" t="s">
         <x:v>24</x:v>
@@ -24144,10 +24147,10 @@
     </x:row>
     <x:row r="313" spans="1:22">
       <x:c r="A313" s="0" t="s">
-        <x:v>784</x:v>
+        <x:v>785</x:v>
       </x:c>
       <x:c r="B313" s="0" t="s">
-        <x:v>785</x:v>
+        <x:v>786</x:v>
       </x:c>
       <x:c r="C313" s="0" t="s">
         <x:v>24</x:v>
@@ -24212,10 +24215,10 @@
     </x:row>
     <x:row r="314" spans="1:22">
       <x:c r="A314" s="0" t="s">
-        <x:v>786</x:v>
+        <x:v>787</x:v>
       </x:c>
       <x:c r="B314" s="0" t="s">
-        <x:v>787</x:v>
+        <x:v>788</x:v>
       </x:c>
       <x:c r="C314" s="0" t="s">
         <x:v>24</x:v>
@@ -24280,10 +24283,10 @@
     </x:row>
     <x:row r="315" spans="1:22">
       <x:c r="A315" s="0" t="s">
-        <x:v>788</x:v>
+        <x:v>789</x:v>
       </x:c>
       <x:c r="B315" s="0" t="s">
-        <x:v>789</x:v>
+        <x:v>790</x:v>
       </x:c>
       <x:c r="C315" s="0" t="s">
         <x:v>24</x:v>
@@ -24348,10 +24351,10 @@
     </x:row>
     <x:row r="316" spans="1:22">
       <x:c r="A316" s="0" t="s">
-        <x:v>790</x:v>
+        <x:v>791</x:v>
       </x:c>
       <x:c r="B316" s="0" t="s">
-        <x:v>791</x:v>
+        <x:v>792</x:v>
       </x:c>
       <x:c r="C316" s="0" t="s">
         <x:v>24</x:v>
@@ -24416,10 +24419,10 @@
     </x:row>
     <x:row r="317" spans="1:22">
       <x:c r="A317" s="0" t="s">
-        <x:v>792</x:v>
+        <x:v>793</x:v>
       </x:c>
       <x:c r="B317" s="0" t="s">
-        <x:v>793</x:v>
+        <x:v>794</x:v>
       </x:c>
       <x:c r="C317" s="0" t="s">
         <x:v>24</x:v>
@@ -24484,10 +24487,10 @@
     </x:row>
     <x:row r="318" spans="1:22">
       <x:c r="A318" s="0" t="s">
-        <x:v>794</x:v>
+        <x:v>795</x:v>
       </x:c>
       <x:c r="B318" s="0" t="s">
-        <x:v>795</x:v>
+        <x:v>796</x:v>
       </x:c>
       <x:c r="C318" s="0" t="s">
         <x:v>24</x:v>
@@ -24552,10 +24555,10 @@
     </x:row>
     <x:row r="319" spans="1:22">
       <x:c r="A319" s="0" t="s">
-        <x:v>796</x:v>
+        <x:v>797</x:v>
       </x:c>
       <x:c r="B319" s="0" t="s">
-        <x:v>797</x:v>
+        <x:v>798</x:v>
       </x:c>
       <x:c r="C319" s="0" t="s">
         <x:v>24</x:v>
@@ -24620,10 +24623,10 @@
     </x:row>
     <x:row r="320" spans="1:22">
       <x:c r="A320" s="0" t="s">
-        <x:v>798</x:v>
+        <x:v>799</x:v>
       </x:c>
       <x:c r="B320" s="0" t="s">
-        <x:v>799</x:v>
+        <x:v>800</x:v>
       </x:c>
       <x:c r="C320" s="0" t="s">
         <x:v>25</x:v>
@@ -24638,7 +24641,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="G320" s="0" t="s">
-        <x:v>800</x:v>
+        <x:v>801</x:v>
       </x:c>
       <x:c r="H320" s="0" t="s">
         <x:v>25</x:v>
@@ -24659,7 +24662,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="N320" s="0" t="s">
-        <x:v>801</x:v>
+        <x:v>802</x:v>
       </x:c>
       <x:c r="O320" s="0" t="s">
         <x:v>64</x:v>
@@ -24683,15 +24686,15 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="V320" s="0" t="s">
-        <x:v>802</x:v>
+        <x:v>803</x:v>
       </x:c>
     </x:row>
     <x:row r="321" spans="1:22">
       <x:c r="A321" s="0" t="s">
-        <x:v>803</x:v>
+        <x:v>804</x:v>
       </x:c>
       <x:c r="B321" s="0" t="s">
-        <x:v>804</x:v>
+        <x:v>805</x:v>
       </x:c>
       <x:c r="C321" s="0" t="s">
         <x:v>24</x:v>
@@ -24756,10 +24759,10 @@
     </x:row>
     <x:row r="322" spans="1:22">
       <x:c r="A322" s="0" t="s">
-        <x:v>805</x:v>
+        <x:v>806</x:v>
       </x:c>
       <x:c r="B322" s="0" t="s">
-        <x:v>806</x:v>
+        <x:v>807</x:v>
       </x:c>
       <x:c r="C322" s="0" t="s">
         <x:v>24</x:v>
@@ -24824,10 +24827,10 @@
     </x:row>
     <x:row r="323" spans="1:22">
       <x:c r="A323" s="0" t="s">
-        <x:v>807</x:v>
+        <x:v>808</x:v>
       </x:c>
       <x:c r="B323" s="0" t="s">
-        <x:v>808</x:v>
+        <x:v>809</x:v>
       </x:c>
       <x:c r="C323" s="0" t="s">
         <x:v>24</x:v>
@@ -24892,10 +24895,10 @@
     </x:row>
     <x:row r="324" spans="1:22">
       <x:c r="A324" s="0" t="s">
-        <x:v>809</x:v>
+        <x:v>810</x:v>
       </x:c>
       <x:c r="B324" s="0" t="s">
-        <x:v>810</x:v>
+        <x:v>811</x:v>
       </x:c>
       <x:c r="C324" s="0" t="s">
         <x:v>24</x:v>
@@ -24960,10 +24963,10 @@
     </x:row>
     <x:row r="325" spans="1:22">
       <x:c r="A325" s="0" t="s">
-        <x:v>811</x:v>
+        <x:v>812</x:v>
       </x:c>
       <x:c r="B325" s="0" t="s">
-        <x:v>812</x:v>
+        <x:v>813</x:v>
       </x:c>
       <x:c r="C325" s="0" t="s">
         <x:v>24</x:v>
@@ -25028,10 +25031,10 @@
     </x:row>
     <x:row r="326" spans="1:22">
       <x:c r="A326" s="0" t="s">
-        <x:v>813</x:v>
+        <x:v>814</x:v>
       </x:c>
       <x:c r="B326" s="0" t="s">
-        <x:v>814</x:v>
+        <x:v>815</x:v>
       </x:c>
       <x:c r="C326" s="0" t="s">
         <x:v>24</x:v>
@@ -25046,7 +25049,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G326" s="0" t="s">
-        <x:v>694</x:v>
+        <x:v>695</x:v>
       </x:c>
       <x:c r="H326" s="0" t="s">
         <x:v>24</x:v>
@@ -25096,10 +25099,10 @@
     </x:row>
     <x:row r="327" spans="1:22">
       <x:c r="A327" s="0" t="s">
-        <x:v>815</x:v>
+        <x:v>816</x:v>
       </x:c>
       <x:c r="B327" s="0" t="s">
-        <x:v>816</x:v>
+        <x:v>817</x:v>
       </x:c>
       <x:c r="C327" s="0" t="s">
         <x:v>49</x:v>
@@ -25159,15 +25162,15 @@
         <x:v>150</x:v>
       </x:c>
       <x:c r="V327" s="0" t="s">
-        <x:v>817</x:v>
+        <x:v>818</x:v>
       </x:c>
     </x:row>
     <x:row r="328" spans="1:22">
       <x:c r="A328" s="0" t="s">
-        <x:v>818</x:v>
+        <x:v>819</x:v>
       </x:c>
       <x:c r="B328" s="0" t="s">
-        <x:v>819</x:v>
+        <x:v>820</x:v>
       </x:c>
       <x:c r="C328" s="0" t="s">
         <x:v>25</x:v>
@@ -25232,10 +25235,10 @@
     </x:row>
     <x:row r="329" spans="1:22">
       <x:c r="A329" s="0" t="s">
-        <x:v>820</x:v>
+        <x:v>821</x:v>
       </x:c>
       <x:c r="B329" s="0" t="s">
-        <x:v>821</x:v>
+        <x:v>822</x:v>
       </x:c>
       <x:c r="C329" s="0" t="s">
         <x:v>24</x:v>
@@ -25300,10 +25303,10 @@
     </x:row>
     <x:row r="330" spans="1:22">
       <x:c r="A330" s="0" t="s">
-        <x:v>822</x:v>
+        <x:v>823</x:v>
       </x:c>
       <x:c r="B330" s="0" t="s">
-        <x:v>823</x:v>
+        <x:v>824</x:v>
       </x:c>
       <x:c r="C330" s="0" t="s">
         <x:v>24</x:v>
@@ -25368,10 +25371,10 @@
     </x:row>
     <x:row r="331" spans="1:22">
       <x:c r="A331" s="0" t="s">
-        <x:v>824</x:v>
+        <x:v>825</x:v>
       </x:c>
       <x:c r="B331" s="0" t="s">
-        <x:v>825</x:v>
+        <x:v>826</x:v>
       </x:c>
       <x:c r="C331" s="0" t="s">
         <x:v>24</x:v>
@@ -25436,10 +25439,10 @@
     </x:row>
     <x:row r="332" spans="1:22">
       <x:c r="A332" s="0" t="s">
-        <x:v>826</x:v>
+        <x:v>827</x:v>
       </x:c>
       <x:c r="B332" s="0" t="s">
-        <x:v>827</x:v>
+        <x:v>828</x:v>
       </x:c>
       <x:c r="C332" s="0" t="s">
         <x:v>24</x:v>
@@ -25504,10 +25507,10 @@
     </x:row>
     <x:row r="333" spans="1:22">
       <x:c r="A333" s="0" t="s">
-        <x:v>828</x:v>
+        <x:v>829</x:v>
       </x:c>
       <x:c r="B333" s="0" t="s">
-        <x:v>829</x:v>
+        <x:v>830</x:v>
       </x:c>
       <x:c r="C333" s="0" t="s">
         <x:v>24</x:v>
@@ -25572,10 +25575,10 @@
     </x:row>
     <x:row r="334" spans="1:22">
       <x:c r="A334" s="0" t="s">
-        <x:v>830</x:v>
+        <x:v>831</x:v>
       </x:c>
       <x:c r="B334" s="0" t="s">
-        <x:v>831</x:v>
+        <x:v>832</x:v>
       </x:c>
       <x:c r="C334" s="0" t="s">
         <x:v>24</x:v>
@@ -25640,10 +25643,10 @@
     </x:row>
     <x:row r="335" spans="1:22">
       <x:c r="A335" s="0" t="s">
-        <x:v>832</x:v>
+        <x:v>833</x:v>
       </x:c>
       <x:c r="B335" s="0" t="s">
-        <x:v>833</x:v>
+        <x:v>834</x:v>
       </x:c>
       <x:c r="C335" s="0" t="s">
         <x:v>24</x:v>
@@ -25708,10 +25711,10 @@
     </x:row>
     <x:row r="336" spans="1:22">
       <x:c r="A336" s="0" t="s">
-        <x:v>834</x:v>
+        <x:v>835</x:v>
       </x:c>
       <x:c r="B336" s="0" t="s">
-        <x:v>835</x:v>
+        <x:v>836</x:v>
       </x:c>
       <x:c r="C336" s="0" t="s">
         <x:v>24</x:v>
@@ -25776,10 +25779,10 @@
     </x:row>
     <x:row r="337" spans="1:22">
       <x:c r="A337" s="0" t="s">
-        <x:v>836</x:v>
+        <x:v>837</x:v>
       </x:c>
       <x:c r="B337" s="0" t="s">
-        <x:v>837</x:v>
+        <x:v>838</x:v>
       </x:c>
       <x:c r="C337" s="0" t="s">
         <x:v>24</x:v>
@@ -25839,15 +25842,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V337" s="0" t="s">
-        <x:v>838</x:v>
+        <x:v>839</x:v>
       </x:c>
     </x:row>
     <x:row r="338" spans="1:22">
       <x:c r="A338" s="0" t="s">
-        <x:v>839</x:v>
+        <x:v>840</x:v>
       </x:c>
       <x:c r="B338" s="0" t="s">
-        <x:v>840</x:v>
+        <x:v>841</x:v>
       </x:c>
       <x:c r="C338" s="0" t="s">
         <x:v>24</x:v>
@@ -25912,10 +25915,10 @@
     </x:row>
     <x:row r="339" spans="1:22">
       <x:c r="A339" s="0" t="s">
-        <x:v>841</x:v>
+        <x:v>842</x:v>
       </x:c>
       <x:c r="B339" s="0" t="s">
-        <x:v>842</x:v>
+        <x:v>843</x:v>
       </x:c>
       <x:c r="C339" s="0" t="s">
         <x:v>24</x:v>
@@ -25980,10 +25983,10 @@
     </x:row>
     <x:row r="340" spans="1:22">
       <x:c r="A340" s="0" t="s">
-        <x:v>843</x:v>
+        <x:v>844</x:v>
       </x:c>
       <x:c r="B340" s="0" t="s">
-        <x:v>844</x:v>
+        <x:v>845</x:v>
       </x:c>
       <x:c r="C340" s="0" t="s">
         <x:v>24</x:v>
@@ -26048,10 +26051,10 @@
     </x:row>
     <x:row r="341" spans="1:22">
       <x:c r="A341" s="0" t="s">
-        <x:v>845</x:v>
+        <x:v>846</x:v>
       </x:c>
       <x:c r="B341" s="0" t="s">
-        <x:v>846</x:v>
+        <x:v>847</x:v>
       </x:c>
       <x:c r="C341" s="0" t="s">
         <x:v>24</x:v>

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
@@ -10633,7 +10633,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G114" s="0" t="s">
-        <x:v>276</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="H114" s="0" t="s">
         <x:v>24</x:v>
@@ -10678,7 +10678,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="V114" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>317</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
@@ -268,474 +268,474 @@
     <x:t>Ramsey Police Dept</x:t>
   </x:si>
   <x:si>
+    <x:t>28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0021500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>St Francis Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0030000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Becker County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>60</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0030100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Detroit Lakes Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>82</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0040000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Beltrami County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>131</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0040100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bemidji Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0050000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Benton County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0050200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sauk Rapids Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0070000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blue Earth County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>57</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0070100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mankato Dept of Public Safety</x:t>
+  </x:si>
+  <x:si>
+    <x:t>85</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58</x:t>
+  </x:si>
+  <x:si>
+    <x:t>188</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0070200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mapleton Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0070400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Eagle Lake Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0070500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lake Crystal Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0071000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Madison Lake Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0080000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brown County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0080100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New Ulm Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>59</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0080200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sleepy Eye Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0090000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Carlton County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>63</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0090100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cloquet Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0100000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Carver County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>67</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>144</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0100200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chaska Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0110000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cass County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>76</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>112</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0110200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Walker Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0110500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pine River Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0120000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chippewa County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0120100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clara City Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0120200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Montevideo Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0130000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chisago County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0130500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>North Branch Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0130800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wyoming Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0130900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lakes Area Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0140000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clay County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0140200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dilworth Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0140300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hawley Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0140400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Moorhead Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>74</x:t>
+  </x:si>
+  <x:si>
+    <x:t>285</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0150000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clearwater County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0160000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cook County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0170000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cottonwood County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0170100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mountain Lake Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0170200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Windom Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0180000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crow Wing County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0180100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brainerd Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>105</x:t>
+  </x:si>
+  <x:si>
+    <x:t>226</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0180200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crosby Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0180300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Breezy Point Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0180400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crosslake Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0180500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baxter Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0181000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nisswa Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0181100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pequot Lakes Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dakota County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Burnsville Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Farmington Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hastings Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>86</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mendota Heights Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rosemount Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>South St Paul Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>62</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>West St Paul Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Eagan Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>121</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Inver Grove Heights Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0191000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Apple Valley Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0191100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lakeville Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0200000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dodge County Sheriff</x:t>
+  </x:si>
+  <x:si>
     <x:t>29</x:t>
   </x:si>
   <x:si>
-    <x:t>MN0021500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>St Francis Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0030000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Becker County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>60</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0030100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Detroit Lakes Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>82</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0040000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Beltrami County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>34</x:t>
-  </x:si>
-  <x:si>
-    <x:t>131</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0040100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bemidji Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0050000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Benton County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0050200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sauk Rapids Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0070000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blue Earth County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>57</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0070100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mankato Dept of Public Safety</x:t>
-  </x:si>
-  <x:si>
-    <x:t>85</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58</x:t>
-  </x:si>
-  <x:si>
-    <x:t>188</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0070200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mapleton Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0070400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Eagle Lake Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0070500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lake Crystal Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0071000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Madison Lake Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0080000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Brown County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0080100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>New Ulm Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>39</x:t>
-  </x:si>
-  <x:si>
-    <x:t>59</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0080200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sleepy Eye Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0090000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Carlton County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>63</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0090100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cloquet Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0100000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Carver County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>67</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>144</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0100200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Chaska Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>48</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0110000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cass County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>76</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>112</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0110200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Walker Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0110500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pine River Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0120000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Chippewa County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0120100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Clara City Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0120200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Montevideo Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0130000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Chisago County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0130500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>North Branch Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0130800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wyoming Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0130900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lakes Area Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0140000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Clay County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>44</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0140200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dilworth Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0140300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hawley Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0140400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Moorhead Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>74</x:t>
-  </x:si>
-  <x:si>
-    <x:t>286</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0150000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Clearwater County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0160000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cook County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0170000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cottonwood County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0170100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mountain Lake Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0170200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Windom Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0180000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crow Wing County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0180100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Brainerd Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>105</x:t>
-  </x:si>
-  <x:si>
-    <x:t>226</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0180200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crosby Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0180300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Breezy Point Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0180400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crosslake Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0180500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baxter Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0181000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nisswa Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0181100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pequot Lakes Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dakota County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Burnsville Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Farmington Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hastings Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>86</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mendota Heights Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rosemount Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>South St Paul Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>62</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>West St Paul Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Eagan Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>121</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Inver Grove Heights Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0191000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Apple Valley Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0191100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lakeville Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0200000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dodge County Sheriff</x:t>
-  </x:si>
-  <x:si>
     <x:t>MN0200200</x:t>
   </x:si>
   <x:si>
@@ -1411,7 +1411,7 @@
     <x:t>MN0430700</x:t>
   </x:si>
   <x:si>
-    <x:t>Winsted Police Dept</x:t>
+    <x:t>Winsted Lester Prairie Police Dept</x:t>
   </x:si>
   <x:si>
     <x:t>MN0440000</x:t>
@@ -1984,7 +1984,7 @@
     <x:t>81</x:t>
   </x:si>
   <x:si>
-    <x:t>341</x:t>
+    <x:t>340</x:t>
   </x:si>
   <x:si>
     <x:t>MN0700600</x:t>
@@ -3854,7 +3854,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="N14" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="O14" s="0" t="s">
         <x:v>24</x:v>
@@ -4377,7 +4377,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G22" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="H22" s="0" t="s">
         <x:v>24</x:v>
@@ -4422,15 +4422,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V22" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:22">
       <x:c r="A23" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
         <x:v>112</x:v>
-      </x:c>
-      <x:c r="B23" s="0" t="s">
-        <x:v>113</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
         <x:v>24</x:v>
@@ -4445,7 +4445,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G23" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="H23" s="0" t="s">
         <x:v>24</x:v>
@@ -4466,7 +4466,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="N23" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="O23" s="0" t="s">
         <x:v>24</x:v>
@@ -4490,15 +4490,15 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="V23" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:22">
       <x:c r="A24" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
         <x:v>117</x:v>
-      </x:c>
-      <x:c r="B24" s="0" t="s">
-        <x:v>118</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
         <x:v>24</x:v>
@@ -4563,10 +4563,10 @@
     </x:row>
     <x:row r="25" spans="1:22">
       <x:c r="A25" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
         <x:v>119</x:v>
-      </x:c>
-      <x:c r="B25" s="0" t="s">
-        <x:v>120</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
         <x:v>24</x:v>
@@ -4631,10 +4631,10 @@
     </x:row>
     <x:row r="26" spans="1:22">
       <x:c r="A26" s="0" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
         <x:v>121</x:v>
-      </x:c>
-      <x:c r="B26" s="0" t="s">
-        <x:v>122</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
         <x:v>24</x:v>
@@ -4699,10 +4699,10 @@
     </x:row>
     <x:row r="27" spans="1:22">
       <x:c r="A27" s="0" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
         <x:v>123</x:v>
-      </x:c>
-      <x:c r="B27" s="0" t="s">
-        <x:v>124</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
         <x:v>24</x:v>
@@ -4767,10 +4767,10 @@
     </x:row>
     <x:row r="28" spans="1:22">
       <x:c r="A28" s="0" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
         <x:v>125</x:v>
-      </x:c>
-      <x:c r="B28" s="0" t="s">
-        <x:v>126</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
         <x:v>24</x:v>
@@ -4835,25 +4835,25 @@
     </x:row>
     <x:row r="29" spans="1:22">
       <x:c r="A29" s="0" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
         <x:v>127</x:v>
       </x:c>
-      <x:c r="B29" s="0" t="s">
+      <x:c r="C29" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E29" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F29" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G29" s="0" t="s">
         <x:v>128</x:v>
-      </x:c>
-      <x:c r="C29" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="D29" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="E29" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="F29" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="G29" s="0" t="s">
-        <x:v>129</x:v>
       </x:c>
       <x:c r="H29" s="0" t="s">
         <x:v>24</x:v>
@@ -4898,15 +4898,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V29" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:22">
       <x:c r="A30" s="0" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
         <x:v>131</x:v>
-      </x:c>
-      <x:c r="B30" s="0" t="s">
-        <x:v>132</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
         <x:v>24</x:v>
@@ -4971,10 +4971,10 @@
     </x:row>
     <x:row r="31" spans="1:22">
       <x:c r="A31" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
         <x:v>133</x:v>
-      </x:c>
-      <x:c r="B31" s="0" t="s">
-        <x:v>134</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
         <x:v>24</x:v>
@@ -5034,15 +5034,15 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="V31" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:22">
       <x:c r="A32" s="0" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
         <x:v>136</x:v>
-      </x:c>
-      <x:c r="B32" s="0" t="s">
-        <x:v>137</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
         <x:v>24</x:v>
@@ -5102,15 +5102,15 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="V32" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:22">
       <x:c r="A33" s="0" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
         <x:v>139</x:v>
-      </x:c>
-      <x:c r="B33" s="0" t="s">
-        <x:v>140</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
         <x:v>24</x:v>
@@ -5125,7 +5125,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="G33" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="H33" s="0" t="s">
         <x:v>24</x:v>
@@ -5146,7 +5146,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="N33" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="O33" s="0" t="s">
         <x:v>24</x:v>
@@ -5170,15 +5170,15 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="V33" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>142</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:22">
       <x:c r="A34" s="0" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="s">
         <x:v>144</x:v>
-      </x:c>
-      <x:c r="B34" s="0" t="s">
-        <x:v>145</x:v>
       </x:c>
       <x:c r="C34" s="0" t="s">
         <x:v>24</x:v>
@@ -5238,15 +5238,15 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="V34" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:22">
       <x:c r="A35" s="0" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
         <x:v>147</x:v>
-      </x:c>
-      <x:c r="B35" s="0" t="s">
-        <x:v>148</x:v>
       </x:c>
       <x:c r="C35" s="0" t="s">
         <x:v>24</x:v>
@@ -5282,39 +5282,39 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N35" s="0" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="O35" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="P35" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="Q35" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="R35" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="S35" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="T35" s="0" t="s">
         <x:v>149</x:v>
       </x:c>
-      <x:c r="O35" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="P35" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="Q35" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="R35" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="S35" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="T35" s="0" t="s">
+      <x:c r="U35" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="V35" s="0" t="s">
         <x:v>150</x:v>
-      </x:c>
-      <x:c r="U35" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="V35" s="0" t="s">
-        <x:v>151</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:22">
       <x:c r="A36" s="0" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
         <x:v>152</x:v>
-      </x:c>
-      <x:c r="B36" s="0" t="s">
-        <x:v>153</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
         <x:v>24</x:v>
@@ -5379,10 +5379,10 @@
     </x:row>
     <x:row r="37" spans="1:22">
       <x:c r="A37" s="0" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="s">
         <x:v>154</x:v>
-      </x:c>
-      <x:c r="B37" s="0" t="s">
-        <x:v>155</x:v>
       </x:c>
       <x:c r="C37" s="0" t="s">
         <x:v>24</x:v>
@@ -5447,10 +5447,10 @@
     </x:row>
     <x:row r="38" spans="1:22">
       <x:c r="A38" s="0" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="s">
         <x:v>156</x:v>
-      </x:c>
-      <x:c r="B38" s="0" t="s">
-        <x:v>157</x:v>
       </x:c>
       <x:c r="C38" s="0" t="s">
         <x:v>24</x:v>
@@ -5515,10 +5515,10 @@
     </x:row>
     <x:row r="39" spans="1:22">
       <x:c r="A39" s="0" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="s">
         <x:v>158</x:v>
-      </x:c>
-      <x:c r="B39" s="0" t="s">
-        <x:v>159</x:v>
       </x:c>
       <x:c r="C39" s="0" t="s">
         <x:v>24</x:v>
@@ -5583,10 +5583,10 @@
     </x:row>
     <x:row r="40" spans="1:22">
       <x:c r="A40" s="0" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
         <x:v>160</x:v>
-      </x:c>
-      <x:c r="B40" s="0" t="s">
-        <x:v>161</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
         <x:v>24</x:v>
@@ -5651,10 +5651,10 @@
     </x:row>
     <x:row r="41" spans="1:22">
       <x:c r="A41" s="0" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
         <x:v>162</x:v>
-      </x:c>
-      <x:c r="B41" s="0" t="s">
-        <x:v>163</x:v>
       </x:c>
       <x:c r="C41" s="0" t="s">
         <x:v>24</x:v>
@@ -5719,10 +5719,10 @@
     </x:row>
     <x:row r="42" spans="1:22">
       <x:c r="A42" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="s">
         <x:v>164</x:v>
-      </x:c>
-      <x:c r="B42" s="0" t="s">
-        <x:v>165</x:v>
       </x:c>
       <x:c r="C42" s="0" t="s">
         <x:v>24</x:v>
@@ -5787,10 +5787,10 @@
     </x:row>
     <x:row r="43" spans="1:22">
       <x:c r="A43" s="0" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="B43" s="0" t="s">
         <x:v>166</x:v>
-      </x:c>
-      <x:c r="B43" s="0" t="s">
-        <x:v>167</x:v>
       </x:c>
       <x:c r="C43" s="0" t="s">
         <x:v>24</x:v>
@@ -5855,10 +5855,10 @@
     </x:row>
     <x:row r="44" spans="1:22">
       <x:c r="A44" s="0" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="s">
         <x:v>168</x:v>
-      </x:c>
-      <x:c r="B44" s="0" t="s">
-        <x:v>169</x:v>
       </x:c>
       <x:c r="C44" s="0" t="s">
         <x:v>24</x:v>
@@ -5923,10 +5923,10 @@
     </x:row>
     <x:row r="45" spans="1:22">
       <x:c r="A45" s="0" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="B45" s="0" t="s">
         <x:v>170</x:v>
-      </x:c>
-      <x:c r="B45" s="0" t="s">
-        <x:v>171</x:v>
       </x:c>
       <x:c r="C45" s="0" t="s">
         <x:v>24</x:v>
@@ -5986,15 +5986,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V45" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>171</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:22">
       <x:c r="A46" s="0" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="B46" s="0" t="s">
         <x:v>173</x:v>
-      </x:c>
-      <x:c r="B46" s="0" t="s">
-        <x:v>174</x:v>
       </x:c>
       <x:c r="C46" s="0" t="s">
         <x:v>25</x:v>
@@ -6059,10 +6059,10 @@
     </x:row>
     <x:row r="47" spans="1:22">
       <x:c r="A47" s="0" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="B47" s="0" t="s">
         <x:v>175</x:v>
-      </x:c>
-      <x:c r="B47" s="0" t="s">
-        <x:v>176</x:v>
       </x:c>
       <x:c r="C47" s="0" t="s">
         <x:v>24</x:v>
@@ -6127,10 +6127,10 @@
     </x:row>
     <x:row r="48" spans="1:22">
       <x:c r="A48" s="0" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="B48" s="0" t="s">
         <x:v>177</x:v>
-      </x:c>
-      <x:c r="B48" s="0" t="s">
-        <x:v>178</x:v>
       </x:c>
       <x:c r="C48" s="0" t="s">
         <x:v>28</x:v>
@@ -6166,10 +6166,10 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="N48" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="O48" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="P48" s="0" t="s">
         <x:v>43</x:v>
@@ -6190,15 +6190,15 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="V48" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>179</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:22">
       <x:c r="A49" s="0" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="B49" s="0" t="s">
         <x:v>181</x:v>
-      </x:c>
-      <x:c r="B49" s="0" t="s">
-        <x:v>182</x:v>
       </x:c>
       <x:c r="C49" s="0" t="s">
         <x:v>24</x:v>
@@ -6263,10 +6263,10 @@
     </x:row>
     <x:row r="50" spans="1:22">
       <x:c r="A50" s="0" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B50" s="0" t="s">
         <x:v>183</x:v>
-      </x:c>
-      <x:c r="B50" s="0" t="s">
-        <x:v>184</x:v>
       </x:c>
       <x:c r="C50" s="0" t="s">
         <x:v>24</x:v>
@@ -6331,10 +6331,10 @@
     </x:row>
     <x:row r="51" spans="1:22">
       <x:c r="A51" s="0" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="B51" s="0" t="s">
         <x:v>185</x:v>
-      </x:c>
-      <x:c r="B51" s="0" t="s">
-        <x:v>186</x:v>
       </x:c>
       <x:c r="C51" s="0" t="s">
         <x:v>24</x:v>
@@ -6399,10 +6399,10 @@
     </x:row>
     <x:row r="52" spans="1:22">
       <x:c r="A52" s="0" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="B52" s="0" t="s">
         <x:v>187</x:v>
-      </x:c>
-      <x:c r="B52" s="0" t="s">
-        <x:v>188</x:v>
       </x:c>
       <x:c r="C52" s="0" t="s">
         <x:v>24</x:v>
@@ -6467,10 +6467,10 @@
     </x:row>
     <x:row r="53" spans="1:22">
       <x:c r="A53" s="0" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="B53" s="0" t="s">
         <x:v>189</x:v>
-      </x:c>
-      <x:c r="B53" s="0" t="s">
-        <x:v>190</x:v>
       </x:c>
       <x:c r="C53" s="0" t="s">
         <x:v>24</x:v>
@@ -6535,10 +6535,10 @@
     </x:row>
     <x:row r="54" spans="1:22">
       <x:c r="A54" s="0" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="B54" s="0" t="s">
         <x:v>191</x:v>
-      </x:c>
-      <x:c r="B54" s="0" t="s">
-        <x:v>192</x:v>
       </x:c>
       <x:c r="C54" s="0" t="s">
         <x:v>24</x:v>
@@ -6603,10 +6603,10 @@
     </x:row>
     <x:row r="55" spans="1:22">
       <x:c r="A55" s="0" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="B55" s="0" t="s">
         <x:v>193</x:v>
-      </x:c>
-      <x:c r="B55" s="0" t="s">
-        <x:v>194</x:v>
       </x:c>
       <x:c r="C55" s="0" t="s">
         <x:v>24</x:v>
@@ -6621,7 +6621,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="G55" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="H55" s="0" t="s">
         <x:v>24</x:v>
@@ -6666,15 +6666,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V55" s="0" t="s">
-        <x:v>196</x:v>
+        <x:v>195</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:22">
       <x:c r="A56" s="0" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="B56" s="0" t="s">
         <x:v>197</x:v>
-      </x:c>
-      <x:c r="B56" s="0" t="s">
-        <x:v>198</x:v>
       </x:c>
       <x:c r="C56" s="0" t="s">
         <x:v>24</x:v>
@@ -6739,10 +6739,10 @@
     </x:row>
     <x:row r="57" spans="1:22">
       <x:c r="A57" s="0" t="s">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="B57" s="0" t="s">
         <x:v>199</x:v>
-      </x:c>
-      <x:c r="B57" s="0" t="s">
-        <x:v>200</x:v>
       </x:c>
       <x:c r="C57" s="0" t="s">
         <x:v>24</x:v>
@@ -6807,10 +6807,10 @@
     </x:row>
     <x:row r="58" spans="1:22">
       <x:c r="A58" s="0" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="B58" s="0" t="s">
         <x:v>201</x:v>
-      </x:c>
-      <x:c r="B58" s="0" t="s">
-        <x:v>202</x:v>
       </x:c>
       <x:c r="C58" s="0" t="s">
         <x:v>24</x:v>
@@ -6870,15 +6870,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V58" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>149</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:22">
       <x:c r="A59" s="0" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="B59" s="0" t="s">
         <x:v>203</x:v>
-      </x:c>
-      <x:c r="B59" s="0" t="s">
-        <x:v>204</x:v>
       </x:c>
       <x:c r="C59" s="0" t="s">
         <x:v>24</x:v>
@@ -6943,10 +6943,10 @@
     </x:row>
     <x:row r="60" spans="1:22">
       <x:c r="A60" s="0" t="s">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="B60" s="0" t="s">
         <x:v>205</x:v>
-      </x:c>
-      <x:c r="B60" s="0" t="s">
-        <x:v>206</x:v>
       </x:c>
       <x:c r="C60" s="0" t="s">
         <x:v>24</x:v>
@@ -7011,10 +7011,10 @@
     </x:row>
     <x:row r="61" spans="1:22">
       <x:c r="A61" s="0" t="s">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="B61" s="0" t="s">
         <x:v>207</x:v>
-      </x:c>
-      <x:c r="B61" s="0" t="s">
-        <x:v>208</x:v>
       </x:c>
       <x:c r="C61" s="0" t="s">
         <x:v>24</x:v>
@@ -7079,10 +7079,10 @@
     </x:row>
     <x:row r="62" spans="1:22">
       <x:c r="A62" s="0" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="B62" s="0" t="s">
         <x:v>209</x:v>
-      </x:c>
-      <x:c r="B62" s="0" t="s">
-        <x:v>210</x:v>
       </x:c>
       <x:c r="C62" s="0" t="s">
         <x:v>24</x:v>
@@ -7147,10 +7147,10 @@
     </x:row>
     <x:row r="63" spans="1:22">
       <x:c r="A63" s="0" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="B63" s="0" t="s">
         <x:v>211</x:v>
-      </x:c>
-      <x:c r="B63" s="0" t="s">
-        <x:v>212</x:v>
       </x:c>
       <x:c r="C63" s="0" t="s">
         <x:v>24</x:v>
@@ -7215,10 +7215,10 @@
     </x:row>
     <x:row r="64" spans="1:22">
       <x:c r="A64" s="0" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="B64" s="0" t="s">
         <x:v>213</x:v>
-      </x:c>
-      <x:c r="B64" s="0" t="s">
-        <x:v>214</x:v>
       </x:c>
       <x:c r="C64" s="0" t="s">
         <x:v>24</x:v>
@@ -7283,10 +7283,10 @@
     </x:row>
     <x:row r="65" spans="1:22">
       <x:c r="A65" s="0" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="B65" s="0" t="s">
         <x:v>215</x:v>
-      </x:c>
-      <x:c r="B65" s="0" t="s">
-        <x:v>216</x:v>
       </x:c>
       <x:c r="C65" s="0" t="s">
         <x:v>24</x:v>
@@ -7328,33 +7328,33 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="P65" s="0" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="Q65" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="R65" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="S65" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="T65" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="U65" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="V65" s="0" t="s">
         <x:v>217</x:v>
-      </x:c>
-      <x:c r="Q65" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="R65" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="S65" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="T65" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="U65" s="0" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="V65" s="0" t="s">
-        <x:v>218</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:22">
       <x:c r="A66" s="0" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="B66" s="0" t="s">
         <x:v>219</x:v>
-      </x:c>
-      <x:c r="B66" s="0" t="s">
-        <x:v>220</x:v>
       </x:c>
       <x:c r="C66" s="0" t="s">
         <x:v>24</x:v>
@@ -7419,10 +7419,10 @@
     </x:row>
     <x:row r="67" spans="1:22">
       <x:c r="A67" s="0" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="B67" s="0" t="s">
         <x:v>221</x:v>
-      </x:c>
-      <x:c r="B67" s="0" t="s">
-        <x:v>222</x:v>
       </x:c>
       <x:c r="C67" s="0" t="s">
         <x:v>24</x:v>
@@ -7437,7 +7437,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="G67" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="H67" s="0" t="s">
         <x:v>24</x:v>
@@ -7482,15 +7482,15 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="V67" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>178</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:22">
       <x:c r="A68" s="0" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="B68" s="0" t="s">
         <x:v>223</x:v>
-      </x:c>
-      <x:c r="B68" s="0" t="s">
-        <x:v>224</x:v>
       </x:c>
       <x:c r="C68" s="0" t="s">
         <x:v>24</x:v>
@@ -7505,7 +7505,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="G68" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="H68" s="0" t="s">
         <x:v>24</x:v>
@@ -7550,15 +7550,15 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="V68" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>224</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:22">
       <x:c r="A69" s="0" t="s">
+        <x:v>225</x:v>
+      </x:c>
+      <x:c r="B69" s="0" t="s">
         <x:v>226</x:v>
-      </x:c>
-      <x:c r="B69" s="0" t="s">
-        <x:v>227</x:v>
       </x:c>
       <x:c r="C69" s="0" t="s">
         <x:v>24</x:v>
@@ -7623,10 +7623,10 @@
     </x:row>
     <x:row r="70" spans="1:22">
       <x:c r="A70" s="0" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="B70" s="0" t="s">
         <x:v>228</x:v>
-      </x:c>
-      <x:c r="B70" s="0" t="s">
-        <x:v>229</x:v>
       </x:c>
       <x:c r="C70" s="0" t="s">
         <x:v>24</x:v>
@@ -7641,7 +7641,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="G70" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="H70" s="0" t="s">
         <x:v>24</x:v>
@@ -7686,15 +7686,15 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="V70" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>229</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:22">
       <x:c r="A71" s="0" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="B71" s="0" t="s">
         <x:v>231</x:v>
-      </x:c>
-      <x:c r="B71" s="0" t="s">
-        <x:v>232</x:v>
       </x:c>
       <x:c r="C71" s="0" t="s">
         <x:v>25</x:v>
@@ -7759,11 +7759,11 @@
     </x:row>
     <x:row r="72" spans="1:22">
       <x:c r="A72" s="0" t="s">
+        <x:v>232</x:v>
+      </x:c>
+      <x:c r="B72" s="0" t="s">
         <x:v>233</x:v>
       </x:c>
-      <x:c r="B72" s="0" t="s">
-        <x:v>234</x:v>
-      </x:c>
       <x:c r="C72" s="0" t="s">
         <x:v>49</x:v>
       </x:c>
@@ -7777,7 +7777,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G72" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="H72" s="0" t="s">
         <x:v>24</x:v>
@@ -7822,15 +7822,15 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="V72" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:22">
       <x:c r="A73" s="0" t="s">
+        <x:v>234</x:v>
+      </x:c>
+      <x:c r="B73" s="0" t="s">
         <x:v>235</x:v>
-      </x:c>
-      <x:c r="B73" s="0" t="s">
-        <x:v>236</x:v>
       </x:c>
       <x:c r="C73" s="0" t="s">
         <x:v>24</x:v>
@@ -7890,15 +7890,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V73" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:22">
       <x:c r="A74" s="0" t="s">
+        <x:v>237</x:v>
+      </x:c>
+      <x:c r="B74" s="0" t="s">
         <x:v>238</x:v>
-      </x:c>
-      <x:c r="B74" s="0" t="s">
-        <x:v>239</x:v>
       </x:c>
       <x:c r="C74" s="0" t="s">
         <x:v>24</x:v>
@@ -7958,7 +7958,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V74" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>239</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:22">
@@ -8138,7 +8138,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="N77" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="O77" s="0" t="s">
         <x:v>24</x:v>
@@ -8638,7 +8638,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V84" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:22">
@@ -8729,7 +8729,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="G86" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="H86" s="0" t="s">
         <x:v>24</x:v>
@@ -9069,7 +9069,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="G91" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="H91" s="0" t="s">
         <x:v>24</x:v>
@@ -9137,7 +9137,7 @@
         <x:v>288</x:v>
       </x:c>
       <x:c r="G92" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="H92" s="0" t="s">
         <x:v>24</x:v>
@@ -9205,7 +9205,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="G93" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="H93" s="0" t="s">
         <x:v>24</x:v>
@@ -9250,7 +9250,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="V93" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="1:22">
@@ -9498,7 +9498,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N97" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="O97" s="0" t="s">
         <x:v>24</x:v>
@@ -9737,10 +9737,10 @@
         <x:v>312</x:v>
       </x:c>
       <x:c r="C101" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="D101" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="E101" s="0" t="s">
         <x:v>49</x:v>
@@ -9885,7 +9885,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="G103" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="H103" s="0" t="s">
         <x:v>24</x:v>
@@ -10148,7 +10148,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="D107" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="E107" s="0" t="s">
         <x:v>24</x:v>
@@ -10178,7 +10178,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N107" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="O107" s="0" t="s">
         <x:v>49</x:v>
@@ -10246,7 +10246,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="N108" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="O108" s="0" t="s">
         <x:v>27</x:v>
@@ -10406,7 +10406,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V110" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>148</x:v>
       </x:c>
     </x:row>
     <x:row r="111" spans="1:22">
@@ -11109,7 +11109,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="G121" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="H121" s="0" t="s">
         <x:v>24</x:v>
@@ -11310,7 +11310,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F124" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="G124" s="0" t="s">
         <x:v>51</x:v>
@@ -11352,7 +11352,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="T124" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="U124" s="0" t="s">
         <x:v>90</x:v>
@@ -12038,7 +12038,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V134" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>239</x:v>
       </x:c>
     </x:row>
     <x:row r="135" spans="1:22">
@@ -12286,7 +12286,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N138" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="O138" s="0" t="s">
         <x:v>55</x:v>
@@ -12514,7 +12514,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="V141" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
     </x:row>
     <x:row r="142" spans="1:22">
@@ -12673,7 +12673,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="G144" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="H144" s="0" t="s">
         <x:v>24</x:v>
@@ -13034,7 +13034,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N149" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="O149" s="0" t="s">
         <x:v>49</x:v>
@@ -13398,7 +13398,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V154" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>171</x:v>
       </x:c>
     </x:row>
     <x:row r="155" spans="1:22">
@@ -13693,7 +13693,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="G159" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="H159" s="0" t="s">
         <x:v>24</x:v>
@@ -13761,7 +13761,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G160" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="H160" s="0" t="s">
         <x:v>24</x:v>
@@ -13965,7 +13965,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G163" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="H163" s="0" t="s">
         <x:v>24</x:v>
@@ -14146,7 +14146,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V165" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="166" spans="1:22">
@@ -14509,7 +14509,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G171" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="H171" s="0" t="s">
         <x:v>24</x:v>
@@ -14645,7 +14645,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G173" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="H173" s="0" t="s">
         <x:v>24</x:v>
@@ -15234,7 +15234,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V181" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
     </x:row>
     <x:row r="182" spans="1:22">
@@ -15506,7 +15506,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V185" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
     <x:row r="186" spans="1:22">
@@ -15869,7 +15869,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G191" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="H191" s="0" t="s">
         <x:v>24</x:v>
@@ -16526,7 +16526,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="V200" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="201" spans="1:22">
@@ -16928,7 +16928,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="T206" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="U206" s="0" t="s">
         <x:v>60</x:v>
@@ -17002,7 +17002,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V207" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>148</x:v>
       </x:c>
     </x:row>
     <x:row r="208" spans="1:22">
@@ -17025,7 +17025,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G208" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="H208" s="0" t="s">
         <x:v>24</x:v>
@@ -17093,7 +17093,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G209" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="H209" s="0" t="s">
         <x:v>24</x:v>
@@ -17454,7 +17454,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N214" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="O214" s="0" t="s">
         <x:v>24</x:v>
@@ -17546,7 +17546,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V215" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>217</x:v>
       </x:c>
     </x:row>
     <x:row r="216" spans="1:22">
@@ -17590,7 +17590,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N216" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="O216" s="0" t="s">
         <x:v>24</x:v>
@@ -17637,7 +17637,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="G217" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="H217" s="0" t="s">
         <x:v>24</x:v>
@@ -17682,7 +17682,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="V217" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="218" spans="1:22">
@@ -17818,7 +17818,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V219" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
     </x:row>
     <x:row r="220" spans="1:22">
@@ -17832,7 +17832,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="D220" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E220" s="0" t="s">
         <x:v>24</x:v>
@@ -17862,7 +17862,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="N220" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="O220" s="0" t="s">
         <x:v>25</x:v>
@@ -17880,7 +17880,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="T220" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="U220" s="0" t="s">
         <x:v>34</x:v>
@@ -17909,7 +17909,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="G221" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="H221" s="0" t="s">
         <x:v>24</x:v>
@@ -17930,7 +17930,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N221" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="O221" s="0" t="s">
         <x:v>24</x:v>
@@ -18276,7 +18276,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P226" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="Q226" s="0" t="s">
         <x:v>40</x:v>
@@ -18566,7 +18566,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V230" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
     <x:row r="231" spans="1:22">
@@ -18906,7 +18906,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V235" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
     </x:row>
     <x:row r="236" spans="1:22">
@@ -19290,7 +19290,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N241" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="O241" s="0" t="s">
         <x:v>24</x:v>
@@ -19518,7 +19518,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V244" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
     </x:row>
     <x:row r="245" spans="1:22">
@@ -20150,7 +20150,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="F254" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="G254" s="0" t="s">
         <x:v>91</x:v>
@@ -20162,7 +20162,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="J254" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="K254" s="0" t="s">
         <x:v>49</x:v>
@@ -20280,7 +20280,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D256" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="E256" s="0" t="s">
         <x:v>25</x:v>
@@ -20298,7 +20298,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="J256" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="K256" s="0" t="s">
         <x:v>24</x:v>
@@ -20464,7 +20464,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="T258" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="U258" s="0" t="s">
         <x:v>28</x:v>
@@ -20588,7 +20588,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P260" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="Q260" s="0" t="s">
         <x:v>25</x:v>
@@ -21262,13 +21262,13 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="N270" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="O270" s="0" t="s">
         <x:v>89</x:v>
       </x:c>
       <x:c r="P270" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="Q270" s="0" t="s">
         <x:v>40</x:v>
@@ -21830,7 +21830,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V278" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="279" spans="1:22">
@@ -22261,7 +22261,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="G285" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="H285" s="0" t="s">
         <x:v>24</x:v>
@@ -22282,7 +22282,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="N285" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="O285" s="0" t="s">
         <x:v>24</x:v>
@@ -22646,7 +22646,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V290" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>149</x:v>
       </x:c>
     </x:row>
     <x:row r="291" spans="1:22">
@@ -22850,7 +22850,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V293" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>239</x:v>
       </x:c>
     </x:row>
     <x:row r="294" spans="1:22">
@@ -23456,7 +23456,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="T302" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="U302" s="0" t="s">
         <x:v>55</x:v>
@@ -23734,7 +23734,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V306" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>216</x:v>
       </x:c>
     </x:row>
     <x:row r="307" spans="1:22">
@@ -23757,7 +23757,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="G307" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="H307" s="0" t="s">
         <x:v>24</x:v>
@@ -23784,7 +23784,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="P307" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="Q307" s="0" t="s">
         <x:v>25</x:v>
@@ -23825,7 +23825,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="G308" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="H308" s="0" t="s">
         <x:v>24</x:v>
@@ -23870,7 +23870,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V308" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="309" spans="1:22">
@@ -24006,7 +24006,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V310" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
     </x:row>
     <x:row r="311" spans="1:22">
@@ -24322,7 +24322,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N315" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="O315" s="0" t="s">
         <x:v>24</x:v>
@@ -24346,7 +24346,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V315" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="316" spans="1:22">
@@ -24526,7 +24526,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N318" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="O318" s="0" t="s">
         <x:v>24</x:v>
@@ -24550,7 +24550,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V318" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>148</x:v>
       </x:c>
     </x:row>
     <x:row r="319" spans="1:22">
@@ -24668,7 +24668,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="P320" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="Q320" s="0" t="s">
         <x:v>27</x:v>
@@ -24754,7 +24754,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V321" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>148</x:v>
       </x:c>
     </x:row>
     <x:row r="322" spans="1:22">
@@ -25138,7 +25138,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="N327" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="O327" s="0" t="s">
         <x:v>49</x:v>
@@ -25156,10 +25156,10 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="T327" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="U327" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="V327" s="0" t="s">
         <x:v>818</x:v>
@@ -25298,7 +25298,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V329" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>216</x:v>
       </x:c>
     </x:row>
     <x:row r="330" spans="1:22">
@@ -25389,7 +25389,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="G331" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="H331" s="0" t="s">
         <x:v>24</x:v>
@@ -25410,7 +25410,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N331" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="O331" s="0" t="s">
         <x:v>24</x:v>
@@ -25478,7 +25478,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N332" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="O332" s="0" t="s">
         <x:v>24</x:v>
@@ -25638,7 +25638,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V334" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>224</x:v>
       </x:c>
     </x:row>
     <x:row r="335" spans="1:22">
@@ -25774,7 +25774,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V336" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="337" spans="1:22">
@@ -25818,7 +25818,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N337" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="O337" s="0" t="s">
         <x:v>24</x:v>

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
@@ -23914,13 +23914,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="N309" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="O309" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="P309" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="Q309" s="0" t="s">
         <x:v>24</x:v>
@@ -23938,7 +23938,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V309" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>474</x:v>
       </x:c>
     </x:row>
     <x:row r="310" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
@@ -10633,7 +10633,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G114" s="0" t="s">
-        <x:v>290</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H114" s="0" t="s">
         <x:v>24</x:v>
@@ -10678,7 +10678,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="V114" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>288</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:22">
@@ -23914,7 +23914,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="N309" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="O309" s="0" t="s">
         <x:v>27</x:v>
@@ -23938,7 +23938,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V309" s="0" t="s">
-        <x:v>474</x:v>
+        <x:v>666</x:v>
       </x:c>
     </x:row>
     <x:row r="310" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
@@ -238,673 +238,673 @@
     <x:t>14</x:t>
   </x:si>
   <x:si>
+    <x:t>21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0020700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lino Lakes Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33</x:t>
+  </x:si>
+  <x:si>
+    <x:t>55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0020800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Spring Lake Park Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0021300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ramsey Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0021500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>St Francis Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0030000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Becker County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>60</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0030100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Detroit Lakes Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>82</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0040000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Beltrami County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>51</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>131</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0040100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bemidji Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0050000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Benton County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0050200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sauk Rapids Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0070000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blue Earth County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>57</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0070100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mankato Dept of Public Safety</x:t>
+  </x:si>
+  <x:si>
+    <x:t>85</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58</x:t>
+  </x:si>
+  <x:si>
+    <x:t>188</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0070200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mapleton Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0070400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Eagle Lake Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0070500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lake Crystal Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0071000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Madison Lake Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0080000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brown County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0080100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New Ulm Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>59</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0080200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sleepy Eye Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0090000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Carlton County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>63</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0090100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cloquet Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0100000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Carver County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>67</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>144</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0100200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chaska Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0110000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cass County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>76</x:t>
+  </x:si>
+  <x:si>
+    <x:t>112</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0110200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Walker Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0110500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pine River Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0120000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chippewa County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0120100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clara City Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0120200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Montevideo Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0130000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chisago County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0130500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>North Branch Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0130800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wyoming Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0130900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lakes Area Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0140000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clay County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0140200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dilworth Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0140300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hawley Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0140400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Moorhead Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>74</x:t>
+  </x:si>
+  <x:si>
+    <x:t>285</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0150000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clearwater County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0160000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cook County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0170000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cottonwood County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0170100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mountain Lake Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0170200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Windom Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0180000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crow Wing County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0180100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brainerd Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>105</x:t>
+  </x:si>
+  <x:si>
+    <x:t>226</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0180200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crosby Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0180300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Breezy Point Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0180400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crosslake Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0180500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baxter Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0181000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nisswa Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0181100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pequot Lakes Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dakota County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Burnsville Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Farmington Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hastings Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>86</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mendota Heights Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rosemount Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>South St Paul Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>62</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>West St Paul Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Eagan Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>121</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Inver Grove Heights Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0191000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Apple Valley Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0191100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lakeville Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0200000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dodge County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0200200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kasson Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0210000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Douglas County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>88</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0210100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Alexandria Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>42</x:t>
+  </x:si>
+  <x:si>
+    <x:t>103</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0210200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Osakis Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0220000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Faribault County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0220100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blue Earth Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0220400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wells Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0220500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Winnebago Public Safety</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0230000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fillmore County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0240000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Freeborn County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0240100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Albert Lea Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>69</x:t>
+  </x:si>
+  <x:si>
+    <x:t>137</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0250000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goodhue County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0250100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cannon Falls Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0250300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Red Wing Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>80</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0250800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zumbrota Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0260000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Grant County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hennepin County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>77</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bloomington Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>93</x:t>
+  </x:si>
+  <x:si>
+    <x:t>240</x:t>
+  </x:si>
+  <x:si>
+    <x:t>79</x:t>
+  </x:si>
+  <x:si>
+    <x:t>768</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brooklyn Center Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brooklyn Park Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43</x:t>
+  </x:si>
+  <x:si>
     <x:t>22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>51</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0020700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lino Lakes Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>33</x:t>
-  </x:si>
-  <x:si>
-    <x:t>55</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0020800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Spring Lake Park Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0021300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ramsey Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0021500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>St Francis Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0030000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Becker County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>60</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0030100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Detroit Lakes Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>82</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0040000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Beltrami County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>34</x:t>
-  </x:si>
-  <x:si>
-    <x:t>131</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0040100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bemidji Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0050000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Benton County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0050200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sauk Rapids Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0070000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blue Earth County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>57</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0070100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mankato Dept of Public Safety</x:t>
-  </x:si>
-  <x:si>
-    <x:t>85</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58</x:t>
-  </x:si>
-  <x:si>
-    <x:t>188</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0070200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mapleton Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0070400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Eagle Lake Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0070500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lake Crystal Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0071000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Madison Lake Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0080000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Brown County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0080100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>New Ulm Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>39</x:t>
-  </x:si>
-  <x:si>
-    <x:t>59</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0080200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sleepy Eye Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0090000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Carlton County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>63</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0090100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cloquet Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0100000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Carver County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>67</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>144</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0100200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Chaska Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>48</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0110000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cass County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>76</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>112</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0110200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Walker Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0110500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pine River Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0120000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Chippewa County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0120100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Clara City Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0120200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Montevideo Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0130000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Chisago County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0130500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>North Branch Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0130800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wyoming Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0130900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lakes Area Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0140000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Clay County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>44</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0140200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dilworth Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0140300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hawley Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0140400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Moorhead Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>74</x:t>
-  </x:si>
-  <x:si>
-    <x:t>285</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0150000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Clearwater County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0160000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cook County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0170000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cottonwood County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0170100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mountain Lake Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0170200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Windom Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0180000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crow Wing County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0180100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Brainerd Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>105</x:t>
-  </x:si>
-  <x:si>
-    <x:t>226</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0180200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crosby Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0180300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Breezy Point Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0180400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crosslake Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0180500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baxter Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0181000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nisswa Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0181100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pequot Lakes Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dakota County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Burnsville Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Farmington Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hastings Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>86</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mendota Heights Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rosemount Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>South St Paul Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>62</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>West St Paul Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Eagan Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>121</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Inver Grove Heights Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0191000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Apple Valley Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0191100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lakeville Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0200000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dodge County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0200200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kasson Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0210000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Douglas County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>37</x:t>
-  </x:si>
-  <x:si>
-    <x:t>88</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0210100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Alexandria Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>42</x:t>
-  </x:si>
-  <x:si>
-    <x:t>103</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0210200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Osakis Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0220000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Faribault County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0220100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blue Earth Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0220400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wells Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0220500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Winnebago Public Safety</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0230000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fillmore County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0240000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Freeborn County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0240100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Albert Lea Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>38</x:t>
-  </x:si>
-  <x:si>
-    <x:t>69</x:t>
-  </x:si>
-  <x:si>
-    <x:t>137</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0250000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Goodhue County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>41</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0250100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cannon Falls Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0250300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Red Wing Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>80</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0250800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Zumbrota Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0260000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Grant County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hennepin County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>77</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bloomington Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>49</x:t>
-  </x:si>
-  <x:si>
-    <x:t>93</x:t>
-  </x:si>
-  <x:si>
-    <x:t>240</x:t>
-  </x:si>
-  <x:si>
-    <x:t>79</x:t>
-  </x:si>
-  <x:si>
-    <x:t>768</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Brooklyn Center Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Brooklyn Park Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>43</x:t>
   </x:si>
   <x:si>
     <x:t>111</x:t>
@@ -3674,30 +3674,30 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V11" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:22">
       <x:c r="A12" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="B12" s="0" t="s">
+      <x:c r="C12" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
         <x:v>77</x:v>
-      </x:c>
-      <x:c r="C12" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="D12" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="E12" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="F12" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="G12" s="0" t="s">
-        <x:v>78</x:v>
       </x:c>
       <x:c r="H12" s="0" t="s">
         <x:v>24</x:v>
@@ -3742,15 +3742,15 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="V12" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:22">
       <x:c r="A13" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
         <x:v>80</x:v>
-      </x:c>
-      <x:c r="B13" s="0" t="s">
-        <x:v>81</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
         <x:v>24</x:v>
@@ -3815,10 +3815,10 @@
     </x:row>
     <x:row r="14" spans="1:22">
       <x:c r="A14" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
         <x:v>82</x:v>
-      </x:c>
-      <x:c r="B14" s="0" t="s">
-        <x:v>83</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
         <x:v>24</x:v>
@@ -3878,15 +3878,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V14" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:22">
       <x:c r="A15" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
         <x:v>85</x:v>
-      </x:c>
-      <x:c r="B15" s="0" t="s">
-        <x:v>86</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
         <x:v>24</x:v>
@@ -3951,10 +3951,10 @@
     </x:row>
     <x:row r="16" spans="1:22">
       <x:c r="A16" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
         <x:v>87</x:v>
-      </x:c>
-      <x:c r="B16" s="0" t="s">
-        <x:v>88</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
         <x:v>49</x:v>
@@ -3990,13 +3990,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="N16" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="O16" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="P16" s="0" t="s">
         <x:v>89</x:v>
-      </x:c>
-      <x:c r="O16" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="P16" s="0" t="s">
-        <x:v>90</x:v>
       </x:c>
       <x:c r="Q16" s="0" t="s">
         <x:v>24</x:v>
@@ -4014,15 +4014,15 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="V16" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:22">
       <x:c r="A17" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
         <x:v>92</x:v>
-      </x:c>
-      <x:c r="B17" s="0" t="s">
-        <x:v>93</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
         <x:v>25</x:v>
@@ -4058,7 +4058,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N17" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="O17" s="0" t="s">
         <x:v>24</x:v>
@@ -4082,15 +4082,15 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="V17" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:22">
       <x:c r="A18" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
         <x:v>96</x:v>
-      </x:c>
-      <x:c r="B18" s="0" t="s">
-        <x:v>97</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
         <x:v>24</x:v>
@@ -4105,7 +4105,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="G18" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="H18" s="0" t="s">
         <x:v>24</x:v>
@@ -4126,7 +4126,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N18" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="O18" s="0" t="s">
         <x:v>25</x:v>
@@ -4173,7 +4173,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="G19" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="H19" s="0" t="s">
         <x:v>24</x:v>
@@ -4218,7 +4218,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="V19" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:22">
@@ -4241,7 +4241,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G20" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="H20" s="0" t="s">
         <x:v>24</x:v>
@@ -4377,7 +4377,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G22" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H22" s="0" t="s">
         <x:v>24</x:v>
@@ -4989,7 +4989,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="G31" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="H31" s="0" t="s">
         <x:v>24</x:v>
@@ -5010,7 +5010,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N31" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="O31" s="0" t="s">
         <x:v>24</x:v>
@@ -5164,7 +5164,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="T33" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="U33" s="0" t="s">
         <x:v>49</x:v>
@@ -5300,21 +5300,21 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="T35" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="U35" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="V35" s="0" t="s">
         <x:v>149</x:v>
-      </x:c>
-      <x:c r="U35" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="V35" s="0" t="s">
-        <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:22">
       <x:c r="A36" s="0" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
         <x:v>151</x:v>
-      </x:c>
-      <x:c r="B36" s="0" t="s">
-        <x:v>152</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
         <x:v>24</x:v>
@@ -5379,10 +5379,10 @@
     </x:row>
     <x:row r="37" spans="1:22">
       <x:c r="A37" s="0" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="s">
         <x:v>153</x:v>
-      </x:c>
-      <x:c r="B37" s="0" t="s">
-        <x:v>154</x:v>
       </x:c>
       <x:c r="C37" s="0" t="s">
         <x:v>24</x:v>
@@ -5447,10 +5447,10 @@
     </x:row>
     <x:row r="38" spans="1:22">
       <x:c r="A38" s="0" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="s">
         <x:v>155</x:v>
-      </x:c>
-      <x:c r="B38" s="0" t="s">
-        <x:v>156</x:v>
       </x:c>
       <x:c r="C38" s="0" t="s">
         <x:v>24</x:v>
@@ -5515,10 +5515,10 @@
     </x:row>
     <x:row r="39" spans="1:22">
       <x:c r="A39" s="0" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="s">
         <x:v>157</x:v>
-      </x:c>
-      <x:c r="B39" s="0" t="s">
-        <x:v>158</x:v>
       </x:c>
       <x:c r="C39" s="0" t="s">
         <x:v>24</x:v>
@@ -5583,10 +5583,10 @@
     </x:row>
     <x:row r="40" spans="1:22">
       <x:c r="A40" s="0" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
         <x:v>159</x:v>
-      </x:c>
-      <x:c r="B40" s="0" t="s">
-        <x:v>160</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
         <x:v>24</x:v>
@@ -5651,10 +5651,10 @@
     </x:row>
     <x:row r="41" spans="1:22">
       <x:c r="A41" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
         <x:v>161</x:v>
-      </x:c>
-      <x:c r="B41" s="0" t="s">
-        <x:v>162</x:v>
       </x:c>
       <x:c r="C41" s="0" t="s">
         <x:v>24</x:v>
@@ -5696,7 +5696,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="P41" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q41" s="0" t="s">
         <x:v>25</x:v>
@@ -5714,15 +5714,15 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="V41" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:22">
       <x:c r="A42" s="0" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="s">
         <x:v>163</x:v>
-      </x:c>
-      <x:c r="B42" s="0" t="s">
-        <x:v>164</x:v>
       </x:c>
       <x:c r="C42" s="0" t="s">
         <x:v>24</x:v>
@@ -5787,10 +5787,10 @@
     </x:row>
     <x:row r="43" spans="1:22">
       <x:c r="A43" s="0" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="B43" s="0" t="s">
         <x:v>165</x:v>
-      </x:c>
-      <x:c r="B43" s="0" t="s">
-        <x:v>166</x:v>
       </x:c>
       <x:c r="C43" s="0" t="s">
         <x:v>24</x:v>
@@ -5855,10 +5855,10 @@
     </x:row>
     <x:row r="44" spans="1:22">
       <x:c r="A44" s="0" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="s">
         <x:v>167</x:v>
-      </x:c>
-      <x:c r="B44" s="0" t="s">
-        <x:v>168</x:v>
       </x:c>
       <x:c r="C44" s="0" t="s">
         <x:v>24</x:v>
@@ -5923,10 +5923,10 @@
     </x:row>
     <x:row r="45" spans="1:22">
       <x:c r="A45" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="B45" s="0" t="s">
         <x:v>169</x:v>
-      </x:c>
-      <x:c r="B45" s="0" t="s">
-        <x:v>170</x:v>
       </x:c>
       <x:c r="C45" s="0" t="s">
         <x:v>24</x:v>
@@ -5986,16 +5986,16 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V45" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>170</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:22">
       <x:c r="A46" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="B46" s="0" t="s">
         <x:v>172</x:v>
       </x:c>
-      <x:c r="B46" s="0" t="s">
-        <x:v>173</x:v>
-      </x:c>
       <x:c r="C46" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
@@ -6009,7 +6009,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G46" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H46" s="0" t="s">
         <x:v>24</x:v>
@@ -6059,10 +6059,10 @@
     </x:row>
     <x:row r="47" spans="1:22">
       <x:c r="A47" s="0" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="B47" s="0" t="s">
         <x:v>174</x:v>
-      </x:c>
-      <x:c r="B47" s="0" t="s">
-        <x:v>175</x:v>
       </x:c>
       <x:c r="C47" s="0" t="s">
         <x:v>24</x:v>
@@ -6127,19 +6127,19 @@
     </x:row>
     <x:row r="48" spans="1:22">
       <x:c r="A48" s="0" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="B48" s="0" t="s">
         <x:v>176</x:v>
-      </x:c>
-      <x:c r="B48" s="0" t="s">
-        <x:v>177</x:v>
       </x:c>
       <x:c r="C48" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="D48" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E48" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F48" s="0" t="s">
         <x:v>26</x:v>
@@ -6166,7 +6166,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="N48" s="0" t="s">
-        <x:v>178</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="O48" s="0" t="s">
         <x:v>34</x:v>
@@ -6190,15 +6190,15 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="V48" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>178</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:22">
       <x:c r="A49" s="0" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="B49" s="0" t="s">
         <x:v>180</x:v>
-      </x:c>
-      <x:c r="B49" s="0" t="s">
-        <x:v>181</x:v>
       </x:c>
       <x:c r="C49" s="0" t="s">
         <x:v>24</x:v>
@@ -6263,10 +6263,10 @@
     </x:row>
     <x:row r="50" spans="1:22">
       <x:c r="A50" s="0" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="B50" s="0" t="s">
         <x:v>182</x:v>
-      </x:c>
-      <x:c r="B50" s="0" t="s">
-        <x:v>183</x:v>
       </x:c>
       <x:c r="C50" s="0" t="s">
         <x:v>24</x:v>
@@ -6331,10 +6331,10 @@
     </x:row>
     <x:row r="51" spans="1:22">
       <x:c r="A51" s="0" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="B51" s="0" t="s">
         <x:v>184</x:v>
-      </x:c>
-      <x:c r="B51" s="0" t="s">
-        <x:v>185</x:v>
       </x:c>
       <x:c r="C51" s="0" t="s">
         <x:v>24</x:v>
@@ -6399,10 +6399,10 @@
     </x:row>
     <x:row r="52" spans="1:22">
       <x:c r="A52" s="0" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="B52" s="0" t="s">
         <x:v>186</x:v>
-      </x:c>
-      <x:c r="B52" s="0" t="s">
-        <x:v>187</x:v>
       </x:c>
       <x:c r="C52" s="0" t="s">
         <x:v>24</x:v>
@@ -6467,10 +6467,10 @@
     </x:row>
     <x:row r="53" spans="1:22">
       <x:c r="A53" s="0" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="B53" s="0" t="s">
         <x:v>188</x:v>
-      </x:c>
-      <x:c r="B53" s="0" t="s">
-        <x:v>189</x:v>
       </x:c>
       <x:c r="C53" s="0" t="s">
         <x:v>24</x:v>
@@ -6535,10 +6535,10 @@
     </x:row>
     <x:row r="54" spans="1:22">
       <x:c r="A54" s="0" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="B54" s="0" t="s">
         <x:v>190</x:v>
-      </x:c>
-      <x:c r="B54" s="0" t="s">
-        <x:v>191</x:v>
       </x:c>
       <x:c r="C54" s="0" t="s">
         <x:v>24</x:v>
@@ -6603,10 +6603,10 @@
     </x:row>
     <x:row r="55" spans="1:22">
       <x:c r="A55" s="0" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="B55" s="0" t="s">
         <x:v>192</x:v>
-      </x:c>
-      <x:c r="B55" s="0" t="s">
-        <x:v>193</x:v>
       </x:c>
       <x:c r="C55" s="0" t="s">
         <x:v>24</x:v>
@@ -6621,7 +6621,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="G55" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="H55" s="0" t="s">
         <x:v>24</x:v>
@@ -6660,21 +6660,21 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="T55" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="U55" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="V55" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>194</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:22">
       <x:c r="A56" s="0" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="B56" s="0" t="s">
         <x:v>196</x:v>
-      </x:c>
-      <x:c r="B56" s="0" t="s">
-        <x:v>197</x:v>
       </x:c>
       <x:c r="C56" s="0" t="s">
         <x:v>24</x:v>
@@ -6734,15 +6734,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V56" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:22">
       <x:c r="A57" s="0" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="B57" s="0" t="s">
         <x:v>198</x:v>
-      </x:c>
-      <x:c r="B57" s="0" t="s">
-        <x:v>199</x:v>
       </x:c>
       <x:c r="C57" s="0" t="s">
         <x:v>24</x:v>
@@ -6807,10 +6807,10 @@
     </x:row>
     <x:row r="58" spans="1:22">
       <x:c r="A58" s="0" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="B58" s="0" t="s">
         <x:v>200</x:v>
-      </x:c>
-      <x:c r="B58" s="0" t="s">
-        <x:v>201</x:v>
       </x:c>
       <x:c r="C58" s="0" t="s">
         <x:v>24</x:v>
@@ -6870,15 +6870,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V58" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:22">
       <x:c r="A59" s="0" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="B59" s="0" t="s">
         <x:v>202</x:v>
-      </x:c>
-      <x:c r="B59" s="0" t="s">
-        <x:v>203</x:v>
       </x:c>
       <x:c r="C59" s="0" t="s">
         <x:v>24</x:v>
@@ -6943,10 +6943,10 @@
     </x:row>
     <x:row r="60" spans="1:22">
       <x:c r="A60" s="0" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="B60" s="0" t="s">
         <x:v>204</x:v>
-      </x:c>
-      <x:c r="B60" s="0" t="s">
-        <x:v>205</x:v>
       </x:c>
       <x:c r="C60" s="0" t="s">
         <x:v>24</x:v>
@@ -6988,7 +6988,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P60" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="Q60" s="0" t="s">
         <x:v>24</x:v>
@@ -7011,10 +7011,10 @@
     </x:row>
     <x:row r="61" spans="1:22">
       <x:c r="A61" s="0" t="s">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="B61" s="0" t="s">
         <x:v>206</x:v>
-      </x:c>
-      <x:c r="B61" s="0" t="s">
-        <x:v>207</x:v>
       </x:c>
       <x:c r="C61" s="0" t="s">
         <x:v>24</x:v>
@@ -7079,10 +7079,10 @@
     </x:row>
     <x:row r="62" spans="1:22">
       <x:c r="A62" s="0" t="s">
+        <x:v>207</x:v>
+      </x:c>
+      <x:c r="B62" s="0" t="s">
         <x:v>208</x:v>
-      </x:c>
-      <x:c r="B62" s="0" t="s">
-        <x:v>209</x:v>
       </x:c>
       <x:c r="C62" s="0" t="s">
         <x:v>24</x:v>
@@ -7147,10 +7147,10 @@
     </x:row>
     <x:row r="63" spans="1:22">
       <x:c r="A63" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="B63" s="0" t="s">
         <x:v>210</x:v>
-      </x:c>
-      <x:c r="B63" s="0" t="s">
-        <x:v>211</x:v>
       </x:c>
       <x:c r="C63" s="0" t="s">
         <x:v>24</x:v>
@@ -7215,10 +7215,10 @@
     </x:row>
     <x:row r="64" spans="1:22">
       <x:c r="A64" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="B64" s="0" t="s">
         <x:v>212</x:v>
-      </x:c>
-      <x:c r="B64" s="0" t="s">
-        <x:v>213</x:v>
       </x:c>
       <x:c r="C64" s="0" t="s">
         <x:v>24</x:v>
@@ -7278,15 +7278,15 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V64" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:22">
       <x:c r="A65" s="0" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="B65" s="0" t="s">
         <x:v>214</x:v>
-      </x:c>
-      <x:c r="B65" s="0" t="s">
-        <x:v>215</x:v>
       </x:c>
       <x:c r="C65" s="0" t="s">
         <x:v>24</x:v>
@@ -7328,7 +7328,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="P65" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="Q65" s="0" t="s">
         <x:v>24</x:v>
@@ -7346,15 +7346,15 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="V65" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>216</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:22">
       <x:c r="A66" s="0" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="B66" s="0" t="s">
         <x:v>218</x:v>
-      </x:c>
-      <x:c r="B66" s="0" t="s">
-        <x:v>219</x:v>
       </x:c>
       <x:c r="C66" s="0" t="s">
         <x:v>24</x:v>
@@ -7414,15 +7414,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V66" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:22">
       <x:c r="A67" s="0" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="B67" s="0" t="s">
         <x:v>220</x:v>
-      </x:c>
-      <x:c r="B67" s="0" t="s">
-        <x:v>221</x:v>
       </x:c>
       <x:c r="C67" s="0" t="s">
         <x:v>24</x:v>
@@ -7437,7 +7437,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="G67" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="H67" s="0" t="s">
         <x:v>24</x:v>
@@ -7482,15 +7482,15 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="V67" s="0" t="s">
-        <x:v>178</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:22">
       <x:c r="A68" s="0" t="s">
+        <x:v>221</x:v>
+      </x:c>
+      <x:c r="B68" s="0" t="s">
         <x:v>222</x:v>
-      </x:c>
-      <x:c r="B68" s="0" t="s">
-        <x:v>223</x:v>
       </x:c>
       <x:c r="C68" s="0" t="s">
         <x:v>24</x:v>
@@ -7505,7 +7505,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="G68" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="H68" s="0" t="s">
         <x:v>24</x:v>
@@ -7550,15 +7550,15 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="V68" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>223</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:22">
       <x:c r="A69" s="0" t="s">
+        <x:v>224</x:v>
+      </x:c>
+      <x:c r="B69" s="0" t="s">
         <x:v>225</x:v>
-      </x:c>
-      <x:c r="B69" s="0" t="s">
-        <x:v>226</x:v>
       </x:c>
       <x:c r="C69" s="0" t="s">
         <x:v>24</x:v>
@@ -7623,10 +7623,10 @@
     </x:row>
     <x:row r="70" spans="1:22">
       <x:c r="A70" s="0" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="B70" s="0" t="s">
         <x:v>227</x:v>
-      </x:c>
-      <x:c r="B70" s="0" t="s">
-        <x:v>228</x:v>
       </x:c>
       <x:c r="C70" s="0" t="s">
         <x:v>24</x:v>
@@ -7641,7 +7641,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="G70" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H70" s="0" t="s">
         <x:v>24</x:v>
@@ -7668,7 +7668,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="P70" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="Q70" s="0" t="s">
         <x:v>25</x:v>
@@ -7686,15 +7686,15 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="V70" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>228</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:22">
       <x:c r="A71" s="0" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="B71" s="0" t="s">
         <x:v>230</x:v>
-      </x:c>
-      <x:c r="B71" s="0" t="s">
-        <x:v>231</x:v>
       </x:c>
       <x:c r="C71" s="0" t="s">
         <x:v>25</x:v>
@@ -7759,11 +7759,11 @@
     </x:row>
     <x:row r="72" spans="1:22">
       <x:c r="A72" s="0" t="s">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="B72" s="0" t="s">
         <x:v>232</x:v>
       </x:c>
-      <x:c r="B72" s="0" t="s">
-        <x:v>233</x:v>
-      </x:c>
       <x:c r="C72" s="0" t="s">
         <x:v>49</x:v>
       </x:c>
@@ -7777,7 +7777,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G72" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="H72" s="0" t="s">
         <x:v>24</x:v>
@@ -7827,10 +7827,10 @@
     </x:row>
     <x:row r="73" spans="1:22">
       <x:c r="A73" s="0" t="s">
+        <x:v>233</x:v>
+      </x:c>
+      <x:c r="B73" s="0" t="s">
         <x:v>234</x:v>
-      </x:c>
-      <x:c r="B73" s="0" t="s">
-        <x:v>235</x:v>
       </x:c>
       <x:c r="C73" s="0" t="s">
         <x:v>24</x:v>
@@ -7890,15 +7890,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V73" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>235</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:22">
       <x:c r="A74" s="0" t="s">
+        <x:v>236</x:v>
+      </x:c>
+      <x:c r="B74" s="0" t="s">
         <x:v>237</x:v>
-      </x:c>
-      <x:c r="B74" s="0" t="s">
-        <x:v>238</x:v>
       </x:c>
       <x:c r="C74" s="0" t="s">
         <x:v>24</x:v>
@@ -7958,15 +7958,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V74" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:22">
       <x:c r="A75" s="0" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="B75" s="0" t="s">
         <x:v>240</x:v>
-      </x:c>
-      <x:c r="B75" s="0" t="s">
-        <x:v>241</x:v>
       </x:c>
       <x:c r="C75" s="0" t="s">
         <x:v>24</x:v>
@@ -8031,10 +8031,10 @@
     </x:row>
     <x:row r="76" spans="1:22">
       <x:c r="A76" s="0" t="s">
+        <x:v>241</x:v>
+      </x:c>
+      <x:c r="B76" s="0" t="s">
         <x:v>242</x:v>
-      </x:c>
-      <x:c r="B76" s="0" t="s">
-        <x:v>243</x:v>
       </x:c>
       <x:c r="C76" s="0" t="s">
         <x:v>33</x:v>
@@ -8070,7 +8070,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="N76" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="O76" s="0" t="s">
         <x:v>25</x:v>
@@ -8094,15 +8094,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V76" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>244</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:22">
       <x:c r="A77" s="0" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="B77" s="0" t="s">
         <x:v>246</x:v>
-      </x:c>
-      <x:c r="B77" s="0" t="s">
-        <x:v>247</x:v>
       </x:c>
       <x:c r="C77" s="0" t="s">
         <x:v>24</x:v>
@@ -8117,7 +8117,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="G77" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="H77" s="0" t="s">
         <x:v>24</x:v>
@@ -8162,15 +8162,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V77" s="0" t="s">
-        <x:v>249</x:v>
+        <x:v>248</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:22">
       <x:c r="A78" s="0" t="s">
+        <x:v>249</x:v>
+      </x:c>
+      <x:c r="B78" s="0" t="s">
         <x:v>250</x:v>
-      </x:c>
-      <x:c r="B78" s="0" t="s">
-        <x:v>251</x:v>
       </x:c>
       <x:c r="C78" s="0" t="s">
         <x:v>24</x:v>
@@ -8235,10 +8235,10 @@
     </x:row>
     <x:row r="79" spans="1:22">
       <x:c r="A79" s="0" t="s">
+        <x:v>251</x:v>
+      </x:c>
+      <x:c r="B79" s="0" t="s">
         <x:v>252</x:v>
-      </x:c>
-      <x:c r="B79" s="0" t="s">
-        <x:v>253</x:v>
       </x:c>
       <x:c r="C79" s="0" t="s">
         <x:v>24</x:v>
@@ -8303,10 +8303,10 @@
     </x:row>
     <x:row r="80" spans="1:22">
       <x:c r="A80" s="0" t="s">
+        <x:v>253</x:v>
+      </x:c>
+      <x:c r="B80" s="0" t="s">
         <x:v>254</x:v>
-      </x:c>
-      <x:c r="B80" s="0" t="s">
-        <x:v>255</x:v>
       </x:c>
       <x:c r="C80" s="0" t="s">
         <x:v>24</x:v>
@@ -8371,10 +8371,10 @@
     </x:row>
     <x:row r="81" spans="1:22">
       <x:c r="A81" s="0" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="B81" s="0" t="s">
         <x:v>256</x:v>
-      </x:c>
-      <x:c r="B81" s="0" t="s">
-        <x:v>257</x:v>
       </x:c>
       <x:c r="C81" s="0" t="s">
         <x:v>24</x:v>
@@ -8439,10 +8439,10 @@
     </x:row>
     <x:row r="82" spans="1:22">
       <x:c r="A82" s="0" t="s">
+        <x:v>257</x:v>
+      </x:c>
+      <x:c r="B82" s="0" t="s">
         <x:v>258</x:v>
-      </x:c>
-      <x:c r="B82" s="0" t="s">
-        <x:v>259</x:v>
       </x:c>
       <x:c r="C82" s="0" t="s">
         <x:v>24</x:v>
@@ -8507,10 +8507,10 @@
     </x:row>
     <x:row r="83" spans="1:22">
       <x:c r="A83" s="0" t="s">
+        <x:v>259</x:v>
+      </x:c>
+      <x:c r="B83" s="0" t="s">
         <x:v>260</x:v>
-      </x:c>
-      <x:c r="B83" s="0" t="s">
-        <x:v>261</x:v>
       </x:c>
       <x:c r="C83" s="0" t="s">
         <x:v>24</x:v>
@@ -8575,10 +8575,10 @@
     </x:row>
     <x:row r="84" spans="1:22">
       <x:c r="A84" s="0" t="s">
+        <x:v>261</x:v>
+      </x:c>
+      <x:c r="B84" s="0" t="s">
         <x:v>262</x:v>
-      </x:c>
-      <x:c r="B84" s="0" t="s">
-        <x:v>263</x:v>
       </x:c>
       <x:c r="C84" s="0" t="s">
         <x:v>25</x:v>
@@ -8614,7 +8614,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N84" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="O84" s="0" t="s">
         <x:v>24</x:v>
@@ -8643,10 +8643,10 @@
     </x:row>
     <x:row r="85" spans="1:22">
       <x:c r="A85" s="0" t="s">
+        <x:v>263</x:v>
+      </x:c>
+      <x:c r="B85" s="0" t="s">
         <x:v>264</x:v>
-      </x:c>
-      <x:c r="B85" s="0" t="s">
-        <x:v>265</x:v>
       </x:c>
       <x:c r="C85" s="0" t="s">
         <x:v>25</x:v>
@@ -8661,7 +8661,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="G85" s="0" t="s">
-        <x:v>266</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="H85" s="0" t="s">
         <x:v>25</x:v>
@@ -8682,7 +8682,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N85" s="0" t="s">
-        <x:v>267</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="O85" s="0" t="s">
         <x:v>24</x:v>
@@ -8706,15 +8706,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V85" s="0" t="s">
-        <x:v>268</x:v>
+        <x:v>267</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:22">
       <x:c r="A86" s="0" t="s">
+        <x:v>268</x:v>
+      </x:c>
+      <x:c r="B86" s="0" t="s">
         <x:v>269</x:v>
-      </x:c>
-      <x:c r="B86" s="0" t="s">
-        <x:v>270</x:v>
       </x:c>
       <x:c r="C86" s="0" t="s">
         <x:v>24</x:v>
@@ -8729,7 +8729,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="G86" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="H86" s="0" t="s">
         <x:v>24</x:v>
@@ -8774,15 +8774,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V86" s="0" t="s">
-        <x:v>271</x:v>
+        <x:v>270</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:22">
       <x:c r="A87" s="0" t="s">
+        <x:v>271</x:v>
+      </x:c>
+      <x:c r="B87" s="0" t="s">
         <x:v>272</x:v>
-      </x:c>
-      <x:c r="B87" s="0" t="s">
-        <x:v>273</x:v>
       </x:c>
       <x:c r="C87" s="0" t="s">
         <x:v>24</x:v>
@@ -8847,10 +8847,10 @@
     </x:row>
     <x:row r="88" spans="1:22">
       <x:c r="A88" s="0" t="s">
+        <x:v>273</x:v>
+      </x:c>
+      <x:c r="B88" s="0" t="s">
         <x:v>274</x:v>
-      </x:c>
-      <x:c r="B88" s="0" t="s">
-        <x:v>275</x:v>
       </x:c>
       <x:c r="C88" s="0" t="s">
         <x:v>25</x:v>
@@ -8865,7 +8865,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G88" s="0" t="s">
-        <x:v>271</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="H88" s="0" t="s">
         <x:v>24</x:v>
@@ -8910,15 +8910,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V88" s="0" t="s">
-        <x:v>276</x:v>
+        <x:v>275</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:22">
       <x:c r="A89" s="0" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="B89" s="0" t="s">
         <x:v>277</x:v>
-      </x:c>
-      <x:c r="B89" s="0" t="s">
-        <x:v>278</x:v>
       </x:c>
       <x:c r="C89" s="0" t="s">
         <x:v>24</x:v>
@@ -8983,10 +8983,10 @@
     </x:row>
     <x:row r="90" spans="1:22">
       <x:c r="A90" s="0" t="s">
+        <x:v>278</x:v>
+      </x:c>
+      <x:c r="B90" s="0" t="s">
         <x:v>279</x:v>
-      </x:c>
-      <x:c r="B90" s="0" t="s">
-        <x:v>280</x:v>
       </x:c>
       <x:c r="C90" s="0" t="s">
         <x:v>24</x:v>
@@ -9051,16 +9051,16 @@
     </x:row>
     <x:row r="91" spans="1:22">
       <x:c r="A91" s="0" t="s">
+        <x:v>280</x:v>
+      </x:c>
+      <x:c r="B91" s="0" t="s">
         <x:v>281</x:v>
       </x:c>
-      <x:c r="B91" s="0" t="s">
-        <x:v>282</x:v>
-      </x:c>
       <x:c r="C91" s="0" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="D91" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="E91" s="0" t="s">
         <x:v>24</x:v>
@@ -9069,7 +9069,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="G91" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="H91" s="0" t="s">
         <x:v>24</x:v>
@@ -9096,7 +9096,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P91" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="Q91" s="0" t="s">
         <x:v>24</x:v>
@@ -9114,30 +9114,30 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V91" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>283</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="1:22">
       <x:c r="A92" s="0" t="s">
+        <x:v>284</x:v>
+      </x:c>
+      <x:c r="B92" s="0" t="s">
         <x:v>285</x:v>
       </x:c>
-      <x:c r="B92" s="0" t="s">
+      <x:c r="C92" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="D92" s="0" t="s">
         <x:v>286</x:v>
       </x:c>
-      <x:c r="C92" s="0" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="D92" s="0" t="s">
+      <x:c r="E92" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F92" s="0" t="s">
         <x:v>287</x:v>
       </x:c>
-      <x:c r="E92" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="F92" s="0" t="s">
-        <x:v>288</x:v>
-      </x:c>
       <x:c r="G92" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="H92" s="0" t="s">
         <x:v>24</x:v>
@@ -9164,7 +9164,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="P92" s="0" t="s">
-        <x:v>289</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="Q92" s="0" t="s">
         <x:v>49</x:v>
@@ -9176,21 +9176,21 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="T92" s="0" t="s">
+        <x:v>289</x:v>
+      </x:c>
+      <x:c r="U92" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="V92" s="0" t="s">
         <x:v>290</x:v>
-      </x:c>
-      <x:c r="U92" s="0" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="V92" s="0" t="s">
-        <x:v>291</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="1:22">
       <x:c r="A93" s="0" t="s">
+        <x:v>291</x:v>
+      </x:c>
+      <x:c r="B93" s="0" t="s">
         <x:v>292</x:v>
-      </x:c>
-      <x:c r="B93" s="0" t="s">
-        <x:v>293</x:v>
       </x:c>
       <x:c r="C93" s="0" t="s">
         <x:v>25</x:v>
@@ -9205,7 +9205,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="G93" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="H93" s="0" t="s">
         <x:v>24</x:v>
@@ -9232,7 +9232,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P93" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q93" s="0" t="s">
         <x:v>25</x:v>
@@ -9255,10 +9255,10 @@
     </x:row>
     <x:row r="94" spans="1:22">
       <x:c r="A94" s="0" t="s">
+        <x:v>293</x:v>
+      </x:c>
+      <x:c r="B94" s="0" t="s">
         <x:v>294</x:v>
-      </x:c>
-      <x:c r="B94" s="0" t="s">
-        <x:v>295</x:v>
       </x:c>
       <x:c r="C94" s="0" t="s">
         <x:v>43</x:v>
@@ -9273,7 +9273,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="G94" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="H94" s="0" t="s">
         <x:v>24</x:v>
@@ -9300,7 +9300,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="P94" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="Q94" s="0" t="s">
         <x:v>24</x:v>
@@ -9315,7 +9315,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="U94" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="V94" s="0" t="s">
         <x:v>297</x:v>
@@ -9341,7 +9341,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G95" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="H95" s="0" t="s">
         <x:v>24</x:v>
@@ -9386,7 +9386,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V95" s="0" t="s">
-        <x:v>266</x:v>
+        <x:v>265</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="1:22">
@@ -9726,7 +9726,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V100" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:22">
@@ -9785,10 +9785,10 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="S101" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="T101" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="U101" s="0" t="s">
         <x:v>317</x:v>
@@ -9862,7 +9862,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V102" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="103" spans="1:22">
@@ -9885,7 +9885,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="G103" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="H103" s="0" t="s">
         <x:v>24</x:v>
@@ -9894,7 +9894,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="J103" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K103" s="0" t="s">
         <x:v>25</x:v>
@@ -9906,7 +9906,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N103" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="O103" s="0" t="s">
         <x:v>27</x:v>
@@ -9930,7 +9930,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V103" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>283</x:v>
       </x:c>
     </x:row>
     <x:row r="104" spans="1:22">
@@ -10080,7 +10080,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="D106" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E106" s="0" t="s">
         <x:v>24</x:v>
@@ -10116,7 +10116,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="P106" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="Q106" s="0" t="s">
         <x:v>24</x:v>
@@ -10148,7 +10148,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="D107" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="E107" s="0" t="s">
         <x:v>24</x:v>
@@ -10178,7 +10178,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N107" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="O107" s="0" t="s">
         <x:v>49</x:v>
@@ -10199,7 +10199,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="U107" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="V107" s="0" t="s">
         <x:v>334</x:v>
@@ -10246,7 +10246,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="N108" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="O108" s="0" t="s">
         <x:v>27</x:v>
@@ -10586,7 +10586,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N113" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="O113" s="0" t="s">
         <x:v>25</x:v>
@@ -10678,7 +10678,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="V114" s="0" t="s">
-        <x:v>288</x:v>
+        <x:v>287</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:22">
@@ -10722,13 +10722,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N115" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="O115" s="0" t="s">
         <x:v>43</x:v>
       </x:c>
       <x:c r="P115" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="Q115" s="0" t="s">
         <x:v>49</x:v>
@@ -11136,7 +11136,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="P121" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="Q121" s="0" t="s">
         <x:v>24</x:v>
@@ -11310,7 +11310,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F124" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="G124" s="0" t="s">
         <x:v>51</x:v>
@@ -11322,7 +11322,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J124" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="K124" s="0" t="s">
         <x:v>24</x:v>
@@ -11334,13 +11334,13 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N124" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="O124" s="0" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="P124" s="0" t="s">
-        <x:v>271</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="Q124" s="0" t="s">
         <x:v>24</x:v>
@@ -11352,10 +11352,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="T124" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="U124" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="V124" s="0" t="s">
         <x:v>373</x:v>
@@ -11408,7 +11408,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="P125" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q125" s="0" t="s">
         <x:v>25</x:v>
@@ -11494,7 +11494,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V126" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="127" spans="1:22">
@@ -11594,7 +11594,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="J128" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K128" s="0" t="s">
         <x:v>24</x:v>
@@ -11810,7 +11810,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N131" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="O131" s="0" t="s">
         <x:v>24</x:v>
@@ -11834,7 +11834,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V131" s="0" t="s">
-        <x:v>287</x:v>
+        <x:v>286</x:v>
       </x:c>
     </x:row>
     <x:row r="132" spans="1:22">
@@ -11902,7 +11902,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V132" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="133" spans="1:22">
@@ -12038,7 +12038,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V134" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
     </x:row>
     <x:row r="135" spans="1:22">
@@ -12085,7 +12085,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="O135" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P135" s="0" t="s">
         <x:v>49</x:v>
@@ -12106,7 +12106,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V135" s="0" t="s">
-        <x:v>267</x:v>
+        <x:v>266</x:v>
       </x:c>
     </x:row>
     <x:row r="136" spans="1:22">
@@ -12286,7 +12286,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N138" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="O138" s="0" t="s">
         <x:v>55</x:v>
@@ -12310,7 +12310,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V138" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>295</x:v>
       </x:c>
     </x:row>
     <x:row r="139" spans="1:22">
@@ -12514,7 +12514,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="V141" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>235</x:v>
       </x:c>
     </x:row>
     <x:row r="142" spans="1:22">
@@ -12632,7 +12632,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="P143" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="Q143" s="0" t="s">
         <x:v>24</x:v>
@@ -12694,7 +12694,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N144" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="O144" s="0" t="s">
         <x:v>24</x:v>
@@ -12718,7 +12718,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V144" s="0" t="s">
-        <x:v>276</x:v>
+        <x:v>275</x:v>
       </x:c>
     </x:row>
     <x:row r="145" spans="1:22">
@@ -12768,7 +12768,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="P145" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="Q145" s="0" t="s">
         <x:v>40</x:v>
@@ -13013,7 +13013,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G149" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H149" s="0" t="s">
         <x:v>24</x:v>
@@ -13034,7 +13034,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N149" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="O149" s="0" t="s">
         <x:v>49</x:v>
@@ -13126,7 +13126,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V150" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="151" spans="1:22">
@@ -13380,7 +13380,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="P154" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="Q154" s="0" t="s">
         <x:v>24</x:v>
@@ -13398,7 +13398,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V154" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>170</x:v>
       </x:c>
     </x:row>
     <x:row r="155" spans="1:22">
@@ -13693,7 +13693,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="G159" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="H159" s="0" t="s">
         <x:v>24</x:v>
@@ -13761,7 +13761,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G160" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="H160" s="0" t="s">
         <x:v>24</x:v>
@@ -13806,7 +13806,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V160" s="0" t="s">
-        <x:v>287</x:v>
+        <x:v>286</x:v>
       </x:c>
     </x:row>
     <x:row r="161" spans="1:22">
@@ -14054,7 +14054,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N164" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O164" s="0" t="s">
         <x:v>24</x:v>
@@ -14078,7 +14078,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V164" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="165" spans="1:22">
@@ -14101,7 +14101,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G165" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="H165" s="0" t="s">
         <x:v>24</x:v>
@@ -14509,7 +14509,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G171" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="H171" s="0" t="s">
         <x:v>24</x:v>
@@ -14530,7 +14530,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="N171" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="O171" s="0" t="s">
         <x:v>24</x:v>
@@ -14645,7 +14645,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G173" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="H173" s="0" t="s">
         <x:v>24</x:v>
@@ -14666,7 +14666,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N173" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="O173" s="0" t="s">
         <x:v>24</x:v>
@@ -14690,7 +14690,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V173" s="0" t="s">
-        <x:v>271</x:v>
+        <x:v>270</x:v>
       </x:c>
     </x:row>
     <x:row r="174" spans="1:22">
@@ -14962,7 +14962,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V177" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="178" spans="1:22">
@@ -15030,7 +15030,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V178" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="179" spans="1:22">
@@ -15148,7 +15148,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="P180" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="Q180" s="0" t="s">
         <x:v>24</x:v>
@@ -15234,7 +15234,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V181" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>235</x:v>
       </x:c>
     </x:row>
     <x:row r="182" spans="1:22">
@@ -15529,7 +15529,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="G186" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="H186" s="0" t="s">
         <x:v>24</x:v>
@@ -15556,7 +15556,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="P186" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="Q186" s="0" t="s">
         <x:v>24</x:v>
@@ -15846,7 +15846,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="V190" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>282</x:v>
       </x:c>
     </x:row>
     <x:row r="191" spans="1:22">
@@ -15869,7 +15869,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G191" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="H191" s="0" t="s">
         <x:v>24</x:v>
@@ -15982,7 +15982,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="V192" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="193" spans="1:22">
@@ -16005,7 +16005,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G193" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="H193" s="0" t="s">
         <x:v>25</x:v>
@@ -16026,7 +16026,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="N193" s="0" t="s">
-        <x:v>267</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="O193" s="0" t="s">
         <x:v>49</x:v>
@@ -16277,7 +16277,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="G197" s="0" t="s">
-        <x:v>271</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="H197" s="0" t="s">
         <x:v>24</x:v>
@@ -16304,7 +16304,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P197" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="Q197" s="0" t="s">
         <x:v>49</x:v>
@@ -16413,7 +16413,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="G199" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="H199" s="0" t="s">
         <x:v>24</x:v>
@@ -16422,7 +16422,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="J199" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K199" s="0" t="s">
         <x:v>24</x:v>
@@ -16502,7 +16502,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N200" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="O200" s="0" t="s">
         <x:v>24</x:v>
@@ -16848,7 +16848,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="P205" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="Q205" s="0" t="s">
         <x:v>24</x:v>
@@ -16916,7 +16916,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P206" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="Q206" s="0" t="s">
         <x:v>24</x:v>
@@ -16928,7 +16928,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="T206" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="U206" s="0" t="s">
         <x:v>60</x:v>
@@ -17025,7 +17025,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G208" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="H208" s="0" t="s">
         <x:v>24</x:v>
@@ -17114,7 +17114,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N209" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="O209" s="0" t="s">
         <x:v>24</x:v>
@@ -17161,7 +17161,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="G210" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="H210" s="0" t="s">
         <x:v>24</x:v>
@@ -17182,7 +17182,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N210" s="0" t="s">
-        <x:v>271</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="O210" s="0" t="s">
         <x:v>25</x:v>
@@ -17433,7 +17433,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="G214" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="H214" s="0" t="s">
         <x:v>24</x:v>
@@ -17454,7 +17454,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N214" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="O214" s="0" t="s">
         <x:v>24</x:v>
@@ -17501,7 +17501,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="G215" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="H215" s="0" t="s">
         <x:v>24</x:v>
@@ -17546,7 +17546,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V215" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>216</x:v>
       </x:c>
     </x:row>
     <x:row r="216" spans="1:22">
@@ -17569,7 +17569,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="G216" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H216" s="0" t="s">
         <x:v>24</x:v>
@@ -17590,7 +17590,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N216" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="O216" s="0" t="s">
         <x:v>24</x:v>
@@ -17614,7 +17614,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V216" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>247</x:v>
       </x:c>
     </x:row>
     <x:row r="217" spans="1:22">
@@ -17637,7 +17637,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="G217" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="H217" s="0" t="s">
         <x:v>24</x:v>
@@ -17726,7 +17726,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N218" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O218" s="0" t="s">
         <x:v>24</x:v>
@@ -17750,7 +17750,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V218" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>282</x:v>
       </x:c>
     </x:row>
     <x:row r="219" spans="1:22">
@@ -17818,7 +17818,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V219" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>235</x:v>
       </x:c>
     </x:row>
     <x:row r="220" spans="1:22">
@@ -17829,7 +17829,7 @@
         <x:v>580</x:v>
       </x:c>
       <x:c r="C220" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D220" s="0" t="s">
         <x:v>128</x:v>
@@ -17859,10 +17859,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="M220" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="N220" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="O220" s="0" t="s">
         <x:v>25</x:v>
@@ -17909,7 +17909,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="G221" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="H221" s="0" t="s">
         <x:v>24</x:v>
@@ -17930,7 +17930,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N221" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="O221" s="0" t="s">
         <x:v>24</x:v>
@@ -17954,7 +17954,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V221" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="222" spans="1:22">
@@ -18090,7 +18090,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V223" s="0" t="s">
-        <x:v>266</x:v>
+        <x:v>265</x:v>
       </x:c>
     </x:row>
     <x:row r="224" spans="1:22">
@@ -18276,7 +18276,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P226" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="Q226" s="0" t="s">
         <x:v>40</x:v>
@@ -18542,7 +18542,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N230" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="O230" s="0" t="s">
         <x:v>24</x:v>
@@ -18589,7 +18589,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G231" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="H231" s="0" t="s">
         <x:v>24</x:v>
@@ -18610,7 +18610,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="N231" s="0" t="s">
-        <x:v>266</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="O231" s="0" t="s">
         <x:v>27</x:v>
@@ -18657,7 +18657,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="G232" s="0" t="s">
-        <x:v>271</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="H232" s="0" t="s">
         <x:v>24</x:v>
@@ -18906,7 +18906,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V235" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>235</x:v>
       </x:c>
     </x:row>
     <x:row r="236" spans="1:22">
@@ -19092,7 +19092,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="P238" s="0" t="s">
-        <x:v>271</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="Q238" s="0" t="s">
         <x:v>24</x:v>
@@ -19269,7 +19269,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="G241" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H241" s="0" t="s">
         <x:v>24</x:v>
@@ -19290,7 +19290,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N241" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="O241" s="0" t="s">
         <x:v>24</x:v>
@@ -19518,7 +19518,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V244" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>235</x:v>
       </x:c>
     </x:row>
     <x:row r="245" spans="1:22">
@@ -19568,7 +19568,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="P245" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="Q245" s="0" t="s">
         <x:v>24</x:v>
@@ -19677,7 +19677,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G247" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="H247" s="0" t="s">
         <x:v>24</x:v>
@@ -19722,7 +19722,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V247" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="248" spans="1:22">
@@ -19881,7 +19881,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="G250" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="H250" s="0" t="s">
         <x:v>49</x:v>
@@ -19926,7 +19926,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="V250" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
     </x:row>
     <x:row r="251" spans="1:22">
@@ -19949,7 +19949,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G251" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="H251" s="0" t="s">
         <x:v>24</x:v>
@@ -19994,7 +19994,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V251" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
     </x:row>
     <x:row r="252" spans="1:22">
@@ -20017,7 +20017,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="G252" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H252" s="0" t="s">
         <x:v>24</x:v>
@@ -20062,7 +20062,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V252" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
     </x:row>
     <x:row r="253" spans="1:22">
@@ -20144,16 +20144,16 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="D254" s="0" t="s">
-        <x:v>266</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="E254" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
       <x:c r="F254" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="G254" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="H254" s="0" t="s">
         <x:v>27</x:v>
@@ -20162,7 +20162,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="J254" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="K254" s="0" t="s">
         <x:v>49</x:v>
@@ -20192,7 +20192,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="T254" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="U254" s="0" t="s">
         <x:v>25</x:v>
@@ -20280,13 +20280,13 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="D256" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="E256" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="F256" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="G256" s="0" t="s">
         <x:v>66</x:v>
@@ -20295,10 +20295,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="I256" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="J256" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="K256" s="0" t="s">
         <x:v>24</x:v>
@@ -20331,7 +20331,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="U256" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="V256" s="0" t="s">
         <x:v>661</x:v>
@@ -20452,7 +20452,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="P258" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="Q258" s="0" t="s">
         <x:v>24</x:v>
@@ -20464,7 +20464,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="T258" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="U258" s="0" t="s">
         <x:v>28</x:v>
@@ -20514,7 +20514,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N259" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="O259" s="0" t="s">
         <x:v>25</x:v>
@@ -20588,7 +20588,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P260" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="Q260" s="0" t="s">
         <x:v>25</x:v>
@@ -20697,7 +20697,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G262" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H262" s="0" t="s">
         <x:v>24</x:v>
@@ -20742,7 +20742,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V262" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>282</x:v>
       </x:c>
     </x:row>
     <x:row r="263" spans="1:22">
@@ -20810,7 +20810,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V263" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="264" spans="1:22">
@@ -21218,7 +21218,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V269" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="270" spans="1:22">
@@ -21232,13 +21232,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="D270" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="E270" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F270" s="0" t="s">
         <x:v>89</x:v>
-      </x:c>
-      <x:c r="E270" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="F270" s="0" t="s">
-        <x:v>90</x:v>
       </x:c>
       <x:c r="G270" s="0" t="s">
         <x:v>695</x:v>
@@ -21265,7 +21265,7 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="O270" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P270" s="0" t="s">
         <x:v>140</x:v>
@@ -21377,7 +21377,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G272" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="H272" s="0" t="s">
         <x:v>24</x:v>
@@ -21422,7 +21422,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V272" s="0" t="s">
-        <x:v>266</x:v>
+        <x:v>265</x:v>
       </x:c>
     </x:row>
     <x:row r="273" spans="1:22">
@@ -21581,7 +21581,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G275" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="H275" s="0" t="s">
         <x:v>24</x:v>
@@ -21762,7 +21762,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V277" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="278" spans="1:22">
@@ -21785,7 +21785,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G278" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="H278" s="0" t="s">
         <x:v>24</x:v>
@@ -22261,7 +22261,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="G285" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="H285" s="0" t="s">
         <x:v>24</x:v>
@@ -22646,7 +22646,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V290" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="291" spans="1:22">
@@ -22850,7 +22850,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V293" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
     </x:row>
     <x:row r="294" spans="1:22">
@@ -23190,7 +23190,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V298" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="299" spans="1:22">
@@ -23408,13 +23408,13 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="D302" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E302" s="0" t="s">
         <x:v>49</x:v>
       </x:c>
       <x:c r="F302" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="G302" s="0" t="s">
         <x:v>762</x:v>
@@ -23438,10 +23438,10 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="N302" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="O302" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="P302" s="0" t="s">
         <x:v>628</x:v>
@@ -23456,7 +23456,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="T302" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="U302" s="0" t="s">
         <x:v>55</x:v>
@@ -23553,7 +23553,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="G304" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="H304" s="0" t="s">
         <x:v>25</x:v>
@@ -23574,7 +23574,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N304" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O304" s="0" t="s">
         <x:v>24</x:v>
@@ -23666,7 +23666,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V305" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>247</x:v>
       </x:c>
     </x:row>
     <x:row r="306" spans="1:22">
@@ -23689,7 +23689,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G306" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H306" s="0" t="s">
         <x:v>24</x:v>
@@ -23734,7 +23734,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V306" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>215</x:v>
       </x:c>
     </x:row>
     <x:row r="307" spans="1:22">
@@ -23784,7 +23784,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="P307" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="Q307" s="0" t="s">
         <x:v>25</x:v>
@@ -23825,7 +23825,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="G308" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="H308" s="0" t="s">
         <x:v>24</x:v>
@@ -23914,7 +23914,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="N309" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="O309" s="0" t="s">
         <x:v>27</x:v>
@@ -23961,7 +23961,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="G310" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H310" s="0" t="s">
         <x:v>24</x:v>
@@ -24006,7 +24006,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V310" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>235</x:v>
       </x:c>
     </x:row>
     <x:row r="311" spans="1:22">
@@ -24301,7 +24301,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G315" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="H315" s="0" t="s">
         <x:v>24</x:v>
@@ -24322,7 +24322,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N315" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="O315" s="0" t="s">
         <x:v>24</x:v>
@@ -24526,7 +24526,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N318" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="O318" s="0" t="s">
         <x:v>24</x:v>
@@ -24659,7 +24659,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="M320" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="N320" s="0" t="s">
         <x:v>802</x:v>
@@ -24680,10 +24680,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="T320" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="U320" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="V320" s="0" t="s">
         <x:v>803</x:v>
@@ -24958,7 +24958,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V324" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>295</x:v>
       </x:c>
     </x:row>
     <x:row r="325" spans="1:22">
@@ -25117,7 +25117,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="G327" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="H327" s="0" t="s">
         <x:v>24</x:v>
@@ -25126,7 +25126,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="J327" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="K327" s="0" t="s">
         <x:v>24</x:v>
@@ -25138,7 +25138,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="N327" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="O327" s="0" t="s">
         <x:v>49</x:v>
@@ -25156,10 +25156,10 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="T327" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="U327" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="V327" s="0" t="s">
         <x:v>818</x:v>
@@ -25206,7 +25206,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N328" s="0" t="s">
-        <x:v>287</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="O328" s="0" t="s">
         <x:v>24</x:v>
@@ -25298,7 +25298,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V329" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>215</x:v>
       </x:c>
     </x:row>
     <x:row r="330" spans="1:22">
@@ -25389,7 +25389,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="G331" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="H331" s="0" t="s">
         <x:v>24</x:v>
@@ -25410,7 +25410,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N331" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="O331" s="0" t="s">
         <x:v>24</x:v>
@@ -25525,7 +25525,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G333" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="H333" s="0" t="s">
         <x:v>24</x:v>
@@ -25570,7 +25570,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V333" s="0" t="s">
-        <x:v>287</x:v>
+        <x:v>286</x:v>
       </x:c>
     </x:row>
     <x:row r="334" spans="1:22">
@@ -25593,7 +25593,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="G334" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="H334" s="0" t="s">
         <x:v>24</x:v>
@@ -25614,7 +25614,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N334" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="O334" s="0" t="s">
         <x:v>24</x:v>
@@ -25638,7 +25638,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V334" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>223</x:v>
       </x:c>
     </x:row>
     <x:row r="335" spans="1:22">
@@ -25661,7 +25661,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G335" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="H335" s="0" t="s">
         <x:v>24</x:v>
@@ -25729,7 +25729,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="G336" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H336" s="0" t="s">
         <x:v>24</x:v>
@@ -25797,7 +25797,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="G337" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="H337" s="0" t="s">
         <x:v>24</x:v>
@@ -25818,7 +25818,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N337" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="O337" s="0" t="s">
         <x:v>24</x:v>
@@ -25836,7 +25836,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="T337" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="U337" s="0" t="s">
         <x:v>24</x:v>
@@ -26001,7 +26001,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="G340" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="H340" s="0" t="s">
         <x:v>24</x:v>
@@ -26114,7 +26114,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V341" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
@@ -1762,10 +1762,13 @@
     <x:t>203</x:t>
   </x:si>
   <x:si>
+    <x:t>104</x:t>
+  </x:si>
+  <x:si>
     <x:t>107</x:t>
   </x:si>
   <x:si>
-    <x:t>681</x:t>
+    <x:t>680</x:t>
   </x:si>
   <x:si>
     <x:t>MN0621000</x:t>
@@ -17862,13 +17865,13 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="N220" s="0" t="s">
-        <x:v>193</x:v>
+        <x:v>582</x:v>
       </x:c>
       <x:c r="O220" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="P220" s="0" t="s">
-        <x:v>582</x:v>
+        <x:v>583</x:v>
       </x:c>
       <x:c r="Q220" s="0" t="s">
         <x:v>32</x:v>
@@ -17886,15 +17889,15 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="V220" s="0" t="s">
-        <x:v>583</x:v>
+        <x:v>584</x:v>
       </x:c>
     </x:row>
     <x:row r="221" spans="1:22">
       <x:c r="A221" s="0" t="s">
-        <x:v>584</x:v>
+        <x:v>585</x:v>
       </x:c>
       <x:c r="B221" s="0" t="s">
-        <x:v>585</x:v>
+        <x:v>586</x:v>
       </x:c>
       <x:c r="C221" s="0" t="s">
         <x:v>24</x:v>
@@ -17959,10 +17962,10 @@
     </x:row>
     <x:row r="222" spans="1:22">
       <x:c r="A222" s="0" t="s">
-        <x:v>586</x:v>
+        <x:v>587</x:v>
       </x:c>
       <x:c r="B222" s="0" t="s">
-        <x:v>587</x:v>
+        <x:v>588</x:v>
       </x:c>
       <x:c r="C222" s="0" t="s">
         <x:v>24</x:v>
@@ -18027,10 +18030,10 @@
     </x:row>
     <x:row r="223" spans="1:22">
       <x:c r="A223" s="0" t="s">
-        <x:v>588</x:v>
+        <x:v>589</x:v>
       </x:c>
       <x:c r="B223" s="0" t="s">
-        <x:v>589</x:v>
+        <x:v>590</x:v>
       </x:c>
       <x:c r="C223" s="0" t="s">
         <x:v>24</x:v>
@@ -18095,10 +18098,10 @@
     </x:row>
     <x:row r="224" spans="1:22">
       <x:c r="A224" s="0" t="s">
-        <x:v>590</x:v>
+        <x:v>591</x:v>
       </x:c>
       <x:c r="B224" s="0" t="s">
-        <x:v>591</x:v>
+        <x:v>592</x:v>
       </x:c>
       <x:c r="C224" s="0" t="s">
         <x:v>24</x:v>
@@ -18163,10 +18166,10 @@
     </x:row>
     <x:row r="225" spans="1:22">
       <x:c r="A225" s="0" t="s">
-        <x:v>592</x:v>
+        <x:v>593</x:v>
       </x:c>
       <x:c r="B225" s="0" t="s">
-        <x:v>593</x:v>
+        <x:v>594</x:v>
       </x:c>
       <x:c r="C225" s="0" t="s">
         <x:v>24</x:v>
@@ -18231,10 +18234,10 @@
     </x:row>
     <x:row r="226" spans="1:22">
       <x:c r="A226" s="0" t="s">
-        <x:v>594</x:v>
+        <x:v>595</x:v>
       </x:c>
       <x:c r="B226" s="0" t="s">
-        <x:v>595</x:v>
+        <x:v>596</x:v>
       </x:c>
       <x:c r="C226" s="0" t="s">
         <x:v>24</x:v>
@@ -18294,15 +18297,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V226" s="0" t="s">
-        <x:v>596</x:v>
+        <x:v>597</x:v>
       </x:c>
     </x:row>
     <x:row r="227" spans="1:22">
       <x:c r="A227" s="0" t="s">
-        <x:v>597</x:v>
+        <x:v>598</x:v>
       </x:c>
       <x:c r="B227" s="0" t="s">
-        <x:v>598</x:v>
+        <x:v>599</x:v>
       </x:c>
       <x:c r="C227" s="0" t="s">
         <x:v>24</x:v>
@@ -18367,10 +18370,10 @@
     </x:row>
     <x:row r="228" spans="1:22">
       <x:c r="A228" s="0" t="s">
-        <x:v>599</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="B228" s="0" t="s">
-        <x:v>600</x:v>
+        <x:v>601</x:v>
       </x:c>
       <x:c r="C228" s="0" t="s">
         <x:v>24</x:v>
@@ -18435,10 +18438,10 @@
     </x:row>
     <x:row r="229" spans="1:22">
       <x:c r="A229" s="0" t="s">
-        <x:v>601</x:v>
+        <x:v>602</x:v>
       </x:c>
       <x:c r="B229" s="0" t="s">
-        <x:v>602</x:v>
+        <x:v>603</x:v>
       </x:c>
       <x:c r="C229" s="0" t="s">
         <x:v>24</x:v>
@@ -18503,10 +18506,10 @@
     </x:row>
     <x:row r="230" spans="1:22">
       <x:c r="A230" s="0" t="s">
-        <x:v>603</x:v>
+        <x:v>604</x:v>
       </x:c>
       <x:c r="B230" s="0" t="s">
-        <x:v>604</x:v>
+        <x:v>605</x:v>
       </x:c>
       <x:c r="C230" s="0" t="s">
         <x:v>24</x:v>
@@ -18571,10 +18574,10 @@
     </x:row>
     <x:row r="231" spans="1:22">
       <x:c r="A231" s="0" t="s">
-        <x:v>605</x:v>
+        <x:v>606</x:v>
       </x:c>
       <x:c r="B231" s="0" t="s">
-        <x:v>606</x:v>
+        <x:v>607</x:v>
       </x:c>
       <x:c r="C231" s="0" t="s">
         <x:v>24</x:v>
@@ -18634,15 +18637,15 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="V231" s="0" t="s">
-        <x:v>607</x:v>
+        <x:v>608</x:v>
       </x:c>
     </x:row>
     <x:row r="232" spans="1:22">
       <x:c r="A232" s="0" t="s">
-        <x:v>608</x:v>
+        <x:v>609</x:v>
       </x:c>
       <x:c r="B232" s="0" t="s">
-        <x:v>609</x:v>
+        <x:v>610</x:v>
       </x:c>
       <x:c r="C232" s="0" t="s">
         <x:v>40</x:v>
@@ -18707,10 +18710,10 @@
     </x:row>
     <x:row r="233" spans="1:22">
       <x:c r="A233" s="0" t="s">
-        <x:v>610</x:v>
+        <x:v>611</x:v>
       </x:c>
       <x:c r="B233" s="0" t="s">
-        <x:v>611</x:v>
+        <x:v>612</x:v>
       </x:c>
       <x:c r="C233" s="0" t="s">
         <x:v>24</x:v>
@@ -18775,10 +18778,10 @@
     </x:row>
     <x:row r="234" spans="1:22">
       <x:c r="A234" s="0" t="s">
-        <x:v>612</x:v>
+        <x:v>613</x:v>
       </x:c>
       <x:c r="B234" s="0" t="s">
-        <x:v>613</x:v>
+        <x:v>614</x:v>
       </x:c>
       <x:c r="C234" s="0" t="s">
         <x:v>24</x:v>
@@ -18843,10 +18846,10 @@
     </x:row>
     <x:row r="235" spans="1:22">
       <x:c r="A235" s="0" t="s">
-        <x:v>614</x:v>
+        <x:v>615</x:v>
       </x:c>
       <x:c r="B235" s="0" t="s">
-        <x:v>615</x:v>
+        <x:v>616</x:v>
       </x:c>
       <x:c r="C235" s="0" t="s">
         <x:v>24</x:v>
@@ -18911,10 +18914,10 @@
     </x:row>
     <x:row r="236" spans="1:22">
       <x:c r="A236" s="0" t="s">
-        <x:v>616</x:v>
+        <x:v>617</x:v>
       </x:c>
       <x:c r="B236" s="0" t="s">
-        <x:v>617</x:v>
+        <x:v>618</x:v>
       </x:c>
       <x:c r="C236" s="0" t="s">
         <x:v>24</x:v>
@@ -18979,10 +18982,10 @@
     </x:row>
     <x:row r="237" spans="1:22">
       <x:c r="A237" s="0" t="s">
-        <x:v>618</x:v>
+        <x:v>619</x:v>
       </x:c>
       <x:c r="B237" s="0" t="s">
-        <x:v>619</x:v>
+        <x:v>620</x:v>
       </x:c>
       <x:c r="C237" s="0" t="s">
         <x:v>24</x:v>
@@ -19047,10 +19050,10 @@
     </x:row>
     <x:row r="238" spans="1:22">
       <x:c r="A238" s="0" t="s">
-        <x:v>620</x:v>
+        <x:v>621</x:v>
       </x:c>
       <x:c r="B238" s="0" t="s">
-        <x:v>621</x:v>
+        <x:v>622</x:v>
       </x:c>
       <x:c r="C238" s="0" t="s">
         <x:v>24</x:v>
@@ -19115,10 +19118,10 @@
     </x:row>
     <x:row r="239" spans="1:22">
       <x:c r="A239" s="0" t="s">
-        <x:v>622</x:v>
+        <x:v>623</x:v>
       </x:c>
       <x:c r="B239" s="0" t="s">
-        <x:v>623</x:v>
+        <x:v>624</x:v>
       </x:c>
       <x:c r="C239" s="0" t="s">
         <x:v>24</x:v>
@@ -19183,10 +19186,10 @@
     </x:row>
     <x:row r="240" spans="1:22">
       <x:c r="A240" s="0" t="s">
-        <x:v>624</x:v>
+        <x:v>625</x:v>
       </x:c>
       <x:c r="B240" s="0" t="s">
-        <x:v>625</x:v>
+        <x:v>626</x:v>
       </x:c>
       <x:c r="C240" s="0" t="s">
         <x:v>24</x:v>
@@ -19251,10 +19254,10 @@
     </x:row>
     <x:row r="241" spans="1:22">
       <x:c r="A241" s="0" t="s">
-        <x:v>626</x:v>
+        <x:v>627</x:v>
       </x:c>
       <x:c r="B241" s="0" t="s">
-        <x:v>627</x:v>
+        <x:v>628</x:v>
       </x:c>
       <x:c r="C241" s="0" t="s">
         <x:v>24</x:v>
@@ -19314,15 +19317,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V241" s="0" t="s">
-        <x:v>628</x:v>
+        <x:v>629</x:v>
       </x:c>
     </x:row>
     <x:row r="242" spans="1:22">
       <x:c r="A242" s="0" t="s">
-        <x:v>629</x:v>
+        <x:v>630</x:v>
       </x:c>
       <x:c r="B242" s="0" t="s">
-        <x:v>630</x:v>
+        <x:v>631</x:v>
       </x:c>
       <x:c r="C242" s="0" t="s">
         <x:v>24</x:v>
@@ -19387,10 +19390,10 @@
     </x:row>
     <x:row r="243" spans="1:22">
       <x:c r="A243" s="0" t="s">
-        <x:v>631</x:v>
+        <x:v>632</x:v>
       </x:c>
       <x:c r="B243" s="0" t="s">
-        <x:v>632</x:v>
+        <x:v>633</x:v>
       </x:c>
       <x:c r="C243" s="0" t="s">
         <x:v>24</x:v>
@@ -19455,10 +19458,10 @@
     </x:row>
     <x:row r="244" spans="1:22">
       <x:c r="A244" s="0" t="s">
-        <x:v>633</x:v>
+        <x:v>634</x:v>
       </x:c>
       <x:c r="B244" s="0" t="s">
-        <x:v>634</x:v>
+        <x:v>635</x:v>
       </x:c>
       <x:c r="C244" s="0" t="s">
         <x:v>24</x:v>
@@ -19523,10 +19526,10 @@
     </x:row>
     <x:row r="245" spans="1:22">
       <x:c r="A245" s="0" t="s">
-        <x:v>635</x:v>
+        <x:v>636</x:v>
       </x:c>
       <x:c r="B245" s="0" t="s">
-        <x:v>636</x:v>
+        <x:v>637</x:v>
       </x:c>
       <x:c r="C245" s="0" t="s">
         <x:v>24</x:v>
@@ -19591,10 +19594,10 @@
     </x:row>
     <x:row r="246" spans="1:22">
       <x:c r="A246" s="0" t="s">
-        <x:v>637</x:v>
+        <x:v>638</x:v>
       </x:c>
       <x:c r="B246" s="0" t="s">
-        <x:v>638</x:v>
+        <x:v>639</x:v>
       </x:c>
       <x:c r="C246" s="0" t="s">
         <x:v>24</x:v>
@@ -19659,10 +19662,10 @@
     </x:row>
     <x:row r="247" spans="1:22">
       <x:c r="A247" s="0" t="s">
-        <x:v>639</x:v>
+        <x:v>640</x:v>
       </x:c>
       <x:c r="B247" s="0" t="s">
-        <x:v>640</x:v>
+        <x:v>641</x:v>
       </x:c>
       <x:c r="C247" s="0" t="s">
         <x:v>24</x:v>
@@ -19727,10 +19730,10 @@
     </x:row>
     <x:row r="248" spans="1:22">
       <x:c r="A248" s="0" t="s">
-        <x:v>641</x:v>
+        <x:v>642</x:v>
       </x:c>
       <x:c r="B248" s="0" t="s">
-        <x:v>642</x:v>
+        <x:v>643</x:v>
       </x:c>
       <x:c r="C248" s="0" t="s">
         <x:v>24</x:v>
@@ -19795,10 +19798,10 @@
     </x:row>
     <x:row r="249" spans="1:22">
       <x:c r="A249" s="0" t="s">
-        <x:v>643</x:v>
+        <x:v>644</x:v>
       </x:c>
       <x:c r="B249" s="0" t="s">
-        <x:v>644</x:v>
+        <x:v>645</x:v>
       </x:c>
       <x:c r="C249" s="0" t="s">
         <x:v>24</x:v>
@@ -19863,10 +19866,10 @@
     </x:row>
     <x:row r="250" spans="1:22">
       <x:c r="A250" s="0" t="s">
-        <x:v>645</x:v>
+        <x:v>646</x:v>
       </x:c>
       <x:c r="B250" s="0" t="s">
-        <x:v>646</x:v>
+        <x:v>647</x:v>
       </x:c>
       <x:c r="C250" s="0" t="s">
         <x:v>25</x:v>
@@ -19931,10 +19934,10 @@
     </x:row>
     <x:row r="251" spans="1:22">
       <x:c r="A251" s="0" t="s">
-        <x:v>647</x:v>
+        <x:v>648</x:v>
       </x:c>
       <x:c r="B251" s="0" t="s">
-        <x:v>648</x:v>
+        <x:v>649</x:v>
       </x:c>
       <x:c r="C251" s="0" t="s">
         <x:v>24</x:v>
@@ -19999,10 +20002,10 @@
     </x:row>
     <x:row r="252" spans="1:22">
       <x:c r="A252" s="0" t="s">
-        <x:v>649</x:v>
+        <x:v>650</x:v>
       </x:c>
       <x:c r="B252" s="0" t="s">
-        <x:v>650</x:v>
+        <x:v>651</x:v>
       </x:c>
       <x:c r="C252" s="0" t="s">
         <x:v>24</x:v>
@@ -20067,10 +20070,10 @@
     </x:row>
     <x:row r="253" spans="1:22">
       <x:c r="A253" s="0" t="s">
-        <x:v>651</x:v>
+        <x:v>652</x:v>
       </x:c>
       <x:c r="B253" s="0" t="s">
-        <x:v>652</x:v>
+        <x:v>653</x:v>
       </x:c>
       <x:c r="C253" s="0" t="s">
         <x:v>24</x:v>
@@ -20135,10 +20138,10 @@
     </x:row>
     <x:row r="254" spans="1:22">
       <x:c r="A254" s="0" t="s">
-        <x:v>653</x:v>
+        <x:v>654</x:v>
       </x:c>
       <x:c r="B254" s="0" t="s">
-        <x:v>654</x:v>
+        <x:v>655</x:v>
       </x:c>
       <x:c r="C254" s="0" t="s">
         <x:v>49</x:v>
@@ -20174,7 +20177,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N254" s="0" t="s">
-        <x:v>655</x:v>
+        <x:v>656</x:v>
       </x:c>
       <x:c r="O254" s="0" t="s">
         <x:v>55</x:v>
@@ -20198,15 +20201,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V254" s="0" t="s">
-        <x:v>656</x:v>
+        <x:v>657</x:v>
       </x:c>
     </x:row>
     <x:row r="255" spans="1:22">
       <x:c r="A255" s="0" t="s">
-        <x:v>657</x:v>
+        <x:v>658</x:v>
       </x:c>
       <x:c r="B255" s="0" t="s">
-        <x:v>658</x:v>
+        <x:v>659</x:v>
       </x:c>
       <x:c r="C255" s="0" t="s">
         <x:v>24</x:v>
@@ -20271,10 +20274,10 @@
     </x:row>
     <x:row r="256" spans="1:22">
       <x:c r="A256" s="0" t="s">
-        <x:v>659</x:v>
+        <x:v>660</x:v>
       </x:c>
       <x:c r="B256" s="0" t="s">
-        <x:v>660</x:v>
+        <x:v>661</x:v>
       </x:c>
       <x:c r="C256" s="0" t="s">
         <x:v>25</x:v>
@@ -20334,15 +20337,15 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="V256" s="0" t="s">
-        <x:v>661</x:v>
+        <x:v>662</x:v>
       </x:c>
     </x:row>
     <x:row r="257" spans="1:22">
       <x:c r="A257" s="0" t="s">
-        <x:v>662</x:v>
+        <x:v>663</x:v>
       </x:c>
       <x:c r="B257" s="0" t="s">
-        <x:v>663</x:v>
+        <x:v>664</x:v>
       </x:c>
       <x:c r="C257" s="0" t="s">
         <x:v>24</x:v>
@@ -20407,10 +20410,10 @@
     </x:row>
     <x:row r="258" spans="1:22">
       <x:c r="A258" s="0" t="s">
-        <x:v>664</x:v>
+        <x:v>665</x:v>
       </x:c>
       <x:c r="B258" s="0" t="s">
-        <x:v>665</x:v>
+        <x:v>666</x:v>
       </x:c>
       <x:c r="C258" s="0" t="s">
         <x:v>24</x:v>
@@ -20425,7 +20428,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="G258" s="0" t="s">
-        <x:v>666</x:v>
+        <x:v>667</x:v>
       </x:c>
       <x:c r="H258" s="0" t="s">
         <x:v>24</x:v>
@@ -20470,15 +20473,15 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="V258" s="0" t="s">
-        <x:v>667</x:v>
+        <x:v>668</x:v>
       </x:c>
     </x:row>
     <x:row r="259" spans="1:22">
       <x:c r="A259" s="0" t="s">
-        <x:v>668</x:v>
+        <x:v>669</x:v>
       </x:c>
       <x:c r="B259" s="0" t="s">
-        <x:v>669</x:v>
+        <x:v>670</x:v>
       </x:c>
       <x:c r="C259" s="0" t="s">
         <x:v>24</x:v>
@@ -20538,15 +20541,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V259" s="0" t="s">
-        <x:v>666</x:v>
+        <x:v>667</x:v>
       </x:c>
     </x:row>
     <x:row r="260" spans="1:22">
       <x:c r="A260" s="0" t="s">
-        <x:v>670</x:v>
+        <x:v>671</x:v>
       </x:c>
       <x:c r="B260" s="0" t="s">
-        <x:v>671</x:v>
+        <x:v>672</x:v>
       </x:c>
       <x:c r="C260" s="0" t="s">
         <x:v>24</x:v>
@@ -20561,7 +20564,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="G260" s="0" t="s">
-        <x:v>672</x:v>
+        <x:v>673</x:v>
       </x:c>
       <x:c r="H260" s="0" t="s">
         <x:v>25</x:v>
@@ -20611,10 +20614,10 @@
     </x:row>
     <x:row r="261" spans="1:22">
       <x:c r="A261" s="0" t="s">
-        <x:v>673</x:v>
+        <x:v>674</x:v>
       </x:c>
       <x:c r="B261" s="0" t="s">
-        <x:v>674</x:v>
+        <x:v>675</x:v>
       </x:c>
       <x:c r="C261" s="0" t="s">
         <x:v>24</x:v>
@@ -20679,10 +20682,10 @@
     </x:row>
     <x:row r="262" spans="1:22">
       <x:c r="A262" s="0" t="s">
-        <x:v>675</x:v>
+        <x:v>676</x:v>
       </x:c>
       <x:c r="B262" s="0" t="s">
-        <x:v>676</x:v>
+        <x:v>677</x:v>
       </x:c>
       <x:c r="C262" s="0" t="s">
         <x:v>24</x:v>
@@ -20747,10 +20750,10 @@
     </x:row>
     <x:row r="263" spans="1:22">
       <x:c r="A263" s="0" t="s">
-        <x:v>677</x:v>
+        <x:v>678</x:v>
       </x:c>
       <x:c r="B263" s="0" t="s">
-        <x:v>678</x:v>
+        <x:v>679</x:v>
       </x:c>
       <x:c r="C263" s="0" t="s">
         <x:v>24</x:v>
@@ -20815,10 +20818,10 @@
     </x:row>
     <x:row r="264" spans="1:22">
       <x:c r="A264" s="0" t="s">
-        <x:v>679</x:v>
+        <x:v>680</x:v>
       </x:c>
       <x:c r="B264" s="0" t="s">
-        <x:v>680</x:v>
+        <x:v>681</x:v>
       </x:c>
       <x:c r="C264" s="0" t="s">
         <x:v>24</x:v>
@@ -20883,10 +20886,10 @@
     </x:row>
     <x:row r="265" spans="1:22">
       <x:c r="A265" s="0" t="s">
-        <x:v>681</x:v>
+        <x:v>682</x:v>
       </x:c>
       <x:c r="B265" s="0" t="s">
-        <x:v>682</x:v>
+        <x:v>683</x:v>
       </x:c>
       <x:c r="C265" s="0" t="s">
         <x:v>24</x:v>
@@ -20951,10 +20954,10 @@
     </x:row>
     <x:row r="266" spans="1:22">
       <x:c r="A266" s="0" t="s">
-        <x:v>683</x:v>
+        <x:v>684</x:v>
       </x:c>
       <x:c r="B266" s="0" t="s">
-        <x:v>684</x:v>
+        <x:v>685</x:v>
       </x:c>
       <x:c r="C266" s="0" t="s">
         <x:v>24</x:v>
@@ -20969,7 +20972,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="G266" s="0" t="s">
-        <x:v>685</x:v>
+        <x:v>686</x:v>
       </x:c>
       <x:c r="H266" s="0" t="s">
         <x:v>24</x:v>
@@ -21014,15 +21017,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V266" s="0" t="s">
-        <x:v>686</x:v>
+        <x:v>687</x:v>
       </x:c>
     </x:row>
     <x:row r="267" spans="1:22">
       <x:c r="A267" s="0" t="s">
-        <x:v>687</x:v>
+        <x:v>688</x:v>
       </x:c>
       <x:c r="B267" s="0" t="s">
-        <x:v>688</x:v>
+        <x:v>689</x:v>
       </x:c>
       <x:c r="C267" s="0" t="s">
         <x:v>24</x:v>
@@ -21087,10 +21090,10 @@
     </x:row>
     <x:row r="268" spans="1:22">
       <x:c r="A268" s="0" t="s">
-        <x:v>689</x:v>
+        <x:v>690</x:v>
       </x:c>
       <x:c r="B268" s="0" t="s">
-        <x:v>690</x:v>
+        <x:v>691</x:v>
       </x:c>
       <x:c r="C268" s="0" t="s">
         <x:v>24</x:v>
@@ -21155,10 +21158,10 @@
     </x:row>
     <x:row r="269" spans="1:22">
       <x:c r="A269" s="0" t="s">
-        <x:v>691</x:v>
+        <x:v>692</x:v>
       </x:c>
       <x:c r="B269" s="0" t="s">
-        <x:v>692</x:v>
+        <x:v>693</x:v>
       </x:c>
       <x:c r="C269" s="0" t="s">
         <x:v>24</x:v>
@@ -21223,10 +21226,10 @@
     </x:row>
     <x:row r="270" spans="1:22">
       <x:c r="A270" s="0" t="s">
-        <x:v>693</x:v>
+        <x:v>694</x:v>
       </x:c>
       <x:c r="B270" s="0" t="s">
-        <x:v>694</x:v>
+        <x:v>695</x:v>
       </x:c>
       <x:c r="C270" s="0" t="s">
         <x:v>49</x:v>
@@ -21241,7 +21244,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="G270" s="0" t="s">
-        <x:v>695</x:v>
+        <x:v>696</x:v>
       </x:c>
       <x:c r="H270" s="0" t="s">
         <x:v>24</x:v>
@@ -21286,15 +21289,15 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="V270" s="0" t="s">
-        <x:v>696</x:v>
+        <x:v>697</x:v>
       </x:c>
     </x:row>
     <x:row r="271" spans="1:22">
       <x:c r="A271" s="0" t="s">
-        <x:v>697</x:v>
+        <x:v>698</x:v>
       </x:c>
       <x:c r="B271" s="0" t="s">
-        <x:v>698</x:v>
+        <x:v>699</x:v>
       </x:c>
       <x:c r="C271" s="0" t="s">
         <x:v>24</x:v>
@@ -21359,10 +21362,10 @@
     </x:row>
     <x:row r="272" spans="1:22">
       <x:c r="A272" s="0" t="s">
-        <x:v>699</x:v>
+        <x:v>700</x:v>
       </x:c>
       <x:c r="B272" s="0" t="s">
-        <x:v>700</x:v>
+        <x:v>701</x:v>
       </x:c>
       <x:c r="C272" s="0" t="s">
         <x:v>24</x:v>
@@ -21427,10 +21430,10 @@
     </x:row>
     <x:row r="273" spans="1:22">
       <x:c r="A273" s="0" t="s">
-        <x:v>701</x:v>
+        <x:v>702</x:v>
       </x:c>
       <x:c r="B273" s="0" t="s">
-        <x:v>702</x:v>
+        <x:v>703</x:v>
       </x:c>
       <x:c r="C273" s="0" t="s">
         <x:v>24</x:v>
@@ -21495,10 +21498,10 @@
     </x:row>
     <x:row r="274" spans="1:22">
       <x:c r="A274" s="0" t="s">
-        <x:v>703</x:v>
+        <x:v>704</x:v>
       </x:c>
       <x:c r="B274" s="0" t="s">
-        <x:v>704</x:v>
+        <x:v>705</x:v>
       </x:c>
       <x:c r="C274" s="0" t="s">
         <x:v>24</x:v>
@@ -21563,10 +21566,10 @@
     </x:row>
     <x:row r="275" spans="1:22">
       <x:c r="A275" s="0" t="s">
-        <x:v>705</x:v>
+        <x:v>706</x:v>
       </x:c>
       <x:c r="B275" s="0" t="s">
-        <x:v>706</x:v>
+        <x:v>707</x:v>
       </x:c>
       <x:c r="C275" s="0" t="s">
         <x:v>24</x:v>
@@ -21631,10 +21634,10 @@
     </x:row>
     <x:row r="276" spans="1:22">
       <x:c r="A276" s="0" t="s">
-        <x:v>707</x:v>
+        <x:v>708</x:v>
       </x:c>
       <x:c r="B276" s="0" t="s">
-        <x:v>708</x:v>
+        <x:v>709</x:v>
       </x:c>
       <x:c r="C276" s="0" t="s">
         <x:v>24</x:v>
@@ -21699,10 +21702,10 @@
     </x:row>
     <x:row r="277" spans="1:22">
       <x:c r="A277" s="0" t="s">
-        <x:v>709</x:v>
+        <x:v>710</x:v>
       </x:c>
       <x:c r="B277" s="0" t="s">
-        <x:v>710</x:v>
+        <x:v>711</x:v>
       </x:c>
       <x:c r="C277" s="0" t="s">
         <x:v>25</x:v>
@@ -21767,10 +21770,10 @@
     </x:row>
     <x:row r="278" spans="1:22">
       <x:c r="A278" s="0" t="s">
-        <x:v>711</x:v>
+        <x:v>712</x:v>
       </x:c>
       <x:c r="B278" s="0" t="s">
-        <x:v>712</x:v>
+        <x:v>713</x:v>
       </x:c>
       <x:c r="C278" s="0" t="s">
         <x:v>24</x:v>
@@ -21835,10 +21838,10 @@
     </x:row>
     <x:row r="279" spans="1:22">
       <x:c r="A279" s="0" t="s">
-        <x:v>713</x:v>
+        <x:v>714</x:v>
       </x:c>
       <x:c r="B279" s="0" t="s">
-        <x:v>714</x:v>
+        <x:v>715</x:v>
       </x:c>
       <x:c r="C279" s="0" t="s">
         <x:v>24</x:v>
@@ -21903,10 +21906,10 @@
     </x:row>
     <x:row r="280" spans="1:22">
       <x:c r="A280" s="0" t="s">
-        <x:v>715</x:v>
+        <x:v>716</x:v>
       </x:c>
       <x:c r="B280" s="0" t="s">
-        <x:v>716</x:v>
+        <x:v>717</x:v>
       </x:c>
       <x:c r="C280" s="0" t="s">
         <x:v>24</x:v>
@@ -21971,10 +21974,10 @@
     </x:row>
     <x:row r="281" spans="1:22">
       <x:c r="A281" s="0" t="s">
-        <x:v>717</x:v>
+        <x:v>718</x:v>
       </x:c>
       <x:c r="B281" s="0" t="s">
-        <x:v>718</x:v>
+        <x:v>719</x:v>
       </x:c>
       <x:c r="C281" s="0" t="s">
         <x:v>24</x:v>
@@ -22039,10 +22042,10 @@
     </x:row>
     <x:row r="282" spans="1:22">
       <x:c r="A282" s="0" t="s">
-        <x:v>719</x:v>
+        <x:v>720</x:v>
       </x:c>
       <x:c r="B282" s="0" t="s">
-        <x:v>720</x:v>
+        <x:v>721</x:v>
       </x:c>
       <x:c r="C282" s="0" t="s">
         <x:v>24</x:v>
@@ -22107,10 +22110,10 @@
     </x:row>
     <x:row r="283" spans="1:22">
       <x:c r="A283" s="0" t="s">
-        <x:v>721</x:v>
+        <x:v>722</x:v>
       </x:c>
       <x:c r="B283" s="0" t="s">
-        <x:v>722</x:v>
+        <x:v>723</x:v>
       </x:c>
       <x:c r="C283" s="0" t="s">
         <x:v>24</x:v>
@@ -22175,10 +22178,10 @@
     </x:row>
     <x:row r="284" spans="1:22">
       <x:c r="A284" s="0" t="s">
-        <x:v>723</x:v>
+        <x:v>724</x:v>
       </x:c>
       <x:c r="B284" s="0" t="s">
-        <x:v>724</x:v>
+        <x:v>725</x:v>
       </x:c>
       <x:c r="C284" s="0" t="s">
         <x:v>24</x:v>
@@ -22243,10 +22246,10 @@
     </x:row>
     <x:row r="285" spans="1:22">
       <x:c r="A285" s="0" t="s">
-        <x:v>725</x:v>
+        <x:v>726</x:v>
       </x:c>
       <x:c r="B285" s="0" t="s">
-        <x:v>726</x:v>
+        <x:v>727</x:v>
       </x:c>
       <x:c r="C285" s="0" t="s">
         <x:v>33</x:v>
@@ -22306,15 +22309,15 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="V285" s="0" t="s">
-        <x:v>727</x:v>
+        <x:v>728</x:v>
       </x:c>
     </x:row>
     <x:row r="286" spans="1:22">
       <x:c r="A286" s="0" t="s">
-        <x:v>728</x:v>
+        <x:v>729</x:v>
       </x:c>
       <x:c r="B286" s="0" t="s">
-        <x:v>729</x:v>
+        <x:v>730</x:v>
       </x:c>
       <x:c r="C286" s="0" t="s">
         <x:v>24</x:v>
@@ -22379,10 +22382,10 @@
     </x:row>
     <x:row r="287" spans="1:22">
       <x:c r="A287" s="0" t="s">
-        <x:v>730</x:v>
+        <x:v>731</x:v>
       </x:c>
       <x:c r="B287" s="0" t="s">
-        <x:v>731</x:v>
+        <x:v>732</x:v>
       </x:c>
       <x:c r="C287" s="0" t="s">
         <x:v>24</x:v>
@@ -22447,10 +22450,10 @@
     </x:row>
     <x:row r="288" spans="1:22">
       <x:c r="A288" s="0" t="s">
-        <x:v>732</x:v>
+        <x:v>733</x:v>
       </x:c>
       <x:c r="B288" s="0" t="s">
-        <x:v>733</x:v>
+        <x:v>734</x:v>
       </x:c>
       <x:c r="C288" s="0" t="s">
         <x:v>24</x:v>
@@ -22515,10 +22518,10 @@
     </x:row>
     <x:row r="289" spans="1:22">
       <x:c r="A289" s="0" t="s">
-        <x:v>734</x:v>
+        <x:v>735</x:v>
       </x:c>
       <x:c r="B289" s="0" t="s">
-        <x:v>735</x:v>
+        <x:v>736</x:v>
       </x:c>
       <x:c r="C289" s="0" t="s">
         <x:v>24</x:v>
@@ -22583,10 +22586,10 @@
     </x:row>
     <x:row r="290" spans="1:22">
       <x:c r="A290" s="0" t="s">
-        <x:v>736</x:v>
+        <x:v>737</x:v>
       </x:c>
       <x:c r="B290" s="0" t="s">
-        <x:v>737</x:v>
+        <x:v>738</x:v>
       </x:c>
       <x:c r="C290" s="0" t="s">
         <x:v>24</x:v>
@@ -22651,10 +22654,10 @@
     </x:row>
     <x:row r="291" spans="1:22">
       <x:c r="A291" s="0" t="s">
-        <x:v>738</x:v>
+        <x:v>739</x:v>
       </x:c>
       <x:c r="B291" s="0" t="s">
-        <x:v>739</x:v>
+        <x:v>740</x:v>
       </x:c>
       <x:c r="C291" s="0" t="s">
         <x:v>24</x:v>
@@ -22719,10 +22722,10 @@
     </x:row>
     <x:row r="292" spans="1:22">
       <x:c r="A292" s="0" t="s">
-        <x:v>740</x:v>
+        <x:v>741</x:v>
       </x:c>
       <x:c r="B292" s="0" t="s">
-        <x:v>741</x:v>
+        <x:v>742</x:v>
       </x:c>
       <x:c r="C292" s="0" t="s">
         <x:v>24</x:v>
@@ -22787,10 +22790,10 @@
     </x:row>
     <x:row r="293" spans="1:22">
       <x:c r="A293" s="0" t="s">
-        <x:v>742</x:v>
+        <x:v>743</x:v>
       </x:c>
       <x:c r="B293" s="0" t="s">
-        <x:v>743</x:v>
+        <x:v>744</x:v>
       </x:c>
       <x:c r="C293" s="0" t="s">
         <x:v>24</x:v>
@@ -22855,10 +22858,10 @@
     </x:row>
     <x:row r="294" spans="1:22">
       <x:c r="A294" s="0" t="s">
-        <x:v>744</x:v>
+        <x:v>745</x:v>
       </x:c>
       <x:c r="B294" s="0" t="s">
-        <x:v>745</x:v>
+        <x:v>746</x:v>
       </x:c>
       <x:c r="C294" s="0" t="s">
         <x:v>24</x:v>
@@ -22923,10 +22926,10 @@
     </x:row>
     <x:row r="295" spans="1:22">
       <x:c r="A295" s="0" t="s">
-        <x:v>746</x:v>
+        <x:v>747</x:v>
       </x:c>
       <x:c r="B295" s="0" t="s">
-        <x:v>747</x:v>
+        <x:v>748</x:v>
       </x:c>
       <x:c r="C295" s="0" t="s">
         <x:v>24</x:v>
@@ -22991,10 +22994,10 @@
     </x:row>
     <x:row r="296" spans="1:22">
       <x:c r="A296" s="0" t="s">
-        <x:v>748</x:v>
+        <x:v>749</x:v>
       </x:c>
       <x:c r="B296" s="0" t="s">
-        <x:v>749</x:v>
+        <x:v>750</x:v>
       </x:c>
       <x:c r="C296" s="0" t="s">
         <x:v>24</x:v>
@@ -23059,10 +23062,10 @@
     </x:row>
     <x:row r="297" spans="1:22">
       <x:c r="A297" s="0" t="s">
-        <x:v>750</x:v>
+        <x:v>751</x:v>
       </x:c>
       <x:c r="B297" s="0" t="s">
-        <x:v>751</x:v>
+        <x:v>752</x:v>
       </x:c>
       <x:c r="C297" s="0" t="s">
         <x:v>25</x:v>
@@ -23127,10 +23130,10 @@
     </x:row>
     <x:row r="298" spans="1:22">
       <x:c r="A298" s="0" t="s">
-        <x:v>752</x:v>
+        <x:v>753</x:v>
       </x:c>
       <x:c r="B298" s="0" t="s">
-        <x:v>753</x:v>
+        <x:v>754</x:v>
       </x:c>
       <x:c r="C298" s="0" t="s">
         <x:v>24</x:v>
@@ -23195,10 +23198,10 @@
     </x:row>
     <x:row r="299" spans="1:22">
       <x:c r="A299" s="0" t="s">
-        <x:v>754</x:v>
+        <x:v>755</x:v>
       </x:c>
       <x:c r="B299" s="0" t="s">
-        <x:v>755</x:v>
+        <x:v>756</x:v>
       </x:c>
       <x:c r="C299" s="0" t="s">
         <x:v>24</x:v>
@@ -23263,10 +23266,10 @@
     </x:row>
     <x:row r="300" spans="1:22">
       <x:c r="A300" s="0" t="s">
-        <x:v>756</x:v>
+        <x:v>757</x:v>
       </x:c>
       <x:c r="B300" s="0" t="s">
-        <x:v>757</x:v>
+        <x:v>758</x:v>
       </x:c>
       <x:c r="C300" s="0" t="s">
         <x:v>24</x:v>
@@ -23331,10 +23334,10 @@
     </x:row>
     <x:row r="301" spans="1:22">
       <x:c r="A301" s="0" t="s">
-        <x:v>758</x:v>
+        <x:v>759</x:v>
       </x:c>
       <x:c r="B301" s="0" t="s">
-        <x:v>759</x:v>
+        <x:v>760</x:v>
       </x:c>
       <x:c r="C301" s="0" t="s">
         <x:v>24</x:v>
@@ -23399,10 +23402,10 @@
     </x:row>
     <x:row r="302" spans="1:22">
       <x:c r="A302" s="0" t="s">
-        <x:v>760</x:v>
+        <x:v>761</x:v>
       </x:c>
       <x:c r="B302" s="0" t="s">
-        <x:v>761</x:v>
+        <x:v>762</x:v>
       </x:c>
       <x:c r="C302" s="0" t="s">
         <x:v>33</x:v>
@@ -23417,7 +23420,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="G302" s="0" t="s">
-        <x:v>762</x:v>
+        <x:v>763</x:v>
       </x:c>
       <x:c r="H302" s="0" t="s">
         <x:v>24</x:v>
@@ -23444,7 +23447,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="P302" s="0" t="s">
-        <x:v>628</x:v>
+        <x:v>629</x:v>
       </x:c>
       <x:c r="Q302" s="0" t="s">
         <x:v>24</x:v>
@@ -23462,15 +23465,15 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="V302" s="0" t="s">
-        <x:v>763</x:v>
+        <x:v>764</x:v>
       </x:c>
     </x:row>
     <x:row r="303" spans="1:22">
       <x:c r="A303" s="0" t="s">
-        <x:v>764</x:v>
+        <x:v>765</x:v>
       </x:c>
       <x:c r="B303" s="0" t="s">
-        <x:v>765</x:v>
+        <x:v>766</x:v>
       </x:c>
       <x:c r="C303" s="0" t="s">
         <x:v>24</x:v>
@@ -23535,10 +23538,10 @@
     </x:row>
     <x:row r="304" spans="1:22">
       <x:c r="A304" s="0" t="s">
-        <x:v>766</x:v>
+        <x:v>767</x:v>
       </x:c>
       <x:c r="B304" s="0" t="s">
-        <x:v>767</x:v>
+        <x:v>768</x:v>
       </x:c>
       <x:c r="C304" s="0" t="s">
         <x:v>24</x:v>
@@ -23603,10 +23606,10 @@
     </x:row>
     <x:row r="305" spans="1:22">
       <x:c r="A305" s="0" t="s">
-        <x:v>768</x:v>
+        <x:v>769</x:v>
       </x:c>
       <x:c r="B305" s="0" t="s">
-        <x:v>769</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="C305" s="0" t="s">
         <x:v>24</x:v>
@@ -23671,10 +23674,10 @@
     </x:row>
     <x:row r="306" spans="1:22">
       <x:c r="A306" s="0" t="s">
-        <x:v>770</x:v>
+        <x:v>771</x:v>
       </x:c>
       <x:c r="B306" s="0" t="s">
-        <x:v>771</x:v>
+        <x:v>772</x:v>
       </x:c>
       <x:c r="C306" s="0" t="s">
         <x:v>24</x:v>
@@ -23739,10 +23742,10 @@
     </x:row>
     <x:row r="307" spans="1:22">
       <x:c r="A307" s="0" t="s">
-        <x:v>772</x:v>
+        <x:v>773</x:v>
       </x:c>
       <x:c r="B307" s="0" t="s">
-        <x:v>773</x:v>
+        <x:v>774</x:v>
       </x:c>
       <x:c r="C307" s="0" t="s">
         <x:v>25</x:v>
@@ -23802,15 +23805,15 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="V307" s="0" t="s">
-        <x:v>774</x:v>
+        <x:v>775</x:v>
       </x:c>
     </x:row>
     <x:row r="308" spans="1:22">
       <x:c r="A308" s="0" t="s">
-        <x:v>775</x:v>
+        <x:v>776</x:v>
       </x:c>
       <x:c r="B308" s="0" t="s">
-        <x:v>776</x:v>
+        <x:v>777</x:v>
       </x:c>
       <x:c r="C308" s="0" t="s">
         <x:v>24</x:v>
@@ -23875,10 +23878,10 @@
     </x:row>
     <x:row r="309" spans="1:22">
       <x:c r="A309" s="0" t="s">
-        <x:v>777</x:v>
+        <x:v>778</x:v>
       </x:c>
       <x:c r="B309" s="0" t="s">
-        <x:v>778</x:v>
+        <x:v>779</x:v>
       </x:c>
       <x:c r="C309" s="0" t="s">
         <x:v>25</x:v>
@@ -23938,15 +23941,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V309" s="0" t="s">
-        <x:v>666</x:v>
+        <x:v>667</x:v>
       </x:c>
     </x:row>
     <x:row r="310" spans="1:22">
       <x:c r="A310" s="0" t="s">
-        <x:v>779</x:v>
+        <x:v>780</x:v>
       </x:c>
       <x:c r="B310" s="0" t="s">
-        <x:v>780</x:v>
+        <x:v>781</x:v>
       </x:c>
       <x:c r="C310" s="0" t="s">
         <x:v>24</x:v>
@@ -24011,10 +24014,10 @@
     </x:row>
     <x:row r="311" spans="1:22">
       <x:c r="A311" s="0" t="s">
-        <x:v>781</x:v>
+        <x:v>782</x:v>
       </x:c>
       <x:c r="B311" s="0" t="s">
-        <x:v>782</x:v>
+        <x:v>783</x:v>
       </x:c>
       <x:c r="C311" s="0" t="s">
         <x:v>24</x:v>
@@ -24079,10 +24082,10 @@
     </x:row>
     <x:row r="312" spans="1:22">
       <x:c r="A312" s="0" t="s">
-        <x:v>783</x:v>
+        <x:v>784</x:v>
       </x:c>
       <x:c r="B312" s="0" t="s">
-        <x:v>784</x:v>
+        <x:v>785</x:v>
       </x:c>
       <x:c r="C312" s="0" t="s">
         <x:v>24</x:v>
@@ -24147,10 +24150,10 @@
     </x:row>
     <x:row r="313" spans="1:22">
       <x:c r="A313" s="0" t="s">
-        <x:v>785</x:v>
+        <x:v>786</x:v>
       </x:c>
       <x:c r="B313" s="0" t="s">
-        <x:v>786</x:v>
+        <x:v>787</x:v>
       </x:c>
       <x:c r="C313" s="0" t="s">
         <x:v>24</x:v>
@@ -24215,10 +24218,10 @@
     </x:row>
     <x:row r="314" spans="1:22">
       <x:c r="A314" s="0" t="s">
-        <x:v>787</x:v>
+        <x:v>788</x:v>
       </x:c>
       <x:c r="B314" s="0" t="s">
-        <x:v>788</x:v>
+        <x:v>789</x:v>
       </x:c>
       <x:c r="C314" s="0" t="s">
         <x:v>24</x:v>
@@ -24283,10 +24286,10 @@
     </x:row>
     <x:row r="315" spans="1:22">
       <x:c r="A315" s="0" t="s">
-        <x:v>789</x:v>
+        <x:v>790</x:v>
       </x:c>
       <x:c r="B315" s="0" t="s">
-        <x:v>790</x:v>
+        <x:v>791</x:v>
       </x:c>
       <x:c r="C315" s="0" t="s">
         <x:v>24</x:v>
@@ -24351,10 +24354,10 @@
     </x:row>
     <x:row r="316" spans="1:22">
       <x:c r="A316" s="0" t="s">
-        <x:v>791</x:v>
+        <x:v>792</x:v>
       </x:c>
       <x:c r="B316" s="0" t="s">
-        <x:v>792</x:v>
+        <x:v>793</x:v>
       </x:c>
       <x:c r="C316" s="0" t="s">
         <x:v>24</x:v>
@@ -24419,10 +24422,10 @@
     </x:row>
     <x:row r="317" spans="1:22">
       <x:c r="A317" s="0" t="s">
-        <x:v>793</x:v>
+        <x:v>794</x:v>
       </x:c>
       <x:c r="B317" s="0" t="s">
-        <x:v>794</x:v>
+        <x:v>795</x:v>
       </x:c>
       <x:c r="C317" s="0" t="s">
         <x:v>24</x:v>
@@ -24487,10 +24490,10 @@
     </x:row>
     <x:row r="318" spans="1:22">
       <x:c r="A318" s="0" t="s">
-        <x:v>795</x:v>
+        <x:v>796</x:v>
       </x:c>
       <x:c r="B318" s="0" t="s">
-        <x:v>796</x:v>
+        <x:v>797</x:v>
       </x:c>
       <x:c r="C318" s="0" t="s">
         <x:v>24</x:v>
@@ -24555,10 +24558,10 @@
     </x:row>
     <x:row r="319" spans="1:22">
       <x:c r="A319" s="0" t="s">
-        <x:v>797</x:v>
+        <x:v>798</x:v>
       </x:c>
       <x:c r="B319" s="0" t="s">
-        <x:v>798</x:v>
+        <x:v>799</x:v>
       </x:c>
       <x:c r="C319" s="0" t="s">
         <x:v>24</x:v>
@@ -24623,10 +24626,10 @@
     </x:row>
     <x:row r="320" spans="1:22">
       <x:c r="A320" s="0" t="s">
-        <x:v>799</x:v>
+        <x:v>800</x:v>
       </x:c>
       <x:c r="B320" s="0" t="s">
-        <x:v>800</x:v>
+        <x:v>801</x:v>
       </x:c>
       <x:c r="C320" s="0" t="s">
         <x:v>25</x:v>
@@ -24641,7 +24644,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="G320" s="0" t="s">
-        <x:v>801</x:v>
+        <x:v>802</x:v>
       </x:c>
       <x:c r="H320" s="0" t="s">
         <x:v>25</x:v>
@@ -24662,7 +24665,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="N320" s="0" t="s">
-        <x:v>802</x:v>
+        <x:v>803</x:v>
       </x:c>
       <x:c r="O320" s="0" t="s">
         <x:v>64</x:v>
@@ -24686,15 +24689,15 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="V320" s="0" t="s">
-        <x:v>803</x:v>
+        <x:v>804</x:v>
       </x:c>
     </x:row>
     <x:row r="321" spans="1:22">
       <x:c r="A321" s="0" t="s">
-        <x:v>804</x:v>
+        <x:v>805</x:v>
       </x:c>
       <x:c r="B321" s="0" t="s">
-        <x:v>805</x:v>
+        <x:v>806</x:v>
       </x:c>
       <x:c r="C321" s="0" t="s">
         <x:v>24</x:v>
@@ -24759,10 +24762,10 @@
     </x:row>
     <x:row r="322" spans="1:22">
       <x:c r="A322" s="0" t="s">
-        <x:v>806</x:v>
+        <x:v>807</x:v>
       </x:c>
       <x:c r="B322" s="0" t="s">
-        <x:v>807</x:v>
+        <x:v>808</x:v>
       </x:c>
       <x:c r="C322" s="0" t="s">
         <x:v>24</x:v>
@@ -24827,10 +24830,10 @@
     </x:row>
     <x:row r="323" spans="1:22">
       <x:c r="A323" s="0" t="s">
-        <x:v>808</x:v>
+        <x:v>809</x:v>
       </x:c>
       <x:c r="B323" s="0" t="s">
-        <x:v>809</x:v>
+        <x:v>810</x:v>
       </x:c>
       <x:c r="C323" s="0" t="s">
         <x:v>24</x:v>
@@ -24895,10 +24898,10 @@
     </x:row>
     <x:row r="324" spans="1:22">
       <x:c r="A324" s="0" t="s">
-        <x:v>810</x:v>
+        <x:v>811</x:v>
       </x:c>
       <x:c r="B324" s="0" t="s">
-        <x:v>811</x:v>
+        <x:v>812</x:v>
       </x:c>
       <x:c r="C324" s="0" t="s">
         <x:v>24</x:v>
@@ -24963,10 +24966,10 @@
     </x:row>
     <x:row r="325" spans="1:22">
       <x:c r="A325" s="0" t="s">
-        <x:v>812</x:v>
+        <x:v>813</x:v>
       </x:c>
       <x:c r="B325" s="0" t="s">
-        <x:v>813</x:v>
+        <x:v>814</x:v>
       </x:c>
       <x:c r="C325" s="0" t="s">
         <x:v>24</x:v>
@@ -25031,10 +25034,10 @@
     </x:row>
     <x:row r="326" spans="1:22">
       <x:c r="A326" s="0" t="s">
-        <x:v>814</x:v>
+        <x:v>815</x:v>
       </x:c>
       <x:c r="B326" s="0" t="s">
-        <x:v>815</x:v>
+        <x:v>816</x:v>
       </x:c>
       <x:c r="C326" s="0" t="s">
         <x:v>24</x:v>
@@ -25049,7 +25052,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G326" s="0" t="s">
-        <x:v>695</x:v>
+        <x:v>696</x:v>
       </x:c>
       <x:c r="H326" s="0" t="s">
         <x:v>24</x:v>
@@ -25099,10 +25102,10 @@
     </x:row>
     <x:row r="327" spans="1:22">
       <x:c r="A327" s="0" t="s">
-        <x:v>816</x:v>
+        <x:v>817</x:v>
       </x:c>
       <x:c r="B327" s="0" t="s">
-        <x:v>817</x:v>
+        <x:v>818</x:v>
       </x:c>
       <x:c r="C327" s="0" t="s">
         <x:v>49</x:v>
@@ -25162,15 +25165,15 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="V327" s="0" t="s">
-        <x:v>818</x:v>
+        <x:v>819</x:v>
       </x:c>
     </x:row>
     <x:row r="328" spans="1:22">
       <x:c r="A328" s="0" t="s">
-        <x:v>819</x:v>
+        <x:v>820</x:v>
       </x:c>
       <x:c r="B328" s="0" t="s">
-        <x:v>820</x:v>
+        <x:v>821</x:v>
       </x:c>
       <x:c r="C328" s="0" t="s">
         <x:v>25</x:v>
@@ -25235,10 +25238,10 @@
     </x:row>
     <x:row r="329" spans="1:22">
       <x:c r="A329" s="0" t="s">
-        <x:v>821</x:v>
+        <x:v>822</x:v>
       </x:c>
       <x:c r="B329" s="0" t="s">
-        <x:v>822</x:v>
+        <x:v>823</x:v>
       </x:c>
       <x:c r="C329" s="0" t="s">
         <x:v>24</x:v>
@@ -25303,10 +25306,10 @@
     </x:row>
     <x:row r="330" spans="1:22">
       <x:c r="A330" s="0" t="s">
-        <x:v>823</x:v>
+        <x:v>824</x:v>
       </x:c>
       <x:c r="B330" s="0" t="s">
-        <x:v>824</x:v>
+        <x:v>825</x:v>
       </x:c>
       <x:c r="C330" s="0" t="s">
         <x:v>24</x:v>
@@ -25371,10 +25374,10 @@
     </x:row>
     <x:row r="331" spans="1:22">
       <x:c r="A331" s="0" t="s">
-        <x:v>825</x:v>
+        <x:v>826</x:v>
       </x:c>
       <x:c r="B331" s="0" t="s">
-        <x:v>826</x:v>
+        <x:v>827</x:v>
       </x:c>
       <x:c r="C331" s="0" t="s">
         <x:v>24</x:v>
@@ -25439,10 +25442,10 @@
     </x:row>
     <x:row r="332" spans="1:22">
       <x:c r="A332" s="0" t="s">
-        <x:v>827</x:v>
+        <x:v>828</x:v>
       </x:c>
       <x:c r="B332" s="0" t="s">
-        <x:v>828</x:v>
+        <x:v>829</x:v>
       </x:c>
       <x:c r="C332" s="0" t="s">
         <x:v>24</x:v>
@@ -25507,10 +25510,10 @@
     </x:row>
     <x:row r="333" spans="1:22">
       <x:c r="A333" s="0" t="s">
-        <x:v>829</x:v>
+        <x:v>830</x:v>
       </x:c>
       <x:c r="B333" s="0" t="s">
-        <x:v>830</x:v>
+        <x:v>831</x:v>
       </x:c>
       <x:c r="C333" s="0" t="s">
         <x:v>24</x:v>
@@ -25575,10 +25578,10 @@
     </x:row>
     <x:row r="334" spans="1:22">
       <x:c r="A334" s="0" t="s">
-        <x:v>831</x:v>
+        <x:v>832</x:v>
       </x:c>
       <x:c r="B334" s="0" t="s">
-        <x:v>832</x:v>
+        <x:v>833</x:v>
       </x:c>
       <x:c r="C334" s="0" t="s">
         <x:v>24</x:v>
@@ -25643,10 +25646,10 @@
     </x:row>
     <x:row r="335" spans="1:22">
       <x:c r="A335" s="0" t="s">
-        <x:v>833</x:v>
+        <x:v>834</x:v>
       </x:c>
       <x:c r="B335" s="0" t="s">
-        <x:v>834</x:v>
+        <x:v>835</x:v>
       </x:c>
       <x:c r="C335" s="0" t="s">
         <x:v>24</x:v>
@@ -25711,10 +25714,10 @@
     </x:row>
     <x:row r="336" spans="1:22">
       <x:c r="A336" s="0" t="s">
-        <x:v>835</x:v>
+        <x:v>836</x:v>
       </x:c>
       <x:c r="B336" s="0" t="s">
-        <x:v>836</x:v>
+        <x:v>837</x:v>
       </x:c>
       <x:c r="C336" s="0" t="s">
         <x:v>24</x:v>
@@ -25779,10 +25782,10 @@
     </x:row>
     <x:row r="337" spans="1:22">
       <x:c r="A337" s="0" t="s">
-        <x:v>837</x:v>
+        <x:v>838</x:v>
       </x:c>
       <x:c r="B337" s="0" t="s">
-        <x:v>838</x:v>
+        <x:v>839</x:v>
       </x:c>
       <x:c r="C337" s="0" t="s">
         <x:v>24</x:v>
@@ -25842,15 +25845,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V337" s="0" t="s">
-        <x:v>839</x:v>
+        <x:v>840</x:v>
       </x:c>
     </x:row>
     <x:row r="338" spans="1:22">
       <x:c r="A338" s="0" t="s">
-        <x:v>840</x:v>
+        <x:v>841</x:v>
       </x:c>
       <x:c r="B338" s="0" t="s">
-        <x:v>841</x:v>
+        <x:v>842</x:v>
       </x:c>
       <x:c r="C338" s="0" t="s">
         <x:v>24</x:v>
@@ -25915,10 +25918,10 @@
     </x:row>
     <x:row r="339" spans="1:22">
       <x:c r="A339" s="0" t="s">
-        <x:v>842</x:v>
+        <x:v>843</x:v>
       </x:c>
       <x:c r="B339" s="0" t="s">
-        <x:v>843</x:v>
+        <x:v>844</x:v>
       </x:c>
       <x:c r="C339" s="0" t="s">
         <x:v>24</x:v>
@@ -25983,10 +25986,10 @@
     </x:row>
     <x:row r="340" spans="1:22">
       <x:c r="A340" s="0" t="s">
-        <x:v>844</x:v>
+        <x:v>845</x:v>
       </x:c>
       <x:c r="B340" s="0" t="s">
-        <x:v>845</x:v>
+        <x:v>846</x:v>
       </x:c>
       <x:c r="C340" s="0" t="s">
         <x:v>24</x:v>
@@ -26051,10 +26054,10 @@
     </x:row>
     <x:row r="341" spans="1:22">
       <x:c r="A341" s="0" t="s">
-        <x:v>846</x:v>
+        <x:v>847</x:v>
       </x:c>
       <x:c r="B341" s="0" t="s">
-        <x:v>847</x:v>
+        <x:v>848</x:v>
       </x:c>
       <x:c r="C341" s="0" t="s">
         <x:v>24</x:v>

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
@@ -526,816 +526,819 @@
     <x:t>Clay County Sheriff</x:t>
   </x:si>
   <x:si>
+    <x:t>24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0140200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dilworth Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0140300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hawley Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0140400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Moorhead Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>74</x:t>
+  </x:si>
+  <x:si>
+    <x:t>285</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0150000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clearwater County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0160000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cook County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0170000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cottonwood County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0170100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mountain Lake Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0170200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Windom Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0180000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crow Wing County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0180100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brainerd Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>105</x:t>
+  </x:si>
+  <x:si>
+    <x:t>226</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0180200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crosby Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0180300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Breezy Point Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0180400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crosslake Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0180500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baxter Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0181000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nisswa Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0181100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pequot Lakes Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dakota County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Burnsville Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Farmington Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hastings Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>86</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mendota Heights Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rosemount Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>South St Paul Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>62</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>West St Paul Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Eagan Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>121</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Inver Grove Heights Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0191000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Apple Valley Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0191100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lakeville Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0200000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dodge County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0200200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kasson Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0210000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Douglas County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>88</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0210100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Alexandria Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>42</x:t>
+  </x:si>
+  <x:si>
+    <x:t>103</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0210200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Osakis Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0220000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Faribault County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0220100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blue Earth Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0220400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wells Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0220500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Winnebago Public Safety</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0230000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fillmore County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0240000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Freeborn County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0240100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Albert Lea Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>69</x:t>
+  </x:si>
+  <x:si>
+    <x:t>137</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0250000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goodhue County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0250100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cannon Falls Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0250300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Red Wing Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>80</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0250800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zumbrota Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0260000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Grant County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hennepin County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>77</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bloomington Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>93</x:t>
+  </x:si>
+  <x:si>
+    <x:t>240</x:t>
+  </x:si>
+  <x:si>
+    <x:t>79</x:t>
+  </x:si>
+  <x:si>
+    <x:t>768</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brooklyn Center Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brooklyn Park Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crystal Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Deephaven Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Edina Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>150</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>South Lake Minnetonka Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Golden Valley Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hopkins Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0271100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Minneapolis Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>169</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>102</x:t>
+  </x:si>
+  <x:si>
+    <x:t>94</x:t>
+  </x:si>
+  <x:si>
+    <x:t>669</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0271200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Minnetonka Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0271400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New Hope Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0271500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Orono Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0271600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Osseo Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0271700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Plymouth Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>75</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0271800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Richfield Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>186</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0271900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Robbinsdale Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>St Anthony Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>St Louis Park Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wayzata Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>University of MN Police Dept - Minneapolis</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Metropolitan Airport Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>70</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Eden Prairie Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>92</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maple Grove Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>87</x:t>
+  </x:si>
+  <x:si>
+    <x:t>218</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Minnetrista Public Safety Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0272900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Champlin Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0273000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Medina Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0273100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Corcoran Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0273200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dayton Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0273400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rogers Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0273700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>West Hennepin Dept of Public Safety</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0274000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Three Rivers Park District Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0274300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Metropolitan Transit Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>154</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0280000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Houston County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0280300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>La Crescent Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0280400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Spring Grove Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0290000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hubbard County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>97</x:t>
+  </x:si>
+  <x:si>
+    <x:t>109</x:t>
+  </x:si>
+  <x:si>
+    <x:t>228</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0290100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Park Rapids Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0290200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Akeley Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0300000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Isanti County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0300100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cambridge Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0300200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Braham Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0300300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Isanti Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0310000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Itasca County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0310100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bovey Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0310200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Coleraine Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0310300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Grand Rapids Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0310400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Keewatin Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0310500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nashwauk Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0310700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Deer River Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0320000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jackson County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0330000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kanabec County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0340000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kandiyohi County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0340100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Willmar Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>117</x:t>
+  </x:si>
+  <x:si>
+    <x:t>253</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0340200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Atwater Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0350000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kittson County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0360000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Koochiching County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0360100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>International Falls Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>47</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0370000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lac Qui Parle County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0380000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lake County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0380100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Silver Bay Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0380200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Two Harbors Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0400000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Le Sueur County Sheriff</x:t>
+  </x:si>
+  <x:si>
     <x:t>44</x:t>
   </x:si>
   <x:si>
-    <x:t>MN0140200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dilworth Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0140300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hawley Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0140400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Moorhead Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>74</x:t>
-  </x:si>
-  <x:si>
-    <x:t>285</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0150000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Clearwater County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0160000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cook County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0170000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cottonwood County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0170100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mountain Lake Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0170200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Windom Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0180000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crow Wing County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0180100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Brainerd Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>105</x:t>
-  </x:si>
-  <x:si>
-    <x:t>226</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0180200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crosby Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0180300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Breezy Point Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0180400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crosslake Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0180500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baxter Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0181000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nisswa Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0181100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pequot Lakes Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dakota County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Burnsville Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Farmington Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hastings Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>86</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mendota Heights Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rosemount Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>South St Paul Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>62</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>West St Paul Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Eagan Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>121</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Inver Grove Heights Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0191000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Apple Valley Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0191100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lakeville Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0200000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dodge County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0200200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kasson Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0210000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Douglas County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>37</x:t>
-  </x:si>
-  <x:si>
-    <x:t>88</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0210100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Alexandria Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>42</x:t>
-  </x:si>
-  <x:si>
-    <x:t>103</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0210200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Osakis Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0220000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Faribault County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0220100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blue Earth Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0220400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wells Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0220500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Winnebago Public Safety</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0230000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fillmore County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0240000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Freeborn County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0240100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Albert Lea Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>38</x:t>
-  </x:si>
-  <x:si>
-    <x:t>69</x:t>
-  </x:si>
-  <x:si>
-    <x:t>137</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0250000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Goodhue County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>41</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0250100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cannon Falls Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0250300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Red Wing Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>80</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0250800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Zumbrota Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0260000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Grant County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hennepin County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>77</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bloomington Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>49</x:t>
-  </x:si>
-  <x:si>
-    <x:t>93</x:t>
-  </x:si>
-  <x:si>
-    <x:t>240</x:t>
-  </x:si>
-  <x:si>
-    <x:t>79</x:t>
-  </x:si>
-  <x:si>
-    <x:t>768</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Brooklyn Center Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Brooklyn Park Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>43</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>111</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crystal Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Deephaven Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Edina Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>150</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>South Lake Minnetonka Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Golden Valley Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hopkins Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0271100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Minneapolis Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>54</x:t>
-  </x:si>
-  <x:si>
-    <x:t>169</x:t>
-  </x:si>
-  <x:si>
-    <x:t>45</x:t>
-  </x:si>
-  <x:si>
-    <x:t>102</x:t>
-  </x:si>
-  <x:si>
-    <x:t>94</x:t>
-  </x:si>
-  <x:si>
-    <x:t>669</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0271200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Minnetonka Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0271400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>New Hope Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0271500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Orono Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0271600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Osseo Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0271700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Plymouth Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>75</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0271800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Richfield Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>32</x:t>
-  </x:si>
-  <x:si>
-    <x:t>40</x:t>
-  </x:si>
-  <x:si>
-    <x:t>186</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0271900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Robbinsdale Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>90</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>St Anthony Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>St Louis Park Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wayzata Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>University of MN Police Dept - Minneapolis</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Metropolitan Airport Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>70</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Eden Prairie Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Maple Grove Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>87</x:t>
-  </x:si>
-  <x:si>
-    <x:t>218</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Minnetrista Public Safety Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0272900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Champlin Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0273000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Medina Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0273100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Corcoran Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0273200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dayton Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0273400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rogers Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0273700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>West Hennepin Dept of Public Safety</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0274000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Three Rivers Park District Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0274300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Metropolitan Transit Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>154</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0280000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Houston County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0280300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>La Crescent Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0280400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Spring Grove Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0290000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hubbard County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>97</x:t>
-  </x:si>
-  <x:si>
-    <x:t>109</x:t>
-  </x:si>
-  <x:si>
-    <x:t>228</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0290100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Park Rapids Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0290200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Akeley Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0300000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Isanti County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0300100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cambridge Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0300200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Braham Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0300300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Isanti Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0310000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Itasca County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0310100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bovey Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0310200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Coleraine Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0310300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Grand Rapids Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0310400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Keewatin Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0310500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nashwauk Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0310700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Deer River Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0320000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jackson County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0330000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kanabec County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0340000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kandiyohi County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0340100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Willmar Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>117</x:t>
-  </x:si>
-  <x:si>
-    <x:t>253</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0340200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Atwater Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0350000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kittson County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0360000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Koochiching County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0360100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>International Falls Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>47</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0370000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lac Qui Parle County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0380000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lake County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0380100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Silver Bay Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0380200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Two Harbors Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0400000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Le Sueur County Sheriff</x:t>
-  </x:si>
-  <x:si>
     <x:t>MN0400200</x:t>
   </x:si>
   <x:si>
@@ -1436,9 +1439,6 @@
   </x:si>
   <x:si>
     <x:t>Fairmont Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>92</x:t>
   </x:si>
   <x:si>
     <x:t>MN0460200</x:t>
@@ -5965,7 +5965,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N45" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="O45" s="0" t="s">
         <x:v>25</x:v>
@@ -5989,15 +5989,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V45" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:22">
       <x:c r="A46" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="C46" s="0" t="s">
         <x:v>25</x:v>
@@ -6062,10 +6062,10 @@
     </x:row>
     <x:row r="47" spans="1:22">
       <x:c r="A47" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="C47" s="0" t="s">
         <x:v>24</x:v>
@@ -6130,10 +6130,10 @@
     </x:row>
     <x:row r="48" spans="1:22">
       <x:c r="A48" s="0" t="s">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="C48" s="0" t="s">
         <x:v>28</x:v>
@@ -6169,7 +6169,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="N48" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="O48" s="0" t="s">
         <x:v>34</x:v>
@@ -6193,15 +6193,15 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="V48" s="0" t="s">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:22">
       <x:c r="A49" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="C49" s="0" t="s">
         <x:v>24</x:v>
@@ -6266,10 +6266,10 @@
     </x:row>
     <x:row r="50" spans="1:22">
       <x:c r="A50" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="C50" s="0" t="s">
         <x:v>24</x:v>
@@ -6334,10 +6334,10 @@
     </x:row>
     <x:row r="51" spans="1:22">
       <x:c r="A51" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="C51" s="0" t="s">
         <x:v>24</x:v>
@@ -6402,10 +6402,10 @@
     </x:row>
     <x:row r="52" spans="1:22">
       <x:c r="A52" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="C52" s="0" t="s">
         <x:v>24</x:v>
@@ -6470,10 +6470,10 @@
     </x:row>
     <x:row r="53" spans="1:22">
       <x:c r="A53" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="C53" s="0" t="s">
         <x:v>24</x:v>
@@ -6538,10 +6538,10 @@
     </x:row>
     <x:row r="54" spans="1:22">
       <x:c r="A54" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="C54" s="0" t="s">
         <x:v>24</x:v>
@@ -6606,10 +6606,10 @@
     </x:row>
     <x:row r="55" spans="1:22">
       <x:c r="A55" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="C55" s="0" t="s">
         <x:v>24</x:v>
@@ -6624,7 +6624,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="G55" s="0" t="s">
-        <x:v>193</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="H55" s="0" t="s">
         <x:v>24</x:v>
@@ -6669,15 +6669,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V55" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>195</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:22">
       <x:c r="A56" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
-        <x:v>196</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="C56" s="0" t="s">
         <x:v>24</x:v>
@@ -6742,10 +6742,10 @@
     </x:row>
     <x:row r="57" spans="1:22">
       <x:c r="A57" s="0" t="s">
-        <x:v>197</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="C57" s="0" t="s">
         <x:v>24</x:v>
@@ -6810,10 +6810,10 @@
     </x:row>
     <x:row r="58" spans="1:22">
       <x:c r="A58" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="C58" s="0" t="s">
         <x:v>24</x:v>
@@ -6878,10 +6878,10 @@
     </x:row>
     <x:row r="59" spans="1:22">
       <x:c r="A59" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="C59" s="0" t="s">
         <x:v>24</x:v>
@@ -6946,10 +6946,10 @@
     </x:row>
     <x:row r="60" spans="1:22">
       <x:c r="A60" s="0" t="s">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
-        <x:v>204</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="C60" s="0" t="s">
         <x:v>24</x:v>
@@ -7014,10 +7014,10 @@
     </x:row>
     <x:row r="61" spans="1:22">
       <x:c r="A61" s="0" t="s">
-        <x:v>205</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
-        <x:v>206</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="C61" s="0" t="s">
         <x:v>24</x:v>
@@ -7082,10 +7082,10 @@
     </x:row>
     <x:row r="62" spans="1:22">
       <x:c r="A62" s="0" t="s">
-        <x:v>207</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
-        <x:v>208</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="C62" s="0" t="s">
         <x:v>24</x:v>
@@ -7150,10 +7150,10 @@
     </x:row>
     <x:row r="63" spans="1:22">
       <x:c r="A63" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="C63" s="0" t="s">
         <x:v>24</x:v>
@@ -7218,10 +7218,10 @@
     </x:row>
     <x:row r="64" spans="1:22">
       <x:c r="A64" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="C64" s="0" t="s">
         <x:v>24</x:v>
@@ -7286,10 +7286,10 @@
     </x:row>
     <x:row r="65" spans="1:22">
       <x:c r="A65" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="C65" s="0" t="s">
         <x:v>24</x:v>
@@ -7331,7 +7331,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="P65" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="Q65" s="0" t="s">
         <x:v>24</x:v>
@@ -7349,15 +7349,15 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="V65" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:22">
       <x:c r="A66" s="0" t="s">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="C66" s="0" t="s">
         <x:v>24</x:v>
@@ -7422,10 +7422,10 @@
     </x:row>
     <x:row r="67" spans="1:22">
       <x:c r="A67" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="C67" s="0" t="s">
         <x:v>24</x:v>
@@ -7485,15 +7485,15 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="V67" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:22">
       <x:c r="A68" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B68" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="C68" s="0" t="s">
         <x:v>24</x:v>
@@ -7553,15 +7553,15 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="V68" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:22">
       <x:c r="A69" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B69" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="C69" s="0" t="s">
         <x:v>24</x:v>
@@ -7626,10 +7626,10 @@
     </x:row>
     <x:row r="70" spans="1:22">
       <x:c r="A70" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="B70" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="C70" s="0" t="s">
         <x:v>24</x:v>
@@ -7689,15 +7689,15 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="V70" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:22">
       <x:c r="A71" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="B71" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="C71" s="0" t="s">
         <x:v>25</x:v>
@@ -7762,10 +7762,10 @@
     </x:row>
     <x:row r="72" spans="1:22">
       <x:c r="A72" s="0" t="s">
-        <x:v>231</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="B72" s="0" t="s">
-        <x:v>232</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="C72" s="0" t="s">
         <x:v>49</x:v>
@@ -7780,7 +7780,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G72" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="H72" s="0" t="s">
         <x:v>24</x:v>
@@ -7830,10 +7830,10 @@
     </x:row>
     <x:row r="73" spans="1:22">
       <x:c r="A73" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="B73" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="C73" s="0" t="s">
         <x:v>24</x:v>
@@ -7893,7 +7893,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V73" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>170</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:22">
@@ -8732,7 +8732,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="G86" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="H86" s="0" t="s">
         <x:v>24</x:v>
@@ -9140,7 +9140,7 @@
         <x:v>287</x:v>
       </x:c>
       <x:c r="G92" s="0" t="s">
-        <x:v>193</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="H92" s="0" t="s">
         <x:v>24</x:v>
@@ -9208,7 +9208,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="G93" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="H93" s="0" t="s">
         <x:v>24</x:v>
@@ -9276,7 +9276,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="G94" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="H94" s="0" t="s">
         <x:v>24</x:v>
@@ -9303,7 +9303,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="P94" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="Q94" s="0" t="s">
         <x:v>24</x:v>
@@ -9321,15 +9321,15 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="V94" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>296</x:v>
       </x:c>
     </x:row>
     <x:row r="95" spans="1:22">
       <x:c r="A95" s="0" t="s">
+        <x:v>297</x:v>
+      </x:c>
+      <x:c r="B95" s="0" t="s">
         <x:v>298</x:v>
-      </x:c>
-      <x:c r="B95" s="0" t="s">
-        <x:v>299</x:v>
       </x:c>
       <x:c r="C95" s="0" t="s">
         <x:v>25</x:v>
@@ -9394,10 +9394,10 @@
     </x:row>
     <x:row r="96" spans="1:22">
       <x:c r="A96" s="0" t="s">
+        <x:v>299</x:v>
+      </x:c>
+      <x:c r="B96" s="0" t="s">
         <x:v>300</x:v>
-      </x:c>
-      <x:c r="B96" s="0" t="s">
-        <x:v>301</x:v>
       </x:c>
       <x:c r="C96" s="0" t="s">
         <x:v>24</x:v>
@@ -9462,10 +9462,10 @@
     </x:row>
     <x:row r="97" spans="1:22">
       <x:c r="A97" s="0" t="s">
+        <x:v>301</x:v>
+      </x:c>
+      <x:c r="B97" s="0" t="s">
         <x:v>302</x:v>
-      </x:c>
-      <x:c r="B97" s="0" t="s">
-        <x:v>303</x:v>
       </x:c>
       <x:c r="C97" s="0" t="s">
         <x:v>33</x:v>
@@ -9525,15 +9525,15 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="V97" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>303</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="1:22">
       <x:c r="A98" s="0" t="s">
+        <x:v>304</x:v>
+      </x:c>
+      <x:c r="B98" s="0" t="s">
         <x:v>305</x:v>
-      </x:c>
-      <x:c r="B98" s="0" t="s">
-        <x:v>306</x:v>
       </x:c>
       <x:c r="C98" s="0" t="s">
         <x:v>24</x:v>
@@ -9598,10 +9598,10 @@
     </x:row>
     <x:row r="99" spans="1:22">
       <x:c r="A99" s="0" t="s">
+        <x:v>306</x:v>
+      </x:c>
+      <x:c r="B99" s="0" t="s">
         <x:v>307</x:v>
-      </x:c>
-      <x:c r="B99" s="0" t="s">
-        <x:v>308</x:v>
       </x:c>
       <x:c r="C99" s="0" t="s">
         <x:v>40</x:v>
@@ -9666,10 +9666,10 @@
     </x:row>
     <x:row r="100" spans="1:22">
       <x:c r="A100" s="0" t="s">
+        <x:v>308</x:v>
+      </x:c>
+      <x:c r="B100" s="0" t="s">
         <x:v>309</x:v>
-      </x:c>
-      <x:c r="B100" s="0" t="s">
-        <x:v>310</x:v>
       </x:c>
       <x:c r="C100" s="0" t="s">
         <x:v>24</x:v>
@@ -9734,10 +9734,10 @@
     </x:row>
     <x:row r="101" spans="1:22">
       <x:c r="A101" s="0" t="s">
+        <x:v>310</x:v>
+      </x:c>
+      <x:c r="B101" s="0" t="s">
         <x:v>311</x:v>
-      </x:c>
-      <x:c r="B101" s="0" t="s">
-        <x:v>312</x:v>
       </x:c>
       <x:c r="C101" s="0" t="s">
         <x:v>114</x:v>
@@ -9749,10 +9749,10 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="F101" s="0" t="s">
+        <x:v>312</x:v>
+      </x:c>
+      <x:c r="G101" s="0" t="s">
         <x:v>313</x:v>
-      </x:c>
-      <x:c r="G101" s="0" t="s">
-        <x:v>314</x:v>
       </x:c>
       <x:c r="H101" s="0" t="s">
         <x:v>33</x:v>
@@ -9761,7 +9761,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J101" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="K101" s="0" t="s">
         <x:v>24</x:v>
@@ -9773,7 +9773,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="N101" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="O101" s="0" t="s">
         <x:v>24</x:v>
@@ -9794,18 +9794,18 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="U101" s="0" t="s">
+        <x:v>316</x:v>
+      </x:c>
+      <x:c r="V101" s="0" t="s">
         <x:v>317</x:v>
-      </x:c>
-      <x:c r="V101" s="0" t="s">
-        <x:v>318</x:v>
       </x:c>
     </x:row>
     <x:row r="102" spans="1:22">
       <x:c r="A102" s="0" t="s">
+        <x:v>318</x:v>
+      </x:c>
+      <x:c r="B102" s="0" t="s">
         <x:v>319</x:v>
-      </x:c>
-      <x:c r="B102" s="0" t="s">
-        <x:v>320</x:v>
       </x:c>
       <x:c r="C102" s="0" t="s">
         <x:v>25</x:v>
@@ -9870,10 +9870,10 @@
     </x:row>
     <x:row r="103" spans="1:22">
       <x:c r="A103" s="0" t="s">
+        <x:v>320</x:v>
+      </x:c>
+      <x:c r="B103" s="0" t="s">
         <x:v>321</x:v>
-      </x:c>
-      <x:c r="B103" s="0" t="s">
-        <x:v>322</x:v>
       </x:c>
       <x:c r="C103" s="0" t="s">
         <x:v>24</x:v>
@@ -9909,7 +9909,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N103" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="O103" s="0" t="s">
         <x:v>27</x:v>
@@ -9938,10 +9938,10 @@
     </x:row>
     <x:row r="104" spans="1:22">
       <x:c r="A104" s="0" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="B104" s="0" t="s">
         <x:v>323</x:v>
-      </x:c>
-      <x:c r="B104" s="0" t="s">
-        <x:v>324</x:v>
       </x:c>
       <x:c r="C104" s="0" t="s">
         <x:v>24</x:v>
@@ -10006,10 +10006,10 @@
     </x:row>
     <x:row r="105" spans="1:22">
       <x:c r="A105" s="0" t="s">
+        <x:v>324</x:v>
+      </x:c>
+      <x:c r="B105" s="0" t="s">
         <x:v>325</x:v>
-      </x:c>
-      <x:c r="B105" s="0" t="s">
-        <x:v>326</x:v>
       </x:c>
       <x:c r="C105" s="0" t="s">
         <x:v>25</x:v>
@@ -10074,10 +10074,10 @@
     </x:row>
     <x:row r="106" spans="1:22">
       <x:c r="A106" s="0" t="s">
+        <x:v>326</x:v>
+      </x:c>
+      <x:c r="B106" s="0" t="s">
         <x:v>327</x:v>
-      </x:c>
-      <x:c r="B106" s="0" t="s">
-        <x:v>328</x:v>
       </x:c>
       <x:c r="C106" s="0" t="s">
         <x:v>27</x:v>
@@ -10092,7 +10092,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="G106" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="H106" s="0" t="s">
         <x:v>24</x:v>
@@ -10142,16 +10142,16 @@
     </x:row>
     <x:row r="107" spans="1:22">
       <x:c r="A107" s="0" t="s">
+        <x:v>329</x:v>
+      </x:c>
+      <x:c r="B107" s="0" t="s">
         <x:v>330</x:v>
-      </x:c>
-      <x:c r="B107" s="0" t="s">
-        <x:v>331</x:v>
       </x:c>
       <x:c r="C107" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="D107" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="E107" s="0" t="s">
         <x:v>24</x:v>
@@ -10160,7 +10160,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="G107" s="0" t="s">
-        <x:v>332</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="H107" s="0" t="s">
         <x:v>24</x:v>
@@ -10187,7 +10187,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="P107" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="Q107" s="0" t="s">
         <x:v>24</x:v>
@@ -10205,15 +10205,15 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="V107" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>333</x:v>
       </x:c>
     </x:row>
     <x:row r="108" spans="1:22">
       <x:c r="A108" s="0" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="B108" s="0" t="s">
         <x:v>335</x:v>
-      </x:c>
-      <x:c r="B108" s="0" t="s">
-        <x:v>336</x:v>
       </x:c>
       <x:c r="C108" s="0" t="s">
         <x:v>25</x:v>
@@ -10273,15 +10273,15 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="V108" s="0" t="s">
-        <x:v>337</x:v>
+        <x:v>336</x:v>
       </x:c>
     </x:row>
     <x:row r="109" spans="1:22">
       <x:c r="A109" s="0" t="s">
+        <x:v>337</x:v>
+      </x:c>
+      <x:c r="B109" s="0" t="s">
         <x:v>338</x:v>
-      </x:c>
-      <x:c r="B109" s="0" t="s">
-        <x:v>339</x:v>
       </x:c>
       <x:c r="C109" s="0" t="s">
         <x:v>24</x:v>
@@ -10346,10 +10346,10 @@
     </x:row>
     <x:row r="110" spans="1:22">
       <x:c r="A110" s="0" t="s">
+        <x:v>339</x:v>
+      </x:c>
+      <x:c r="B110" s="0" t="s">
         <x:v>340</x:v>
-      </x:c>
-      <x:c r="B110" s="0" t="s">
-        <x:v>341</x:v>
       </x:c>
       <x:c r="C110" s="0" t="s">
         <x:v>40</x:v>
@@ -10414,10 +10414,10 @@
     </x:row>
     <x:row r="111" spans="1:22">
       <x:c r="A111" s="0" t="s">
+        <x:v>341</x:v>
+      </x:c>
+      <x:c r="B111" s="0" t="s">
         <x:v>342</x:v>
-      </x:c>
-      <x:c r="B111" s="0" t="s">
-        <x:v>343</x:v>
       </x:c>
       <x:c r="C111" s="0" t="s">
         <x:v>24</x:v>
@@ -10482,10 +10482,10 @@
     </x:row>
     <x:row r="112" spans="1:22">
       <x:c r="A112" s="0" t="s">
+        <x:v>343</x:v>
+      </x:c>
+      <x:c r="B112" s="0" t="s">
         <x:v>344</x:v>
-      </x:c>
-      <x:c r="B112" s="0" t="s">
-        <x:v>345</x:v>
       </x:c>
       <x:c r="C112" s="0" t="s">
         <x:v>24</x:v>
@@ -10550,10 +10550,10 @@
     </x:row>
     <x:row r="113" spans="1:22">
       <x:c r="A113" s="0" t="s">
+        <x:v>345</x:v>
+      </x:c>
+      <x:c r="B113" s="0" t="s">
         <x:v>346</x:v>
-      </x:c>
-      <x:c r="B113" s="0" t="s">
-        <x:v>347</x:v>
       </x:c>
       <x:c r="C113" s="0" t="s">
         <x:v>27</x:v>
@@ -10613,15 +10613,15 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V113" s="0" t="s">
-        <x:v>348</x:v>
+        <x:v>347</x:v>
       </x:c>
     </x:row>
     <x:row r="114" spans="1:22">
       <x:c r="A114" s="0" t="s">
+        <x:v>348</x:v>
+      </x:c>
+      <x:c r="B114" s="0" t="s">
         <x:v>349</x:v>
-      </x:c>
-      <x:c r="B114" s="0" t="s">
-        <x:v>350</x:v>
       </x:c>
       <x:c r="C114" s="0" t="s">
         <x:v>24</x:v>
@@ -10636,7 +10636,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G114" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="H114" s="0" t="s">
         <x:v>24</x:v>
@@ -10681,7 +10681,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="V114" s="0" t="s">
-        <x:v>287</x:v>
+        <x:v>350</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:22">
@@ -10725,7 +10725,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N115" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="O115" s="0" t="s">
         <x:v>43</x:v>
@@ -10840,7 +10840,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="G117" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="H117" s="0" t="s">
         <x:v>24</x:v>
@@ -10885,7 +10885,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V117" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>316</x:v>
       </x:c>
     </x:row>
     <x:row r="118" spans="1:22">
@@ -11355,7 +11355,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="T124" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="U124" s="0" t="s">
         <x:v>89</x:v>
@@ -12289,7 +12289,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N138" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="O138" s="0" t="s">
         <x:v>55</x:v>
@@ -12313,7 +12313,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V138" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>171</x:v>
       </x:c>
     </x:row>
     <x:row r="139" spans="1:22">
@@ -12517,7 +12517,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="V141" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>170</x:v>
       </x:c>
     </x:row>
     <x:row r="142" spans="1:22">
@@ -12697,7 +12697,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N144" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="O144" s="0" t="s">
         <x:v>24</x:v>
@@ -12744,7 +12744,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="G145" s="0" t="s">
-        <x:v>348</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="H145" s="0" t="s">
         <x:v>24</x:v>
@@ -13037,7 +13037,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N149" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="O149" s="0" t="s">
         <x:v>49</x:v>
@@ -13401,15 +13401,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V154" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>440</x:v>
       </x:c>
     </x:row>
     <x:row r="155" spans="1:22">
       <x:c r="A155" s="0" t="s">
-        <x:v>440</x:v>
+        <x:v>441</x:v>
       </x:c>
       <x:c r="B155" s="0" t="s">
-        <x:v>441</x:v>
+        <x:v>442</x:v>
       </x:c>
       <x:c r="C155" s="0" t="s">
         <x:v>24</x:v>
@@ -13474,10 +13474,10 @@
     </x:row>
     <x:row r="156" spans="1:22">
       <x:c r="A156" s="0" t="s">
-        <x:v>442</x:v>
+        <x:v>443</x:v>
       </x:c>
       <x:c r="B156" s="0" t="s">
-        <x:v>443</x:v>
+        <x:v>444</x:v>
       </x:c>
       <x:c r="C156" s="0" t="s">
         <x:v>24</x:v>
@@ -13542,10 +13542,10 @@
     </x:row>
     <x:row r="157" spans="1:22">
       <x:c r="A157" s="0" t="s">
-        <x:v>444</x:v>
+        <x:v>445</x:v>
       </x:c>
       <x:c r="B157" s="0" t="s">
-        <x:v>445</x:v>
+        <x:v>446</x:v>
       </x:c>
       <x:c r="C157" s="0" t="s">
         <x:v>24</x:v>
@@ -13610,10 +13610,10 @@
     </x:row>
     <x:row r="158" spans="1:22">
       <x:c r="A158" s="0" t="s">
-        <x:v>446</x:v>
+        <x:v>447</x:v>
       </x:c>
       <x:c r="B158" s="0" t="s">
-        <x:v>447</x:v>
+        <x:v>448</x:v>
       </x:c>
       <x:c r="C158" s="0" t="s">
         <x:v>24</x:v>
@@ -13678,10 +13678,10 @@
     </x:row>
     <x:row r="159" spans="1:22">
       <x:c r="A159" s="0" t="s">
-        <x:v>448</x:v>
+        <x:v>449</x:v>
       </x:c>
       <x:c r="B159" s="0" t="s">
-        <x:v>449</x:v>
+        <x:v>450</x:v>
       </x:c>
       <x:c r="C159" s="0" t="s">
         <x:v>24</x:v>
@@ -13741,15 +13741,15 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V159" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>312</x:v>
       </x:c>
     </x:row>
     <x:row r="160" spans="1:22">
       <x:c r="A160" s="0" t="s">
-        <x:v>450</x:v>
+        <x:v>451</x:v>
       </x:c>
       <x:c r="B160" s="0" t="s">
-        <x:v>451</x:v>
+        <x:v>452</x:v>
       </x:c>
       <x:c r="C160" s="0" t="s">
         <x:v>24</x:v>
@@ -13814,10 +13814,10 @@
     </x:row>
     <x:row r="161" spans="1:22">
       <x:c r="A161" s="0" t="s">
-        <x:v>452</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="B161" s="0" t="s">
-        <x:v>453</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="C161" s="0" t="s">
         <x:v>24</x:v>
@@ -13882,10 +13882,10 @@
     </x:row>
     <x:row r="162" spans="1:22">
       <x:c r="A162" s="0" t="s">
-        <x:v>454</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="B162" s="0" t="s">
-        <x:v>455</x:v>
+        <x:v>456</x:v>
       </x:c>
       <x:c r="C162" s="0" t="s">
         <x:v>24</x:v>
@@ -13950,10 +13950,10 @@
     </x:row>
     <x:row r="163" spans="1:22">
       <x:c r="A163" s="0" t="s">
-        <x:v>456</x:v>
+        <x:v>457</x:v>
       </x:c>
       <x:c r="B163" s="0" t="s">
-        <x:v>457</x:v>
+        <x:v>458</x:v>
       </x:c>
       <x:c r="C163" s="0" t="s">
         <x:v>24</x:v>
@@ -14018,10 +14018,10 @@
     </x:row>
     <x:row r="164" spans="1:22">
       <x:c r="A164" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B164" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="C164" s="0" t="s">
         <x:v>24</x:v>
@@ -14086,10 +14086,10 @@
     </x:row>
     <x:row r="165" spans="1:22">
       <x:c r="A165" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>461</x:v>
       </x:c>
       <x:c r="B165" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="C165" s="0" t="s">
         <x:v>24</x:v>
@@ -14154,10 +14154,10 @@
     </x:row>
     <x:row r="166" spans="1:22">
       <x:c r="A166" s="0" t="s">
-        <x:v>462</x:v>
+        <x:v>463</x:v>
       </x:c>
       <x:c r="B166" s="0" t="s">
-        <x:v>463</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="C166" s="0" t="s">
         <x:v>24</x:v>
@@ -14222,10 +14222,10 @@
     </x:row>
     <x:row r="167" spans="1:22">
       <x:c r="A167" s="0" t="s">
-        <x:v>464</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="B167" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="C167" s="0" t="s">
         <x:v>24</x:v>
@@ -14290,10 +14290,10 @@
     </x:row>
     <x:row r="168" spans="1:22">
       <x:c r="A168" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B168" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="C168" s="0" t="s">
         <x:v>24</x:v>
@@ -14358,10 +14358,10 @@
     </x:row>
     <x:row r="169" spans="1:22">
       <x:c r="A169" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="B169" s="0" t="s">
-        <x:v>469</x:v>
+        <x:v>470</x:v>
       </x:c>
       <x:c r="C169" s="0" t="s">
         <x:v>24</x:v>
@@ -14426,10 +14426,10 @@
     </x:row>
     <x:row r="170" spans="1:22">
       <x:c r="A170" s="0" t="s">
-        <x:v>470</x:v>
+        <x:v>471</x:v>
       </x:c>
       <x:c r="B170" s="0" t="s">
-        <x:v>471</x:v>
+        <x:v>472</x:v>
       </x:c>
       <x:c r="C170" s="0" t="s">
         <x:v>24</x:v>
@@ -14494,10 +14494,10 @@
     </x:row>
     <x:row r="171" spans="1:22">
       <x:c r="A171" s="0" t="s">
-        <x:v>472</x:v>
+        <x:v>473</x:v>
       </x:c>
       <x:c r="B171" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>474</x:v>
       </x:c>
       <x:c r="C171" s="0" t="s">
         <x:v>24</x:v>
@@ -14557,7 +14557,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="V171" s="0" t="s">
-        <x:v>474</x:v>
+        <x:v>350</x:v>
       </x:c>
     </x:row>
     <x:row r="172" spans="1:22">
@@ -14648,7 +14648,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G173" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="H173" s="0" t="s">
         <x:v>24</x:v>
@@ -14829,7 +14829,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V175" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>312</x:v>
       </x:c>
     </x:row>
     <x:row r="176" spans="1:22">
@@ -15169,7 +15169,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V180" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>314</x:v>
       </x:c>
     </x:row>
     <x:row r="181" spans="1:22">
@@ -15237,7 +15237,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V181" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>170</x:v>
       </x:c>
     </x:row>
     <x:row r="182" spans="1:22">
@@ -15532,7 +15532,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="G186" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="H186" s="0" t="s">
         <x:v>24</x:v>
@@ -15781,7 +15781,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="V189" s="0" t="s">
-        <x:v>348</x:v>
+        <x:v>347</x:v>
       </x:c>
     </x:row>
     <x:row r="190" spans="1:22">
@@ -15872,7 +15872,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G191" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="H191" s="0" t="s">
         <x:v>24</x:v>
@@ -16008,7 +16008,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G193" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="H193" s="0" t="s">
         <x:v>25</x:v>
@@ -16416,7 +16416,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="G199" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="H199" s="0" t="s">
         <x:v>24</x:v>
@@ -16892,7 +16892,7 @@
         <x:v>65</x:v>
       </x:c>
       <x:c r="G206" s="0" t="s">
-        <x:v>332</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="H206" s="0" t="s">
         <x:v>24</x:v>
@@ -16913,7 +16913,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N206" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="O206" s="0" t="s">
         <x:v>25</x:v>
@@ -16960,7 +16960,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="G207" s="0" t="s">
-        <x:v>332</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="H207" s="0" t="s">
         <x:v>25</x:v>
@@ -16981,7 +16981,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N207" s="0" t="s">
-        <x:v>332</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="O207" s="0" t="s">
         <x:v>24</x:v>
@@ -17073,7 +17073,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V208" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>314</x:v>
       </x:c>
     </x:row>
     <x:row r="209" spans="1:22">
@@ -17164,7 +17164,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="G210" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="H210" s="0" t="s">
         <x:v>24</x:v>
@@ -17436,7 +17436,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="G214" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="H214" s="0" t="s">
         <x:v>24</x:v>
@@ -17457,7 +17457,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N214" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>440</x:v>
       </x:c>
       <x:c r="O214" s="0" t="s">
         <x:v>24</x:v>
@@ -17481,7 +17481,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="V214" s="0" t="s">
-        <x:v>474</x:v>
+        <x:v>350</x:v>
       </x:c>
     </x:row>
     <x:row r="215" spans="1:22">
@@ -17549,7 +17549,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="V215" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>217</x:v>
       </x:c>
     </x:row>
     <x:row r="216" spans="1:22">
@@ -17640,7 +17640,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="G217" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="H217" s="0" t="s">
         <x:v>24</x:v>
@@ -17821,7 +17821,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V219" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>170</x:v>
       </x:c>
     </x:row>
     <x:row r="220" spans="1:22">
@@ -17853,7 +17853,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="J220" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="K220" s="0" t="s">
         <x:v>25</x:v>
@@ -17933,7 +17933,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="N221" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="O221" s="0" t="s">
         <x:v>24</x:v>
@@ -18909,7 +18909,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V235" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>170</x:v>
       </x:c>
     </x:row>
     <x:row r="236" spans="1:22">
@@ -19521,7 +19521,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V244" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>170</x:v>
       </x:c>
     </x:row>
     <x:row r="245" spans="1:22">
@@ -19589,7 +19589,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V245" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>312</x:v>
       </x:c>
     </x:row>
     <x:row r="246" spans="1:22">
@@ -19952,7 +19952,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G251" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="H251" s="0" t="s">
         <x:v>24</x:v>
@@ -20153,7 +20153,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="F254" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="G254" s="0" t="s">
         <x:v>90</x:v>
@@ -20269,7 +20269,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V255" s="0" t="s">
-        <x:v>332</x:v>
+        <x:v>331</x:v>
       </x:c>
     </x:row>
     <x:row r="256" spans="1:22">
@@ -20301,7 +20301,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="J256" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="K256" s="0" t="s">
         <x:v>24</x:v>
@@ -20455,7 +20455,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="P258" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="Q258" s="0" t="s">
         <x:v>24</x:v>
@@ -20591,7 +20591,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="P260" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="Q260" s="0" t="s">
         <x:v>25</x:v>
@@ -21629,7 +21629,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="V275" s="0" t="s">
-        <x:v>332</x:v>
+        <x:v>331</x:v>
       </x:c>
     </x:row>
     <x:row r="276" spans="1:22">
@@ -22264,7 +22264,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="G285" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="H285" s="0" t="s">
         <x:v>24</x:v>
@@ -23397,7 +23397,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="V301" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>332</x:v>
       </x:c>
     </x:row>
     <x:row r="302" spans="1:22">
@@ -23459,7 +23459,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="T302" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="U302" s="0" t="s">
         <x:v>55</x:v>
@@ -23601,7 +23601,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="V304" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>332</x:v>
       </x:c>
     </x:row>
     <x:row r="305" spans="1:22">
@@ -23737,7 +23737,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V306" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
     </x:row>
     <x:row r="307" spans="1:22">
@@ -23828,7 +23828,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="G308" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="H308" s="0" t="s">
         <x:v>24</x:v>
@@ -24009,7 +24009,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V310" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>170</x:v>
       </x:c>
     </x:row>
     <x:row r="311" spans="1:22">
@@ -24417,7 +24417,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V316" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>314</x:v>
       </x:c>
     </x:row>
     <x:row r="317" spans="1:22">
@@ -24712,7 +24712,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="G321" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="H321" s="0" t="s">
         <x:v>25</x:v>
@@ -24961,7 +24961,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V324" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>171</x:v>
       </x:c>
     </x:row>
     <x:row r="325" spans="1:22">
@@ -25141,7 +25141,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="N327" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="O327" s="0" t="s">
         <x:v>49</x:v>
@@ -25159,7 +25159,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="T327" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="U327" s="0" t="s">
         <x:v>74</x:v>
@@ -25233,7 +25233,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="V328" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>315</x:v>
       </x:c>
     </x:row>
     <x:row r="329" spans="1:22">
@@ -25301,7 +25301,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="V329" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
     </x:row>
     <x:row r="330" spans="1:22">
@@ -25392,7 +25392,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="G331" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="H331" s="0" t="s">
         <x:v>24</x:v>
@@ -25641,7 +25641,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V334" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
       </x:c>
     </x:row>
     <x:row r="335" spans="1:22">
@@ -25821,7 +25821,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="N337" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="O337" s="0" t="s">
         <x:v>24</x:v>
@@ -25936,7 +25936,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G339" s="0" t="s">
-        <x:v>332</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="H339" s="0" t="s">
         <x:v>24</x:v>
@@ -25981,7 +25981,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V339" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>332</x:v>
       </x:c>
     </x:row>
     <x:row r="340" spans="1:22">

--- a/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsDrugByAgencyDownloadData_ReportYear_2021.xlsx
@@ -250,718 +250,718 @@
     <x:t>33</x:t>
   </x:si>
   <x:si>
+    <x:t>54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0020800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Spring Lake Park Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0021300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ramsey Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0021500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>St Francis Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0030000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Becker County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>60</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0030100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Detroit Lakes Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>82</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0040000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Beltrami County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>51</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>131</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0040100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bemidji Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0050000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Benton County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0050200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sauk Rapids Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0070000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blue Earth County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>57</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0070100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mankato Dept of Public Safety</x:t>
+  </x:si>
+  <x:si>
+    <x:t>85</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58</x:t>
+  </x:si>
+  <x:si>
+    <x:t>188</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0070200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mapleton Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0070400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Eagle Lake Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0070500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lake Crystal Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0071000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Madison Lake Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0080000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brown County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0080100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New Ulm Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>59</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0080200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sleepy Eye Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0090000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Carlton County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>63</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0090100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cloquet Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0100000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Carver County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>67</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>144</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0100200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chaska Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0110000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cass County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>76</x:t>
+  </x:si>
+  <x:si>
+    <x:t>112</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0110200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Walker Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0110500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pine River Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0120000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chippewa County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0120100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clara City Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0120200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Montevideo Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0130000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Chisago County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0130500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>North Branch Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0130800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wyoming Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0130900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lakes Area Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0140000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clay County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0140200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dilworth Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0140300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hawley Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0140400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Moorhead Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>74</x:t>
+  </x:si>
+  <x:si>
+    <x:t>285</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0150000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clearwater County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0160000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cook County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0170000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cottonwood County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0170100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mountain Lake Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0170200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Windom Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0180000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crow Wing County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0180100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brainerd Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>105</x:t>
+  </x:si>
+  <x:si>
+    <x:t>226</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0180200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crosby Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0180300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Breezy Point Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0180400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crosslake Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0180500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baxter Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0181000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nisswa Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0181100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pequot Lakes Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dakota County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Burnsville Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Farmington Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hastings Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>86</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mendota Heights Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rosemount Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>South St Paul Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>62</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>West St Paul Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Eagan Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>121</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0190900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Inver Grove Heights Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0191000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Apple Valley Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0191100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lakeville Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0200000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dodge County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0200200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kasson Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0210000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Douglas County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37</x:t>
+  </x:si>
+  <x:si>
+    <x:t>88</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0210100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Alexandria Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>42</x:t>
+  </x:si>
+  <x:si>
+    <x:t>103</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0210200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Osakis Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0220000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Faribault County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0220100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Blue Earth Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0220400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wells Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0220500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Winnebago Public Safety</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0230000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fillmore County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0240000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Freeborn County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0240100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Albert Lea Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>69</x:t>
+  </x:si>
+  <x:si>
+    <x:t>137</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0250000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Goodhue County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0250100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cannon Falls Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0250300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Red Wing Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>80</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0250800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zumbrota Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0260000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Grant County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hennepin County Sheriff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>77</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bloomington Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>93</x:t>
+  </x:si>
+  <x:si>
+    <x:t>240</x:t>
+  </x:si>
+  <x:si>
+    <x:t>79</x:t>
+  </x:si>
+  <x:si>
+    <x:t>768</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brooklyn Center Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brooklyn Park Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crystal Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Deephaven Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Edina Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>150</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270700</x:t>
+  </x:si>
+  <x:si>
+    <x:t>South Lake Minnetonka Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Golden Valley Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0270900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hopkins Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MN0271100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Minneapolis Police Dept</x:t>
+  </x:si>
+  <x:si>
+    <x:t>169</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>102</x:t>
+  </x:si>
+  <x:si>
     <x:t>55</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0020800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Spring Lake Park Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0021300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ramsey Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0021500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>St Francis Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0030000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Becker County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>60</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0030100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Detroit Lakes Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>82</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0040000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Beltrami County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>51</x:t>
-  </x:si>
-  <x:si>
-    <x:t>34</x:t>
-  </x:si>
-  <x:si>
-    <x:t>131</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0040100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bemidji Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0050000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Benton County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0050200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sauk Rapids Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0070000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blue Earth County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>57</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0070100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mankato Dept of Public Safety</x:t>
-  </x:si>
-  <x:si>
-    <x:t>85</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58</x:t>
-  </x:si>
-  <x:si>
-    <x:t>188</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0070200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mapleton Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0070400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Eagle Lake Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0070500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lake Crystal Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0071000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Madison Lake Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0080000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Brown County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0080100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>New Ulm Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>39</x:t>
-  </x:si>
-  <x:si>
-    <x:t>59</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0080200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sleepy Eye Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0090000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Carlton County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>63</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0090100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cloquet Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>46</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0100000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Carver County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>67</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>144</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0100200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Chaska Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>48</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0110000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cass County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>76</x:t>
-  </x:si>
-  <x:si>
-    <x:t>112</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0110200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Walker Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0110500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pine River Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0120000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Chippewa County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0120100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Clara City Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0120200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Montevideo Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0130000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Chisago County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0130500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>North Branch Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0130800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wyoming Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0130900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lakes Area Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0140000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Clay County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>43</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0140200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dilworth Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0140300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hawley Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0140400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Moorhead Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>74</x:t>
-  </x:si>
-  <x:si>
-    <x:t>285</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0150000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Clearwater County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0160000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cook County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0170000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cottonwood County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0170100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mountain Lake Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0170200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Windom Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0180000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crow Wing County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0180100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Brainerd Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>105</x:t>
-  </x:si>
-  <x:si>
-    <x:t>226</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0180200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crosby Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0180300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Breezy Point Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0180400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crosslake Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0180500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baxter Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0181000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nisswa Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0181100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pequot Lakes Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dakota County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Burnsville Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Farmington Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hastings Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>86</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mendota Heights Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rosemount Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>South St Paul Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>62</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>West St Paul Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Eagan Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>121</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0190900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Inver Grove Heights Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0191000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Apple Valley Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0191100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lakeville Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0200000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dodge County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0200200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kasson Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0210000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Douglas County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>37</x:t>
-  </x:si>
-  <x:si>
-    <x:t>88</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0210100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Alexandria Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>42</x:t>
-  </x:si>
-  <x:si>
-    <x:t>103</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0210200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Osakis Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0220000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Faribault County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0220100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Blue Earth Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0220400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wells Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0220500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Winnebago Public Safety</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0230000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fillmore County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0240000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Freeborn County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0240100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Albert Lea Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>38</x:t>
-  </x:si>
-  <x:si>
-    <x:t>69</x:t>
-  </x:si>
-  <x:si>
-    <x:t>137</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0250000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Goodhue County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>41</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0250100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cannon Falls Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0250300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Red Wing Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>80</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0250800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Zumbrota Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0260000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Grant County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270000</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hennepin County Sheriff</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>77</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bloomington Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>49</x:t>
-  </x:si>
-  <x:si>
-    <x:t>93</x:t>
-  </x:si>
-  <x:si>
-    <x:t>240</x:t>
-  </x:si>
-  <x:si>
-    <x:t>79</x:t>
-  </x:si>
-  <x:si>
-    <x:t>768</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Brooklyn Center Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Brooklyn Park Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>111</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Crystal Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Deephaven Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Edina Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>150</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270700</x:t>
-  </x:si>
-  <x:si>
-    <x:t>South Lake Minnetonka Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Golden Valley Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0270900</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hopkins Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MN0271100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Minneapolis Police Dept</x:t>
-  </x:si>
-  <x:si>
-    <x:t>54</x:t>
-  </x:si>
-  <x:si>
-    <x:t>169</x:t>
-  </x:si>
-  <x:si>
-    <x:t>45</x:t>
-  </x:si>
-  <x:si>
-    <x:t>102</x:t>
   </x:si>
   <x:si>
     <x:t>94</x:t>
@@ -3697,7 +3697,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F12" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
         <x:v>77</x:v>
@@ -9749,10 +9749,10 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="F101" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="G101" s="0" t="s">
         <x:v>312</x:v>
-      </x:c>
-      <x:c r="G101" s="0" t="s">
-        <x:v>313</x:v>
       </x:c>
       <x:c r="H101" s="0" t="s">
         <x:v>33</x:v>
@@ -9761,7 +9761,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="J101" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="K101" s="0" t="s">
         <x:v>24</x:v>
@@ -9773,7 +9773,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="N101" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="O101" s="0" t="s">
         <x:v>24</x:v>
@@ -9791,7 +9791,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="T101" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="U101" s="0" t="s">
         <x:v>316</x:v>
@@ -13741,7 +13741,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V159" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="160" spans="1:22">
@@ -14829,7 +14829,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V175" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="176" spans="1:22">
@@ -15169,7 +15169,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V180" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>313</x:v>
       </x:c>
     </x:row>
     <x:row r="181" spans="1:22">
@@ -17073,7 +17073,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V208" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>313</x:v>
       </x:c>
     </x:row>
     <x:row r="209" spans="1:22">
@@ -17957,7 +17957,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V221" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>315</x:v>
       </x:c>
     </x:row>
     <x:row r="222" spans="1:22">
@@ -19589,7 +19589,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V245" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="246" spans="1:22">
@@ -24417,7 +24417,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="V316" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>313</x:v>
       </x:c>
     </x:row>
     <x:row r="317" spans="1:22">
@@ -24683,7 +24683,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="T320" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="U320" s="0" t="s">
         <x:v>93</x:v>
@@ -24712,7 +24712,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="G321" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="H321" s="0" t="s">
         <x:v>25</x:v>
@@ -25233,7 +25233,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="V328" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>314</x:v>
       </x:c>
     </x:row>
     <x:row r="329" spans="1:22">
